--- a/2020.HK.xlsx
+++ b/2020.HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF19B4-5B40-4847-B4CA-5B2019879994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEA9D90-79BB-4073-BB01-38E9ECFAA776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{A24C8550-AABC-4E33-81F8-E1B227287154}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A24C8550-AABC-4E33-81F8-E1B227287154}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Anta Sports Prouducts</t>
   </si>
@@ -282,7 +282,25 @@
     <t>HKD/RMB</t>
   </si>
   <si>
-    <t>Q424</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Aquired Jack Wolfskin for $290 Mio USD in 2025</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>H225</t>
+  </si>
+  <si>
+    <t>Maia Active</t>
+  </si>
+  <si>
+    <t>Employee- Count</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -502,6 +520,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707AF0D0-30B0-445C-9761-42F26CA70D80}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +886,7 @@
         <v>78</v>
       </c>
       <c r="H2" s="12">
-        <v>88.3</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,7 +895,7 @@
       </c>
       <c r="H3" s="12">
         <f>+H2*H10</f>
-        <v>82.119</v>
+        <v>94.488</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -885,7 +906,7 @@
         <v>2808.377</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,7 +918,7 @@
       </c>
       <c r="H5" s="12">
         <f>+H3*H4</f>
-        <v>230621.11086300001</v>
+        <v>265357.92597599997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,11 +929,11 @@
         <v>3</v>
       </c>
       <c r="H6" s="12">
-        <f>11390+19037+120</f>
-        <v>30547</v>
+        <f>9656+18543+987+2958</f>
+        <v>32144</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,11 +941,11 @@
         <v>4</v>
       </c>
       <c r="H7" s="12">
-        <f>8583+12233</f>
-        <v>20816</v>
+        <f>11889+12151</f>
+        <v>24040</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,7 +965,7 @@
       </c>
       <c r="H8" s="12">
         <f>+H5-H6+H7</f>
-        <v>220890.11086300001</v>
+        <v>257253.92597599997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -955,7 +976,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="17">
-        <f>+Model!G13/Model!G19</f>
+        <f>+Model!G14/Model!G20</f>
         <v>0.4765673632725656</v>
       </c>
       <c r="E9" s="5"/>
@@ -968,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="18">
-        <f>+Model!G14/Model!G19</f>
+        <f>+Model!G15/Model!G20</f>
         <v>0.38701645175633614</v>
       </c>
       <c r="E10" s="7"/>
@@ -1002,24 +1023,41 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="26">
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="Investors" xr:uid="{395B6C6B-A91B-4A90-8EDC-D1E83E7CE750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54530EA-0C07-4ABC-B674-B68D4026A86E}">
-  <dimension ref="A1:BZ300"/>
+  <dimension ref="A1:CB301"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,12 +1066,12 @@
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1052,26 +1090,32 @@
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="I2" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="J2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -1093,23 +1137,25 @@
       <c r="H3" s="21">
         <v>7135</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <v>7187</v>
+      </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="21">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21">
         <v>6832</v>
       </c>
-      <c r="M3" s="21">
+      <c r="O3" s="21">
         <v>6924</v>
       </c>
-      <c r="N3" s="21">
+      <c r="P3" s="21">
         <v>7053</v>
       </c>
-      <c r="O3" s="21">
+      <c r="Q3" s="21">
         <v>7135</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
@@ -1139,8 +1185,8 @@
       <c r="AR3" s="21"/>
       <c r="AS3" s="21"/>
       <c r="AT3" s="21"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
       <c r="AW3" s="12"/>
       <c r="AX3" s="12"/>
       <c r="AY3" s="12"/>
@@ -1171,8 +1217,10 @@
       <c r="BX3" s="12"/>
       <c r="BY3" s="12"/>
       <c r="BZ3" s="12"/>
-    </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -1194,23 +1242,25 @@
       <c r="H4" s="21">
         <v>2784</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21">
+        <v>2722</v>
+      </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="21">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21">
         <v>2571</v>
       </c>
-      <c r="M4" s="21">
+      <c r="O4" s="21">
         <v>2679</v>
       </c>
-      <c r="N4" s="21">
+      <c r="P4" s="21">
         <v>2778</v>
       </c>
-      <c r="O4" s="21">
+      <c r="Q4" s="21">
         <v>2784</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -1240,8 +1290,8 @@
       <c r="AR4" s="21"/>
       <c r="AS4" s="21"/>
       <c r="AT4" s="21"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
       <c r="AW4" s="12"/>
       <c r="AX4" s="12"/>
       <c r="AY4" s="12"/>
@@ -1272,8 +1322,10 @@
       <c r="BX4" s="12"/>
       <c r="BY4" s="12"/>
       <c r="BZ4" s="12"/>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1295,25 +1347,28 @@
       <c r="H5" s="21">
         <v>2060</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <f>1266+590+198</f>
+        <v>2054</v>
+      </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="21">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21">
         <v>2054</v>
       </c>
-      <c r="M5" s="21">
+      <c r="O5" s="21">
         <v>1984</v>
       </c>
-      <c r="N5" s="21">
+      <c r="P5" s="21">
         <f>1179+582+211</f>
         <v>1972</v>
       </c>
-      <c r="O5" s="21">
+      <c r="Q5" s="21">
         <f>1264+590+206</f>
         <v>2060</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
@@ -1343,8 +1398,8 @@
       <c r="AR5" s="21"/>
       <c r="AS5" s="21"/>
       <c r="AT5" s="21"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
       <c r="AW5" s="12"/>
       <c r="AX5" s="12"/>
       <c r="AY5" s="12"/>
@@ -1375,8 +1430,10 @@
       <c r="BX5" s="12"/>
       <c r="BY5" s="12"/>
       <c r="BZ5" s="12"/>
-    </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1398,23 +1455,25 @@
       <c r="H6" s="21">
         <v>226</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <v>241</v>
+      </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="21">
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21">
         <v>182</v>
       </c>
-      <c r="M6" s="21">
+      <c r="O6" s="21">
         <v>191</v>
       </c>
-      <c r="N6" s="21">
+      <c r="P6" s="21">
         <v>187</v>
       </c>
-      <c r="O6" s="21">
+      <c r="Q6" s="21">
         <v>226</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
@@ -1444,8 +1503,8 @@
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
       <c r="AT6" s="21"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
       <c r="AW6" s="12"/>
       <c r="AX6" s="12"/>
       <c r="AY6" s="12"/>
@@ -1476,8 +1535,10 @@
       <c r="BX6" s="12"/>
       <c r="BY6" s="12"/>
       <c r="BZ6" s="12"/>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1499,23 +1560,25 @@
       <c r="H7" s="21">
         <v>191</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <v>199</v>
+      </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="21">
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21">
         <v>155</v>
       </c>
-      <c r="M7" s="21">
+      <c r="O7" s="21">
         <v>161</v>
       </c>
-      <c r="N7" s="21">
+      <c r="P7" s="21">
         <v>164</v>
       </c>
-      <c r="O7" s="21">
+      <c r="Q7" s="21">
         <v>191</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
@@ -1545,8 +1608,8 @@
       <c r="AR7" s="21"/>
       <c r="AS7" s="21"/>
       <c r="AT7" s="21"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
@@ -1577,60 +1640,30 @@
       <c r="BX7" s="12"/>
       <c r="BY7" s="12"/>
       <c r="BZ7" s="12"/>
-    </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" ref="C8:F8" si="0">+SUM(C3:C7)</f>
-        <v>11579</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>11939</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" si="0"/>
-        <v>11918</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>12154</v>
-      </c>
-      <c r="G8" s="21">
-        <f>+SUM(G3:G7)</f>
-        <v>12242</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="21">
-        <f t="shared" ref="H8:O8" si="1">+SUM(H3:H7)</f>
-        <v>12396</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <f t="shared" si="1"/>
-        <v>11794</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" si="1"/>
-        <v>11939</v>
-      </c>
-      <c r="N8" s="21">
-        <f t="shared" si="1"/>
-        <v>12154</v>
-      </c>
-      <c r="O8" s="21">
-        <f t="shared" si="1"/>
-        <v>12396</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I8" s="21">
+        <v>50</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1662,8 +1695,8 @@
       <c r="AR8" s="21"/>
       <c r="AS8" s="21"/>
       <c r="AT8" s="21"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
       <c r="AW8" s="12"/>
       <c r="AX8" s="12"/>
       <c r="AY8" s="12"/>
@@ -1694,23 +1727,67 @@
       <c r="BX8" s="12"/>
       <c r="BY8" s="12"/>
       <c r="BZ8" s="12"/>
-    </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="16">
+        <f>+SUM(C3:C8)</f>
+        <v>11579</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:I9" si="0">+SUM(D3:D8)</f>
+        <v>11939</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>11918</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>12154</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>12242</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>12443</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
+        <v>12453</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22">
+        <f>+SUM(L3:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <f>+SUM(M3:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <f>+SUM(N3:N7)</f>
+        <v>11794</v>
+      </c>
+      <c r="O9" s="22">
+        <f>+SUM(O3:O7)</f>
+        <v>11939</v>
+      </c>
+      <c r="P9" s="22">
+        <f>+SUM(P3:P7)</f>
+        <v>12154</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>+SUM(Q3:Q7)</f>
+        <v>12396</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -1740,8 +1817,8 @@
       <c r="AR9" s="21"/>
       <c r="AS9" s="21"/>
       <c r="AT9" s="21"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
       <c r="AW9" s="12"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
@@ -1772,78 +1849,54 @@
       <c r="BX9" s="12"/>
       <c r="BY9" s="12"/>
       <c r="BZ9" s="12"/>
-    </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
-        <v>11111</v>
-      </c>
-      <c r="D10" s="12">
-        <f>+M10-C10</f>
-        <v>11360</v>
-      </c>
-      <c r="E10" s="21">
-        <v>12407</v>
-      </c>
-      <c r="F10" s="21">
-        <f>+N10-E10</f>
-        <v>12925</v>
-      </c>
-      <c r="G10" s="21">
-        <v>14635</v>
-      </c>
-      <c r="H10" s="21">
-        <f>+O10-G10</f>
-        <v>14567</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21">
-        <v>19139</v>
-      </c>
-      <c r="M10" s="21">
-        <v>22471</v>
-      </c>
-      <c r="N10" s="21">
-        <v>25332</v>
-      </c>
-      <c r="O10" s="21">
-        <v>29202</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="12"/>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12"/>
       <c r="AW10" s="12"/>
@@ -1876,78 +1929,82 @@
       <c r="BX10" s="12"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
-    </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA10" s="12"/>
+      <c r="CB10" s="12"/>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="12">
-        <v>14036</v>
+        <v>11111</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" ref="D11:D32" si="2">+M11-C11</f>
-        <v>15487</v>
-      </c>
-      <c r="E11" s="21">
-        <v>16313</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" ref="F11:F32" si="3">+N11-E11</f>
-        <v>18754</v>
-      </c>
-      <c r="G11" s="21">
-        <v>18082</v>
-      </c>
-      <c r="H11" s="21">
-        <f t="shared" ref="H11:H32" si="4">+O11-G11</f>
-        <v>21303</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21">
-        <v>28632</v>
-      </c>
-      <c r="M11" s="21">
-        <v>29523</v>
-      </c>
-      <c r="N11" s="21">
-        <v>35067</v>
-      </c>
-      <c r="O11" s="21">
-        <v>39385</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
+        <f>+O11-C11</f>
+        <v>11360</v>
+      </c>
+      <c r="E11" s="12">
+        <v>12407</v>
+      </c>
+      <c r="F11" s="12">
+        <f>+P11-E11</f>
+        <v>12925</v>
+      </c>
+      <c r="G11" s="12">
+        <v>14635</v>
+      </c>
+      <c r="H11" s="12">
+        <f>+Q11-G11</f>
+        <v>14567</v>
+      </c>
+      <c r="I11" s="12">
+        <v>16390</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>19139</v>
+      </c>
+      <c r="O11" s="12">
+        <v>22471</v>
+      </c>
+      <c r="P11" s="12">
+        <v>25332</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>29202</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
       <c r="AV11" s="12"/>
       <c r="AW11" s="12"/>
@@ -1980,49 +2037,53 @@
       <c r="BX11" s="12"/>
       <c r="BY11" s="12"/>
       <c r="BZ11" s="12"/>
-    </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA11" s="12"/>
+      <c r="CB11" s="12"/>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12">
-        <v>818</v>
+        <v>14036</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="2"/>
-        <v>839</v>
+        <f t="shared" ref="D12:D33" si="1">+O12-C12</f>
+        <v>15487</v>
       </c>
       <c r="E12" s="21">
-        <v>925</v>
+        <v>16313</v>
       </c>
       <c r="F12" s="21">
-        <f t="shared" si="3"/>
-        <v>1032</v>
+        <f t="shared" ref="F12:F33" si="2">+P12-E12</f>
+        <v>18754</v>
       </c>
       <c r="G12" s="21">
-        <v>1018</v>
+        <v>18082</v>
       </c>
       <c r="H12" s="21">
-        <f t="shared" si="4"/>
-        <v>1221</v>
-      </c>
-      <c r="I12" s="21"/>
+        <f t="shared" ref="H12:H33" si="3">+Q12-G12</f>
+        <v>21303</v>
+      </c>
+      <c r="I12" s="21">
+        <v>20886</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="21">
-        <v>1557</v>
-      </c>
-      <c r="M12" s="21">
-        <v>1657</v>
-      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="21">
-        <v>1957</v>
+        <v>28632</v>
       </c>
       <c r="O12" s="21">
-        <v>2239</v>
-      </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+        <v>29523</v>
+      </c>
+      <c r="P12" s="21">
+        <v>35067</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>39385</v>
+      </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
@@ -2052,8 +2113,8 @@
       <c r="AR12" s="21"/>
       <c r="AS12" s="21"/>
       <c r="AT12" s="21"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
@@ -2084,49 +2145,53 @@
       <c r="BX12" s="12"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
-    </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA12" s="12"/>
+      <c r="CB12" s="12"/>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12">
-        <v>13360</v>
+        <v>818</v>
       </c>
       <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>839</v>
+      </c>
+      <c r="E13" s="21">
+        <v>925</v>
+      </c>
+      <c r="F13" s="21">
         <f t="shared" si="2"/>
-        <v>14363</v>
-      </c>
-      <c r="E13" s="21">
-        <v>14170</v>
-      </c>
-      <c r="F13" s="21">
+        <v>1032</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1018</v>
+      </c>
+      <c r="H13" s="21">
         <f t="shared" si="3"/>
-        <v>16136</v>
-      </c>
-      <c r="G13" s="21">
-        <v>16077</v>
-      </c>
-      <c r="H13" s="21">
-        <f t="shared" si="4"/>
-        <v>17445</v>
-      </c>
-      <c r="I13" s="21"/>
+        <v>1221</v>
+      </c>
+      <c r="I13" s="21">
+        <v>1268</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="21">
-        <v>24012</v>
-      </c>
-      <c r="M13" s="21">
-        <v>27723</v>
-      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="21">
-        <v>30306</v>
+        <v>1557</v>
       </c>
       <c r="O13" s="21">
-        <v>33522</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+        <v>1657</v>
+      </c>
+      <c r="P13" s="21">
+        <v>1957</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>2239</v>
+      </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
@@ -2156,8 +2221,8 @@
       <c r="AR13" s="21"/>
       <c r="AS13" s="21"/>
       <c r="AT13" s="21"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
@@ -2188,49 +2253,53 @@
       <c r="BX13" s="12"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
-    </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA13" s="12"/>
+      <c r="CB13" s="12"/>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12">
-        <v>10777</v>
+        <v>13360</v>
       </c>
       <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>14363</v>
+      </c>
+      <c r="E14" s="21">
+        <v>14170</v>
+      </c>
+      <c r="F14" s="21">
         <f t="shared" si="2"/>
-        <v>10746</v>
-      </c>
-      <c r="E14" s="21">
-        <v>12229</v>
-      </c>
-      <c r="F14" s="21">
+        <v>16136</v>
+      </c>
+      <c r="G14" s="21">
+        <v>16077</v>
+      </c>
+      <c r="H14" s="21">
         <f t="shared" si="3"/>
-        <v>12874</v>
-      </c>
-      <c r="G14" s="21">
-        <v>13056</v>
-      </c>
-      <c r="H14" s="21">
-        <f t="shared" si="4"/>
-        <v>13570</v>
-      </c>
-      <c r="I14" s="21"/>
+        <v>17445</v>
+      </c>
+      <c r="I14" s="21">
+        <v>16950</v>
+      </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="21">
-        <v>21822</v>
-      </c>
-      <c r="M14" s="21">
-        <v>21523</v>
-      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="21">
-        <v>25103</v>
+        <v>24012</v>
       </c>
       <c r="O14" s="21">
-        <v>26626</v>
-      </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+        <v>27723</v>
+      </c>
+      <c r="P14" s="21">
+        <v>30306</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>33522</v>
+      </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
@@ -2260,8 +2329,8 @@
       <c r="AR14" s="21"/>
       <c r="AS14" s="21"/>
       <c r="AT14" s="21"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
       <c r="AW14" s="12"/>
       <c r="AX14" s="12"/>
       <c r="AY14" s="12"/>
@@ -2292,49 +2361,53 @@
       <c r="BX14" s="12"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
-    </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="12">
-        <v>1828</v>
+        <v>10777</v>
       </c>
       <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>10746</v>
+      </c>
+      <c r="E15" s="21">
+        <v>12229</v>
+      </c>
+      <c r="F15" s="21">
         <f t="shared" si="2"/>
-        <v>2577</v>
-      </c>
-      <c r="E15" s="21">
-        <v>3246</v>
-      </c>
-      <c r="F15" s="21">
+        <v>12874</v>
+      </c>
+      <c r="G15" s="21">
+        <v>13056</v>
+      </c>
+      <c r="H15" s="21">
         <f t="shared" si="3"/>
-        <v>3701</v>
-      </c>
-      <c r="G15" s="21">
-        <v>4602</v>
-      </c>
-      <c r="H15" s="21">
-        <f t="shared" si="4"/>
-        <v>6076</v>
-      </c>
-      <c r="I15" s="21"/>
+        <v>13570</v>
+      </c>
+      <c r="I15" s="21">
+        <v>14182</v>
+      </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="21">
-        <v>3494</v>
-      </c>
-      <c r="M15" s="21">
-        <v>4405</v>
-      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="21">
-        <v>6947</v>
+        <v>21822</v>
       </c>
       <c r="O15" s="21">
-        <v>10678</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+        <v>21523</v>
+      </c>
+      <c r="P15" s="21">
+        <v>25103</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>26626</v>
+      </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
@@ -2364,8 +2437,8 @@
       <c r="AR15" s="21"/>
       <c r="AS15" s="21"/>
       <c r="AT15" s="21"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
       <c r="AW15" s="12"/>
       <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
@@ -2396,49 +2469,53 @@
       <c r="BX15" s="12"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
-    </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="CA15" s="12"/>
+      <c r="CB15" s="12"/>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12">
-        <v>6640</v>
+        <v>1828</v>
       </c>
       <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>2577</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3246</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="2"/>
-        <v>7047</v>
-      </c>
-      <c r="E16" s="21">
-        <v>8085</v>
-      </c>
-      <c r="F16" s="21">
+        <v>3701</v>
+      </c>
+      <c r="G16" s="21">
+        <v>4602</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="3"/>
-        <v>8920</v>
-      </c>
-      <c r="G16" s="21">
-        <v>8937</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" si="4"/>
-        <v>9301</v>
-      </c>
-      <c r="I16" s="21"/>
+        <v>6076</v>
+      </c>
+      <c r="I16" s="21">
+        <v>7412</v>
+      </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="21">
-        <v>8554</v>
-      </c>
-      <c r="M16" s="21">
-        <v>13687</v>
-      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="21">
-        <v>17005</v>
+        <v>3494</v>
       </c>
       <c r="O16" s="21">
-        <v>18238</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+        <v>4405</v>
+      </c>
+      <c r="P16" s="21">
+        <v>6947</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>10678</v>
+      </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
@@ -2468,8 +2545,8 @@
       <c r="AR16" s="21"/>
       <c r="AS16" s="21"/>
       <c r="AT16" s="21"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12"/>
       <c r="AY16" s="12"/>
@@ -2500,49 +2577,53 @@
       <c r="BX16" s="12"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
-    </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+    </row>
+    <row r="17" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12">
-        <v>4569</v>
+        <v>6640</v>
       </c>
       <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>7047</v>
+      </c>
+      <c r="E17" s="21">
+        <v>8085</v>
+      </c>
+      <c r="F17" s="21">
         <f t="shared" si="2"/>
-        <v>4108</v>
-      </c>
-      <c r="E17" s="21">
-        <v>4635</v>
-      </c>
-      <c r="F17" s="21">
+        <v>8920</v>
+      </c>
+      <c r="G17" s="21">
+        <v>8937</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="3"/>
-        <v>5296</v>
-      </c>
-      <c r="G17" s="21">
-        <v>5567</v>
-      </c>
-      <c r="H17" s="21">
-        <f t="shared" si="4"/>
-        <v>6418</v>
-      </c>
-      <c r="I17" s="21"/>
+        <v>9301</v>
+      </c>
+      <c r="I17" s="21">
+        <v>9413</v>
+      </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="21">
-        <v>8221</v>
-      </c>
-      <c r="M17" s="21">
-        <v>8677</v>
-      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="21">
-        <v>9931</v>
+        <v>8554</v>
       </c>
       <c r="O17" s="21">
-        <v>11985</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+        <v>13687</v>
+      </c>
+      <c r="P17" s="21">
+        <v>17005</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>18238</v>
+      </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
@@ -2572,8 +2653,8 @@
       <c r="AR17" s="21"/>
       <c r="AS17" s="21"/>
       <c r="AT17" s="21"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
       <c r="AW17" s="12"/>
       <c r="AX17" s="12"/>
       <c r="AY17" s="12"/>
@@ -2604,49 +2685,53 @@
       <c r="BX17" s="12"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
-    </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA17" s="12"/>
+      <c r="CB17" s="12"/>
+    </row>
+    <row r="18" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="12">
-        <v>2151</v>
+        <v>4569</v>
       </c>
       <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>4108</v>
+      </c>
+      <c r="E18" s="21">
+        <v>4635</v>
+      </c>
+      <c r="F18" s="21">
         <f t="shared" si="2"/>
-        <v>2208</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1450</v>
-      </c>
-      <c r="F18" s="21">
+        <v>5296</v>
+      </c>
+      <c r="G18" s="21">
+        <v>5567</v>
+      </c>
+      <c r="H18" s="21">
         <f t="shared" si="3"/>
-        <v>1920</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1573</v>
-      </c>
-      <c r="H18" s="21">
-        <f t="shared" si="4"/>
-        <v>1726</v>
-      </c>
-      <c r="I18" s="21"/>
+        <v>6418</v>
+      </c>
+      <c r="I18" s="21">
+        <v>6131</v>
+      </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21">
-        <v>7237</v>
-      </c>
-      <c r="M18" s="21">
-        <v>4359</v>
-      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="21">
-        <v>3370</v>
+        <v>8221</v>
       </c>
       <c r="O18" s="21">
-        <v>3299</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+        <v>8677</v>
+      </c>
+      <c r="P18" s="21">
+        <v>9931</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>11985</v>
+      </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
@@ -2676,8 +2761,8 @@
       <c r="AR18" s="21"/>
       <c r="AS18" s="21"/>
       <c r="AT18" s="21"/>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="12"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="21"/>
       <c r="AW18" s="12"/>
       <c r="AX18" s="12"/>
       <c r="AY18" s="12"/>
@@ -2708,56 +2793,58 @@
       <c r="BX18" s="12"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
-    </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16">
-        <v>25965</v>
-      </c>
-      <c r="D19" s="16">
-        <f>+M19-C19</f>
-        <v>27686</v>
-      </c>
-      <c r="E19" s="22">
-        <v>29645</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="CA18" s="12"/>
+      <c r="CB18" s="12"/>
+    </row>
+    <row r="19" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2151</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>2208</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1450</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="2"/>
+        <v>1920</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1573</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="3"/>
-        <v>32711</v>
-      </c>
-      <c r="G19" s="22">
-        <v>33735</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" si="4"/>
-        <v>37091</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22">
-        <v>35512</v>
-      </c>
-      <c r="L19" s="22">
-        <v>49328</v>
-      </c>
-      <c r="M19" s="22">
-        <v>53651</v>
-      </c>
-      <c r="N19" s="22">
-        <v>62356</v>
-      </c>
-      <c r="O19" s="22">
-        <v>70826</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
+        <v>1726</v>
+      </c>
+      <c r="I19" s="21">
+        <v>1406</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21">
+        <v>7237</v>
+      </c>
+      <c r="O19" s="21">
+        <v>4359</v>
+      </c>
+      <c r="P19" s="21">
+        <v>3370</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>3299</v>
+      </c>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
@@ -2782,8 +2869,8 @@
       <c r="AR19" s="21"/>
       <c r="AS19" s="21"/>
       <c r="AT19" s="21"/>
-      <c r="AU19" s="12"/>
-      <c r="AV19" s="12"/>
+      <c r="AU19" s="21"/>
+      <c r="AV19" s="21"/>
       <c r="AW19" s="12"/>
       <c r="AX19" s="12"/>
       <c r="AY19" s="12"/>
@@ -2814,56 +2901,62 @@
       <c r="BX19" s="12"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
-    </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="12">
-        <v>9856</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="CA19" s="12"/>
+      <c r="CB19" s="12"/>
+    </row>
+    <row r="20" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16">
+        <v>25965</v>
+      </c>
+      <c r="D20" s="16">
+        <f>+O20-C20</f>
+        <v>27686</v>
+      </c>
+      <c r="E20" s="22">
+        <v>29645</v>
+      </c>
+      <c r="F20" s="22">
         <f t="shared" si="2"/>
-        <v>11477</v>
-      </c>
-      <c r="E20" s="21">
-        <v>10890</v>
-      </c>
-      <c r="F20" s="21">
+        <v>32711</v>
+      </c>
+      <c r="G20" s="22">
+        <v>33735</v>
+      </c>
+      <c r="H20" s="22">
         <f t="shared" si="3"/>
-        <v>12438</v>
-      </c>
-      <c r="G20" s="21">
-        <v>12117</v>
-      </c>
-      <c r="H20" s="21">
-        <f t="shared" si="4"/>
-        <v>14677</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21">
-        <v>18924</v>
-      </c>
-      <c r="M20" s="21">
-        <v>21333</v>
-      </c>
-      <c r="N20" s="21">
-        <v>23328</v>
-      </c>
-      <c r="O20" s="21">
-        <v>26794</v>
-      </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
+        <v>37091</v>
+      </c>
+      <c r="I20" s="22">
+        <v>38544</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22">
+        <v>35512</v>
+      </c>
+      <c r="N20" s="22">
+        <v>49328</v>
+      </c>
+      <c r="O20" s="22">
+        <v>53651</v>
+      </c>
+      <c r="P20" s="22">
+        <v>62356</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>70826</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
@@ -2886,8 +2979,8 @@
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
       <c r="AT20" s="21"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
+      <c r="AU20" s="21"/>
+      <c r="AV20" s="21"/>
       <c r="AW20" s="12"/>
       <c r="AX20" s="12"/>
       <c r="AY20" s="12"/>
@@ -2918,62 +3011,53 @@
       <c r="BX20" s="12"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
-    </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+    </row>
+    <row r="21" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="21">
-        <f t="shared" ref="C21:D21" si="5">+C19-C20</f>
-        <v>16109</v>
-      </c>
-      <c r="D21" s="21">
-        <f t="shared" si="5"/>
-        <v>16209</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="12">
+        <v>9856</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="1"/>
+        <v>11477</v>
       </c>
       <c r="E21" s="21">
-        <f>+E19-E20</f>
-        <v>18755</v>
+        <v>10890</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" ref="F21:H21" si="6">+F19-F20</f>
-        <v>20273</v>
+        <f t="shared" si="2"/>
+        <v>12438</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="6"/>
-        <v>21618</v>
+        <v>12117</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" si="6"/>
-        <v>22414</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21">
-        <f t="shared" ref="J21:N21" si="7">+J19-J20</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <f t="shared" si="7"/>
-        <v>35512</v>
-      </c>
-      <c r="L21" s="21">
-        <f t="shared" si="7"/>
-        <v>30404</v>
-      </c>
-      <c r="M21" s="21">
-        <f t="shared" si="7"/>
-        <v>32318</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>14677</v>
+      </c>
+      <c r="I21" s="21">
+        <v>14119</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="21">
-        <f t="shared" si="7"/>
-        <v>39028</v>
+        <v>18924</v>
       </c>
       <c r="O21" s="21">
-        <f>+O19-O20</f>
-        <v>44032</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+        <v>21333</v>
+      </c>
+      <c r="P21" s="21">
+        <v>23328</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>26794</v>
+      </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
@@ -3003,8 +3087,8 @@
       <c r="AR21" s="21"/>
       <c r="AS21" s="21"/>
       <c r="AT21" s="21"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21"/>
       <c r="AW21" s="12"/>
       <c r="AX21" s="12"/>
       <c r="AY21" s="12"/>
@@ -3035,49 +3119,67 @@
       <c r="BX21" s="12"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
-    </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA21" s="12"/>
+      <c r="CB21" s="12"/>
+    </row>
+    <row r="22" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="21">
-        <v>821</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="2"/>
-        <v>1307</v>
+        <f t="shared" ref="C22:D22" si="4">+C20-C21</f>
+        <v>16109</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="4"/>
+        <v>16209</v>
       </c>
       <c r="E22" s="21">
-        <v>637</v>
+        <f>+E20-E21</f>
+        <v>18755</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="3"/>
-        <v>1068</v>
+        <f t="shared" ref="F22:I22" si="5">+F20-F21</f>
+        <v>20273</v>
       </c>
       <c r="G22" s="21">
-        <v>809</v>
+        <f t="shared" si="5"/>
+        <v>21618</v>
       </c>
       <c r="H22" s="21">
-        <f t="shared" si="4"/>
-        <v>1599</v>
-      </c>
-      <c r="I22" s="21"/>
+        <f t="shared" si="5"/>
+        <v>22414</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="5"/>
+        <v>24425</v>
+      </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21">
-        <v>1266</v>
+        <f t="shared" ref="L22:P22" si="6">+L20-L21</f>
+        <v>0</v>
       </c>
       <c r="M22" s="21">
-        <v>2128</v>
+        <f t="shared" si="6"/>
+        <v>35512</v>
       </c>
       <c r="N22" s="21">
-        <v>1705</v>
+        <f t="shared" si="6"/>
+        <v>30404</v>
       </c>
       <c r="O22" s="21">
-        <v>2408</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+        <f t="shared" si="6"/>
+        <v>32318</v>
+      </c>
+      <c r="P22" s="21">
+        <f t="shared" si="6"/>
+        <v>39028</v>
+      </c>
+      <c r="Q22" s="21">
+        <f>+Q20-Q21</f>
+        <v>44032</v>
+      </c>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
@@ -3107,8 +3209,8 @@
       <c r="AR22" s="21"/>
       <c r="AS22" s="21"/>
       <c r="AT22" s="21"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
+      <c r="AU22" s="21"/>
+      <c r="AV22" s="21"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="12"/>
       <c r="AY22" s="12"/>
@@ -3139,49 +3241,53 @@
       <c r="BX22" s="12"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
-    </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA22" s="12"/>
+      <c r="CB22" s="12"/>
+    </row>
+    <row r="23" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="21">
-        <v>9437</v>
+        <v>821</v>
       </c>
       <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>1307</v>
+      </c>
+      <c r="E23" s="21">
+        <v>637</v>
+      </c>
+      <c r="F23" s="21">
         <f t="shared" si="2"/>
-        <v>10192</v>
-      </c>
-      <c r="E23" s="21">
-        <v>10074</v>
-      </c>
-      <c r="F23" s="21">
+        <v>1068</v>
+      </c>
+      <c r="G23" s="21">
+        <v>809</v>
+      </c>
+      <c r="H23" s="21">
         <f t="shared" si="3"/>
-        <v>11599</v>
-      </c>
-      <c r="G23" s="21">
-        <v>11796</v>
-      </c>
-      <c r="H23" s="21">
-        <f t="shared" si="4"/>
-        <v>13851</v>
-      </c>
-      <c r="I23" s="21"/>
+        <v>1599</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1315</v>
+      </c>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="21">
-        <v>17753</v>
-      </c>
-      <c r="M23" s="21">
-        <v>19629</v>
-      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="21">
-        <v>21673</v>
+        <v>1266</v>
       </c>
       <c r="O23" s="21">
-        <v>25647</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+        <v>2128</v>
+      </c>
+      <c r="P23" s="21">
+        <v>1705</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>2408</v>
+      </c>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
@@ -3211,8 +3317,8 @@
       <c r="AR23" s="21"/>
       <c r="AS23" s="21"/>
       <c r="AT23" s="21"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
       <c r="AW23" s="12"/>
       <c r="AX23" s="12"/>
       <c r="AY23" s="12"/>
@@ -3243,49 +3349,53 @@
       <c r="BX23" s="12"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
-    </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA23" s="12"/>
+      <c r="CB23" s="12"/>
+    </row>
+    <row r="24" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="21">
-        <v>1701</v>
+        <v>9437</v>
       </c>
       <c r="D24" s="12">
+        <f t="shared" si="1"/>
+        <v>10192</v>
+      </c>
+      <c r="E24" s="21">
+        <v>10074</v>
+      </c>
+      <c r="F24" s="21">
         <f t="shared" si="2"/>
-        <v>1886</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1695</v>
-      </c>
-      <c r="F24" s="21">
+        <v>11599</v>
+      </c>
+      <c r="G24" s="21">
+        <v>11796</v>
+      </c>
+      <c r="H24" s="21">
         <f t="shared" si="3"/>
-        <v>1998</v>
-      </c>
-      <c r="G24" s="21">
-        <v>1971</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" si="4"/>
-        <v>2227</v>
-      </c>
-      <c r="I24" s="21"/>
+        <v>13851</v>
+      </c>
+      <c r="I24" s="21">
+        <v>13272</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="21">
-        <v>2928</v>
-      </c>
-      <c r="M24" s="21">
-        <v>3587</v>
-      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="21">
-        <v>3693</v>
+        <v>17753</v>
       </c>
       <c r="O24" s="21">
-        <v>4198</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+        <v>19629</v>
+      </c>
+      <c r="P24" s="21">
+        <v>21673</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>25647</v>
+      </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
@@ -3315,8 +3425,8 @@
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
       <c r="AT24" s="21"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
       <c r="AY24" s="12"/>
@@ -3347,62 +3457,53 @@
       <c r="BX24" s="12"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
-    </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA24" s="12"/>
+      <c r="CB24" s="12"/>
+    </row>
+    <row r="25" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="21">
-        <f t="shared" ref="C25:F25" si="8">+C21+C22-SUM(C23:C24)</f>
-        <v>5792</v>
-      </c>
-      <c r="D25" s="21">
-        <f t="shared" si="8"/>
-        <v>5438</v>
+        <v>1701</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="1"/>
+        <v>1886</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="8"/>
-        <v>7623</v>
+        <v>1695</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="8"/>
-        <v>7744</v>
+        <f t="shared" si="2"/>
+        <v>1998</v>
       </c>
       <c r="G25" s="21">
-        <f>+G21+G22-SUM(G23:G24)</f>
-        <v>8660</v>
+        <v>1971</v>
       </c>
       <c r="H25" s="21">
-        <f t="shared" ref="H25:O25" si="9">+H21+H22-SUM(H23:H24)</f>
-        <v>7935</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="21">
-        <f t="shared" si="9"/>
-        <v>35512</v>
-      </c>
-      <c r="L25" s="21">
-        <f t="shared" si="9"/>
-        <v>10989</v>
-      </c>
-      <c r="M25" s="21">
-        <f t="shared" si="9"/>
-        <v>11230</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>2227</v>
+      </c>
+      <c r="I25" s="21">
+        <v>2337</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="21">
-        <f t="shared" si="9"/>
-        <v>15367</v>
+        <v>2928</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="9"/>
-        <v>16595</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+        <v>3587</v>
+      </c>
+      <c r="P25" s="21">
+        <v>3693</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>4198</v>
+      </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -3432,8 +3533,8 @@
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
       <c r="AT25" s="21"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12"/>
@@ -3464,49 +3565,67 @@
       <c r="BX25" s="12"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
-    </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA25" s="12"/>
+      <c r="CB25" s="12"/>
+    </row>
+    <row r="26" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="21">
-        <v>-22</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f t="shared" ref="C26:F26" si="7">+C22+C23-SUM(C24:C25)</f>
+        <v>5792</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="7"/>
+        <v>5438</v>
       </c>
       <c r="E26" s="21">
-        <v>356</v>
+        <f t="shared" si="7"/>
+        <v>7623</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="3"/>
-        <v>635</v>
+        <f t="shared" si="7"/>
+        <v>7744</v>
       </c>
       <c r="G26" s="21">
-        <v>710</v>
+        <f>+G22+G23-SUM(G24:G25)</f>
+        <v>8660</v>
       </c>
       <c r="H26" s="21">
-        <f t="shared" si="4"/>
-        <v>678</v>
-      </c>
-      <c r="I26" s="21"/>
+        <f t="shared" ref="H26:Q26" si="8">+H22+H23-SUM(H24:H25)</f>
+        <v>7935</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="8"/>
+        <v>10131</v>
+      </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21">
-        <v>332</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="M26" s="21">
-        <v>97</v>
+        <f t="shared" si="8"/>
+        <v>35512</v>
       </c>
       <c r="N26" s="21">
-        <v>991</v>
+        <f t="shared" si="8"/>
+        <v>10989</v>
       </c>
       <c r="O26" s="21">
-        <v>1388</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+        <f t="shared" si="8"/>
+        <v>11230</v>
+      </c>
+      <c r="P26" s="21">
+        <f t="shared" si="8"/>
+        <v>15367</v>
+      </c>
+      <c r="Q26" s="21">
+        <f t="shared" si="8"/>
+        <v>16595</v>
+      </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
@@ -3536,8 +3655,8 @@
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
       <c r="AT26" s="21"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
       <c r="AW26" s="12"/>
       <c r="AX26" s="12"/>
       <c r="AY26" s="12"/>
@@ -3568,49 +3687,53 @@
       <c r="BX26" s="12"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
-    </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA26" s="12"/>
+      <c r="CB26" s="12"/>
+    </row>
+    <row r="27" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="21">
-        <v>-178</v>
+        <v>-22</v>
       </c>
       <c r="D27" s="12">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="E27" s="21">
+        <v>356</v>
+      </c>
+      <c r="F27" s="21">
         <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-      <c r="E27" s="21">
-        <v>-516</v>
-      </c>
-      <c r="F27" s="21">
+        <v>635</v>
+      </c>
+      <c r="G27" s="21">
+        <v>710</v>
+      </c>
+      <c r="H27" s="21">
         <f t="shared" si="3"/>
-        <v>-202</v>
-      </c>
-      <c r="G27" s="21">
-        <v>-19</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="4"/>
-        <v>217</v>
-      </c>
-      <c r="I27" s="21"/>
+        <v>678</v>
+      </c>
+      <c r="I27" s="21">
+        <v>596</v>
+      </c>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="21">
-        <v>-81</v>
-      </c>
-      <c r="M27" s="21">
-        <v>28</v>
-      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="21">
-        <v>-718</v>
+        <v>332</v>
       </c>
       <c r="O27" s="21">
-        <v>198</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="P27" s="21">
+        <v>991</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>1388</v>
+      </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
@@ -3640,8 +3763,8 @@
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
       <c r="AT27" s="21"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
+      <c r="AU27" s="21"/>
+      <c r="AV27" s="21"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12"/>
@@ -3672,50 +3795,53 @@
       <c r="BX27" s="12"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
-    </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA27" s="12"/>
+      <c r="CB27" s="12"/>
+    </row>
+    <row r="28" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="21">
-        <v>0</v>
+        <v>-178</v>
       </c>
       <c r="D28" s="12">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="E28" s="21">
+        <v>-516</v>
+      </c>
+      <c r="F28" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
+        <v>-202</v>
+      </c>
+      <c r="G28" s="21">
+        <v>-19</v>
+      </c>
+      <c r="H28" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <v>1579</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="4"/>
-        <v>2124</v>
-      </c>
-      <c r="I28" s="21"/>
+        <v>217</v>
+      </c>
+      <c r="I28" s="21">
+        <v>434</v>
+      </c>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="21">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="21">
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="O28" s="21">
-        <f>1579+2090+34</f>
-        <v>3703</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="P28" s="21">
+        <v>-718</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>198</v>
+      </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
@@ -3745,8 +3871,8 @@
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
       <c r="AT28" s="21"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
       <c r="AW28" s="12"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
@@ -3777,62 +3903,54 @@
       <c r="BX28" s="12"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
-    </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA28" s="12"/>
+      <c r="CB28" s="12"/>
+    </row>
+    <row r="29" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" ref="C29:F29" si="10">+C25+SUM(C26:C28)</f>
-        <v>5592</v>
-      </c>
-      <c r="D29" s="21">
-        <f t="shared" si="10"/>
-        <v>5763</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="10"/>
-        <v>7463</v>
+        <v>0</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="10"/>
-        <v>8177</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G29" s="21">
-        <f>+G25+SUM(G26:G28)</f>
-        <v>10930</v>
+        <v>1579</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" ref="H29:O29" si="11">+H25+SUM(H26:H28)</f>
-        <v>10954</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
+        <v>2124</v>
+      </c>
+      <c r="I29" s="21">
         <v>0</v>
       </c>
-      <c r="K29" s="21">
-        <f t="shared" si="11"/>
-        <v>35512</v>
-      </c>
-      <c r="L29" s="21">
-        <f t="shared" si="11"/>
-        <v>11240</v>
-      </c>
-      <c r="M29" s="21">
-        <f t="shared" si="11"/>
-        <v>11355</v>
-      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="21">
-        <f t="shared" si="11"/>
-        <v>15640</v>
+        <v>0</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" si="11"/>
-        <v>21884</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <f>1579+2090+34</f>
+        <v>3703</v>
+      </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
@@ -3862,8 +3980,8 @@
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
       <c r="AT29" s="21"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
       <c r="AW29" s="12"/>
       <c r="AX29" s="12"/>
       <c r="AY29" s="12"/>
@@ -3894,49 +4012,67 @@
       <c r="BX29" s="12"/>
       <c r="BY29" s="12"/>
       <c r="BZ29" s="12"/>
-    </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA29" s="12"/>
+      <c r="CB29" s="12"/>
+    </row>
+    <row r="30" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="21">
-        <v>1642</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="2"/>
-        <v>1468</v>
+        <f t="shared" ref="C30:F30" si="9">+C26+SUM(C27:C29)</f>
+        <v>5592</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="9"/>
+        <v>5763</v>
       </c>
       <c r="E30" s="21">
-        <v>2169</v>
+        <f t="shared" si="9"/>
+        <v>7463</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" si="3"/>
-        <v>2194</v>
+        <f t="shared" si="9"/>
+        <v>8177</v>
       </c>
       <c r="G30" s="21">
-        <v>2511</v>
+        <f>+G26+SUM(G27:G29)</f>
+        <v>10930</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="4"/>
-        <v>2384</v>
-      </c>
-      <c r="I30" s="21"/>
+        <f t="shared" ref="H30:Q30" si="10">+H26+SUM(H27:H29)</f>
+        <v>10954</v>
+      </c>
+      <c r="I30" s="21">
+        <f t="shared" si="10"/>
+        <v>11161</v>
+      </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21">
-        <v>3021</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M30" s="21">
-        <v>3110</v>
+        <f t="shared" si="10"/>
+        <v>35512</v>
       </c>
       <c r="N30" s="21">
-        <v>4363</v>
+        <f t="shared" si="10"/>
+        <v>11240</v>
       </c>
       <c r="O30" s="21">
-        <v>4895</v>
-      </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+        <f t="shared" si="10"/>
+        <v>11355</v>
+      </c>
+      <c r="P30" s="21">
+        <f t="shared" si="10"/>
+        <v>15640</v>
+      </c>
+      <c r="Q30" s="21">
+        <f t="shared" si="10"/>
+        <v>21884</v>
+      </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
@@ -3966,8 +4102,8 @@
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
       <c r="AT30" s="21"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="12"/>
+      <c r="AU30" s="21"/>
+      <c r="AV30" s="21"/>
       <c r="AW30" s="12"/>
       <c r="AX30" s="12"/>
       <c r="AY30" s="12"/>
@@ -3998,62 +4134,53 @@
       <c r="BX30" s="12"/>
       <c r="BY30" s="12"/>
       <c r="BZ30" s="12"/>
-    </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA30" s="12"/>
+      <c r="CB30" s="12"/>
+    </row>
+    <row r="31" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="21">
-        <f t="shared" ref="C31:F31" si="12">+C29-C30</f>
-        <v>3950</v>
-      </c>
-      <c r="D31" s="21">
-        <f t="shared" si="12"/>
-        <v>4295</v>
+        <v>1642</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="1"/>
+        <v>1468</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="12"/>
-        <v>5294</v>
+        <v>2169</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="12"/>
-        <v>5983</v>
+        <f t="shared" si="2"/>
+        <v>2194</v>
       </c>
       <c r="G31" s="21">
-        <f>+G29-G30</f>
-        <v>8419</v>
+        <v>2511</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" ref="H31" si="13">+H29-H30</f>
-        <v>8570</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21">
-        <f t="shared" ref="J31:N31" si="14">+J29-J30</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="21">
-        <f t="shared" si="14"/>
-        <v>35512</v>
-      </c>
-      <c r="L31" s="21">
-        <f t="shared" si="14"/>
-        <v>8219</v>
-      </c>
-      <c r="M31" s="21">
-        <f t="shared" si="14"/>
-        <v>8245</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>2384</v>
+      </c>
+      <c r="I31" s="21">
+        <v>3050</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="21">
-        <f t="shared" si="14"/>
-        <v>11277</v>
+        <v>3021</v>
       </c>
       <c r="O31" s="21">
-        <f>+O29-O30</f>
-        <v>16989</v>
-      </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+        <v>3110</v>
+      </c>
+      <c r="P31" s="21">
+        <v>4363</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>4895</v>
+      </c>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
@@ -4083,8 +4210,8 @@
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
       <c r="AT31" s="21"/>
-      <c r="AU31" s="12"/>
-      <c r="AV31" s="12"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
       <c r="AW31" s="12"/>
       <c r="AX31" s="12"/>
       <c r="AY31" s="12"/>
@@ -4115,49 +4242,67 @@
       <c r="BX31" s="12"/>
       <c r="BY31" s="12"/>
       <c r="BZ31" s="12"/>
-    </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA31" s="12"/>
+      <c r="CB31" s="12"/>
+    </row>
+    <row r="32" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="21">
-        <v>362</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="2"/>
-        <v>293</v>
+        <f t="shared" ref="C32:F32" si="11">+C30-C31</f>
+        <v>3950</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="11"/>
+        <v>4295</v>
       </c>
       <c r="E32" s="21">
-        <v>546</v>
+        <f t="shared" si="11"/>
+        <v>5294</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" si="3"/>
-        <v>495</v>
+        <f t="shared" si="11"/>
+        <v>5983</v>
       </c>
       <c r="G32" s="21">
-        <v>698</v>
+        <f>+G30-G31</f>
+        <v>8419</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" si="4"/>
-        <v>695</v>
-      </c>
-      <c r="I32" s="21"/>
+        <f t="shared" ref="H32:I32" si="12">+H30-H31</f>
+        <v>8570</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="12"/>
+        <v>8111</v>
+      </c>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21">
-        <v>499</v>
+        <f t="shared" ref="L32:P32" si="13">+L30-L31</f>
+        <v>0</v>
       </c>
       <c r="M32" s="21">
-        <v>655</v>
+        <f t="shared" si="13"/>
+        <v>35512</v>
       </c>
       <c r="N32" s="21">
-        <v>1041</v>
+        <f t="shared" si="13"/>
+        <v>8219</v>
       </c>
       <c r="O32" s="21">
-        <v>1393</v>
-      </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+        <f t="shared" si="13"/>
+        <v>8245</v>
+      </c>
+      <c r="P32" s="21">
+        <f t="shared" si="13"/>
+        <v>11277</v>
+      </c>
+      <c r="Q32" s="21">
+        <f>+Q30-Q31</f>
+        <v>16989</v>
+      </c>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
@@ -4187,8 +4332,8 @@
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
       <c r="AT32" s="21"/>
-      <c r="AU32" s="12"/>
-      <c r="AV32" s="12"/>
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
       <c r="AW32" s="12"/>
       <c r="AX32" s="12"/>
       <c r="AY32" s="12"/>
@@ -4219,62 +4364,53 @@
       <c r="BX32" s="12"/>
       <c r="BY32" s="12"/>
       <c r="BZ32" s="12"/>
-    </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA32" s="12"/>
+      <c r="CB32" s="12"/>
+    </row>
+    <row r="33" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="21">
-        <f t="shared" ref="C33:F33" si="15">+C31-C32</f>
-        <v>3588</v>
-      </c>
-      <c r="D33" s="21">
-        <f t="shared" si="15"/>
-        <v>4002</v>
+        <v>362</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="1"/>
+        <v>293</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="15"/>
-        <v>4748</v>
+        <v>546</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="15"/>
-        <v>5488</v>
+        <f t="shared" si="2"/>
+        <v>495</v>
       </c>
       <c r="G33" s="21">
-        <f>+G31-G32</f>
-        <v>7721</v>
+        <v>698</v>
       </c>
       <c r="H33" s="21">
-        <f t="shared" ref="H33" si="16">+H31-H32</f>
-        <v>7875</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21">
-        <f t="shared" ref="J33:N33" si="17">+J31-J32</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="21">
-        <f t="shared" si="17"/>
-        <v>35512</v>
-      </c>
-      <c r="L33" s="21">
-        <f t="shared" si="17"/>
-        <v>7720</v>
-      </c>
-      <c r="M33" s="21">
-        <f t="shared" si="17"/>
-        <v>7590</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>695</v>
+      </c>
+      <c r="I33" s="21">
+        <v>1080</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="21">
-        <f t="shared" si="17"/>
-        <v>10236</v>
+        <v>499</v>
       </c>
       <c r="O33" s="21">
-        <f>+O31-O32</f>
-        <v>15596</v>
-      </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+        <v>655</v>
+      </c>
+      <c r="P33" s="21">
+        <v>1041</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1393</v>
+      </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
@@ -4304,8 +4440,8 @@
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
       <c r="AT33" s="21"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="12"/>
+      <c r="AU33" s="21"/>
+      <c r="AV33" s="21"/>
       <c r="AW33" s="12"/>
       <c r="AX33" s="12"/>
       <c r="AY33" s="12"/>
@@ -4336,23 +4472,67 @@
       <c r="BX33" s="12"/>
       <c r="BY33" s="12"/>
       <c r="BZ33" s="12"/>
-    </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="CA33" s="12"/>
+      <c r="CB33" s="12"/>
+    </row>
+    <row r="34" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="21">
+        <f t="shared" ref="C34:F34" si="14">+C32-C33</f>
+        <v>3588</v>
+      </c>
+      <c r="D34" s="21">
+        <f t="shared" si="14"/>
+        <v>4002</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="14"/>
+        <v>4748</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="14"/>
+        <v>5488</v>
+      </c>
+      <c r="G34" s="21">
+        <f>+G32-G33</f>
+        <v>7721</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" ref="H34:I34" si="15">+H32-H33</f>
+        <v>7875</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="15"/>
+        <v>7031</v>
+      </c>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="L34" s="21">
+        <f t="shared" ref="L34:P34" si="16">+L32-L33</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <f t="shared" si="16"/>
+        <v>35512</v>
+      </c>
+      <c r="N34" s="21">
+        <f t="shared" si="16"/>
+        <v>7720</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" si="16"/>
+        <v>7590</v>
+      </c>
+      <c r="P34" s="21">
+        <f t="shared" si="16"/>
+        <v>10236</v>
+      </c>
+      <c r="Q34" s="21">
+        <f>+Q32-Q33</f>
+        <v>15596</v>
+      </c>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
@@ -4382,8 +4562,8 @@
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
       <c r="AT34" s="21"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
+      <c r="AU34" s="21"/>
+      <c r="AV34" s="21"/>
       <c r="AW34" s="12"/>
       <c r="AX34" s="12"/>
       <c r="AY34" s="12"/>
@@ -4414,60 +4594,23 @@
       <c r="BX34" s="12"/>
       <c r="BY34" s="12"/>
       <c r="BZ34" s="12"/>
-    </row>
-    <row r="35" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="23">
-        <f t="shared" ref="C35:D35" si="18">+C33/C36</f>
-        <v>1.3330291787752626</v>
-      </c>
-      <c r="D35" s="23">
-        <f t="shared" si="18"/>
-        <v>1.4864901004662274</v>
-      </c>
-      <c r="E35" s="23">
-        <f>+E33/E36</f>
-        <v>1.7353820197902265</v>
-      </c>
-      <c r="F35" s="23">
-        <f t="shared" ref="F35:H35" si="19">+F33/F36</f>
-        <v>1.9778394050624473</v>
-      </c>
-      <c r="G35" s="23">
-        <f t="shared" si="19"/>
-        <v>2.7461456684273626</v>
-      </c>
-      <c r="H35" s="23">
-        <f t="shared" si="19"/>
-        <v>2.8041107016614935</v>
-      </c>
+      <c r="CA34" s="12"/>
+      <c r="CB34" s="12"/>
+    </row>
+    <row r="35" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="23" t="e">
-        <f t="shared" ref="J35:N35" si="20">+J33/J36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="23" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="23">
-        <f t="shared" si="20"/>
-        <v>2.8695321844796968</v>
-      </c>
-      <c r="M35" s="23">
-        <f t="shared" si="20"/>
-        <v>2.8192053629531899</v>
-      </c>
-      <c r="N35" s="23">
-        <f t="shared" si="20"/>
-        <v>3.6889876367017513</v>
-      </c>
-      <c r="O35" s="23">
-        <f>+O33/O36</f>
-        <v>5.5533854607127182</v>
-      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -4499,8 +4642,8 @@
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
       <c r="AT35" s="21"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="12"/>
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
       <c r="AW35" s="12"/>
       <c r="AX35" s="12"/>
       <c r="AY35" s="12"/>
@@ -4531,49 +4674,67 @@
       <c r="BX35" s="12"/>
       <c r="BY35" s="12"/>
       <c r="BZ35" s="12"/>
-    </row>
-    <row r="36" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA35" s="12"/>
+      <c r="CB35" s="12"/>
+    </row>
+    <row r="36" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12">
-        <v>2691.614</v>
-      </c>
-      <c r="D36" s="12">
-        <f>+M36</f>
-        <v>2692.248</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2735.9969999999998</v>
-      </c>
-      <c r="F36" s="21">
-        <f>+N36</f>
-        <v>2774.7449999999999</v>
-      </c>
-      <c r="G36" s="21">
-        <v>2811.5770000000002</v>
-      </c>
-      <c r="H36" s="21">
-        <f>+O36</f>
-        <v>2808.377</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="C36" s="23">
+        <f t="shared" ref="C36:D36" si="17">+C34/C37</f>
+        <v>1.3330291787752626</v>
+      </c>
+      <c r="D36" s="23">
+        <f t="shared" si="17"/>
+        <v>1.4864901004662274</v>
+      </c>
+      <c r="E36" s="23">
+        <f>+E34/E37</f>
+        <v>1.7353820197902265</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" ref="F36:I36" si="18">+F34/F37</f>
+        <v>1.9778394050624473</v>
+      </c>
+      <c r="G36" s="23">
+        <f t="shared" si="18"/>
+        <v>2.7461456684273626</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="18"/>
+        <v>2.8041107016614935</v>
+      </c>
+      <c r="I36" s="23">
+        <f t="shared" si="18"/>
+        <v>2.5281563480060609</v>
+      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="21">
-        <v>2690.3339999999998</v>
-      </c>
-      <c r="M36" s="21">
-        <v>2692.248</v>
-      </c>
-      <c r="N36" s="21">
-        <v>2774.7449999999999</v>
-      </c>
-      <c r="O36" s="21">
-        <v>2808.377</v>
-      </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="L36" s="23" t="e">
+        <f t="shared" ref="L36:P36" si="19">+L34/L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="23" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="23">
+        <f t="shared" si="19"/>
+        <v>2.8695321844796968</v>
+      </c>
+      <c r="O36" s="23">
+        <f t="shared" si="19"/>
+        <v>2.8192053629531899</v>
+      </c>
+      <c r="P36" s="23">
+        <f t="shared" si="19"/>
+        <v>3.6889876367017513</v>
+      </c>
+      <c r="Q36" s="23">
+        <f>+Q34/Q37</f>
+        <v>5.5533854607127182</v>
+      </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
@@ -4603,8 +4764,8 @@
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
       <c r="AT36" s="21"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
       <c r="AW36" s="12"/>
       <c r="AX36" s="12"/>
       <c r="AY36" s="12"/>
@@ -4635,23 +4796,53 @@
       <c r="BX36" s="12"/>
       <c r="BY36" s="12"/>
       <c r="BZ36" s="12"/>
-    </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="CA36" s="12"/>
+      <c r="CB36" s="12"/>
+    </row>
+    <row r="37" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2691.614</v>
+      </c>
+      <c r="D37" s="12">
+        <f>+O37</f>
+        <v>2692.248</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2735.9969999999998</v>
+      </c>
+      <c r="F37" s="21">
+        <f>+P37</f>
+        <v>2774.7449999999999</v>
+      </c>
+      <c r="G37" s="21">
+        <v>2811.5770000000002</v>
+      </c>
+      <c r="H37" s="21">
+        <f>+Q37</f>
+        <v>2808.377</v>
+      </c>
+      <c r="I37" s="21">
+        <v>2781.078</v>
+      </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="N37" s="21">
+        <v>2690.3339999999998</v>
+      </c>
+      <c r="O37" s="21">
+        <v>2692.248</v>
+      </c>
+      <c r="P37" s="21">
+        <v>2774.7449999999999</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>2808.377</v>
+      </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
@@ -4681,8 +4872,8 @@
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
       <c r="AT37" s="21"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="12"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
       <c r="AW37" s="12"/>
       <c r="AX37" s="12"/>
       <c r="AY37" s="12"/>
@@ -4713,51 +4904,23 @@
       <c r="BX37" s="12"/>
       <c r="BY37" s="12"/>
       <c r="BZ37" s="12"/>
-    </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
+      <c r="CA37" s="12"/>
+      <c r="CB37" s="12"/>
+    </row>
+    <row r="38" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="24">
-        <f t="shared" ref="E38:F38" si="21">+E8/C8-1</f>
-        <v>2.927713964936518E-2</v>
-      </c>
-      <c r="F38" s="24">
-        <f t="shared" si="21"/>
-        <v>1.8008208392662706E-2</v>
-      </c>
-      <c r="G38" s="24">
-        <f>+G8/E8-1</f>
-        <v>2.7185769424399986E-2</v>
-      </c>
-      <c r="H38" s="24">
-        <f t="shared" ref="H38" si="22">+H8/F8-1</f>
-        <v>1.991114036531183E-2</v>
-      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
-      <c r="K38" s="24" t="e">
-        <f t="shared" ref="K38:N38" si="23">+K8/J8-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="24" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="24">
-        <f t="shared" si="23"/>
-        <v>1.2294386976428706E-2</v>
-      </c>
-      <c r="N38" s="24">
-        <f t="shared" si="23"/>
-        <v>1.8008208392662706E-2</v>
-      </c>
-      <c r="O38" s="24">
-        <f>+O8/N8-1</f>
-        <v>1.991114036531183E-2</v>
-      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -4789,8 +4952,8 @@
       <c r="AR38" s="21"/>
       <c r="AS38" s="21"/>
       <c r="AT38" s="21"/>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="12"/>
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21"/>
       <c r="AW38" s="12"/>
       <c r="AX38" s="12"/>
       <c r="AY38" s="12"/>
@@ -4821,53 +4984,58 @@
       <c r="BX38" s="12"/>
       <c r="BY38" s="12"/>
       <c r="BZ38" s="12"/>
-    </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA38" s="12"/>
+      <c r="CB38" s="12"/>
+    </row>
+    <row r="39" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="24">
-        <f t="shared" ref="E39:F48" si="24">+E10/C10-1</f>
-        <v>0.11664116641166422</v>
+        <f>+E9/C9-1</f>
+        <v>2.927713964936518E-2</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="24"/>
-        <v>0.13776408450704225</v>
+        <f>+F9/D9-1</f>
+        <v>1.8008208392662706E-2</v>
       </c>
       <c r="G39" s="24">
-        <f>+G10/E10-1</f>
-        <v>0.17957604578060771</v>
+        <f>+G9/E9-1</f>
+        <v>2.7185769424399986E-2</v>
       </c>
       <c r="H39" s="24">
-        <f t="shared" ref="H39:H48" si="25">+H10/F10-1</f>
-        <v>0.12704061895551266</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="24" t="e">
-        <f t="shared" ref="K39:N48" si="26">+K10/J10-1</f>
+        <f>+H9/F9-1</f>
+        <v>2.3778180023037665E-2</v>
+      </c>
+      <c r="I39" s="24">
+        <f>+I9/G9-1</f>
+        <v>1.7235745793171109E-2</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="24" t="e">
+        <f>+M9/L9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="24" t="e">
-        <f t="shared" si="26"/>
+      <c r="N39" s="24" t="e">
+        <f>+N9/M9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="24">
-        <f t="shared" si="26"/>
-        <v>0.17409478029155134</v>
-      </c>
-      <c r="N39" s="24">
-        <f t="shared" si="26"/>
-        <v>0.12731965644608612</v>
-      </c>
       <c r="O39" s="24">
-        <f>+O10/N10-1</f>
-        <v>0.15277119848413068</v>
-      </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+        <f>+O9/N9-1</f>
+        <v>1.2294386976428706E-2</v>
+      </c>
+      <c r="P39" s="24">
+        <f>+P9/O9-1</f>
+        <v>1.8008208392662706E-2</v>
+      </c>
+      <c r="Q39" s="24">
+        <f>+Q9/P9-1</f>
+        <v>1.991114036531183E-2</v>
+      </c>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
@@ -4897,8 +5065,8 @@
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
       <c r="AT39" s="21"/>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="12"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
       <c r="AW39" s="12"/>
       <c r="AX39" s="12"/>
       <c r="AY39" s="12"/>
@@ -4929,53 +5097,58 @@
       <c r="BX39" s="12"/>
       <c r="BY39" s="12"/>
       <c r="BZ39" s="12"/>
-    </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA39" s="12"/>
+      <c r="CB39" s="12"/>
+    </row>
+    <row r="40" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="24">
-        <f t="shared" si="24"/>
-        <v>0.16222570532915359</v>
+        <f t="shared" ref="E40:F49" si="20">+E11/C11-1</f>
+        <v>0.11664116641166422</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="24"/>
-        <v>0.21095112029444052</v>
+        <f t="shared" si="20"/>
+        <v>0.13776408450704225</v>
       </c>
       <c r="G40" s="24">
-        <f t="shared" ref="G40:G48" si="27">+G11/E11-1</f>
-        <v>0.1084411205786795</v>
+        <f>+G11/E11-1</f>
+        <v>0.17957604578060771</v>
       </c>
       <c r="H40" s="24">
-        <f t="shared" si="25"/>
-        <v>0.13591767089687523</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="24" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H40:I49" si="21">+H11/F11-1</f>
+        <v>0.12704061895551266</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="21"/>
+        <v>0.11991800478305437</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="24" t="e">
+        <f t="shared" ref="M40:P49" si="22">+M11/L11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="24" t="e">
-        <f t="shared" si="26"/>
+      <c r="N40" s="24" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="24">
-        <f t="shared" si="26"/>
-        <v>3.111902766135799E-2</v>
-      </c>
-      <c r="N40" s="24">
-        <f t="shared" si="26"/>
-        <v>0.18778579412661323</v>
-      </c>
       <c r="O40" s="24">
-        <f t="shared" ref="O40:O48" si="28">+O11/N11-1</f>
-        <v>0.12313571163772208</v>
-      </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
+        <f t="shared" si="22"/>
+        <v>0.17409478029155134</v>
+      </c>
+      <c r="P40" s="24">
+        <f t="shared" si="22"/>
+        <v>0.12731965644608612</v>
+      </c>
+      <c r="Q40" s="24">
+        <f>+Q11/P11-1</f>
+        <v>0.15277119848413068</v>
+      </c>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
@@ -5005,8 +5178,8 @@
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
       <c r="AT40" s="21"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="12"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
       <c r="AW40" s="12"/>
       <c r="AX40" s="12"/>
       <c r="AY40" s="12"/>
@@ -5037,53 +5210,58 @@
       <c r="BX40" s="12"/>
       <c r="BY40" s="12"/>
       <c r="BZ40" s="12"/>
-    </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA40" s="12"/>
+      <c r="CB40" s="12"/>
+    </row>
+    <row r="41" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="24">
-        <f t="shared" si="24"/>
-        <v>0.13080684596577008</v>
+        <f t="shared" si="20"/>
+        <v>0.16222570532915359</v>
       </c>
       <c r="F41" s="24">
-        <f t="shared" si="24"/>
-        <v>0.23003575685339683</v>
+        <f t="shared" si="20"/>
+        <v>0.21095112029444052</v>
       </c>
       <c r="G41" s="24">
-        <f t="shared" si="27"/>
-        <v>0.10054054054054062</v>
+        <f t="shared" ref="G41:G49" si="23">+G12/E12-1</f>
+        <v>0.1084411205786795</v>
       </c>
       <c r="H41" s="24">
-        <f t="shared" si="25"/>
-        <v>0.18313953488372103</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="24" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
+        <v>0.13591767089687523</v>
+      </c>
+      <c r="I41" s="24">
+        <f t="shared" si="21"/>
+        <v>0.15507134166574499</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="24" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="24" t="e">
-        <f t="shared" si="26"/>
+      <c r="N41" s="24" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="24">
-        <f t="shared" si="26"/>
-        <v>6.4226075786769421E-2</v>
-      </c>
-      <c r="N41" s="24">
-        <f t="shared" si="26"/>
-        <v>0.18105009052504517</v>
-      </c>
       <c r="O41" s="24">
-        <f t="shared" si="28"/>
-        <v>0.14409810935104761</v>
-      </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+        <f t="shared" si="22"/>
+        <v>3.111902766135799E-2</v>
+      </c>
+      <c r="P41" s="24">
+        <f t="shared" si="22"/>
+        <v>0.18778579412661323</v>
+      </c>
+      <c r="Q41" s="24">
+        <f t="shared" ref="Q41:Q49" si="24">+Q12/P12-1</f>
+        <v>0.12313571163772208</v>
+      </c>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
@@ -5113,8 +5291,8 @@
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
       <c r="AT41" s="21"/>
-      <c r="AU41" s="12"/>
-      <c r="AV41" s="12"/>
+      <c r="AU41" s="21"/>
+      <c r="AV41" s="21"/>
       <c r="AW41" s="12"/>
       <c r="AX41" s="12"/>
       <c r="AY41" s="12"/>
@@ -5145,53 +5323,58 @@
       <c r="BX41" s="12"/>
       <c r="BY41" s="12"/>
       <c r="BZ41" s="12"/>
-    </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA41" s="12"/>
+      <c r="CB41" s="12"/>
+    </row>
+    <row r="42" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="24">
+        <f t="shared" si="20"/>
+        <v>0.13080684596577008</v>
+      </c>
+      <c r="F42" s="24">
+        <f t="shared" si="20"/>
+        <v>0.23003575685339683</v>
+      </c>
+      <c r="G42" s="24">
+        <f t="shared" si="23"/>
+        <v>0.10054054054054062</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="21"/>
+        <v>0.18313953488372103</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="21"/>
+        <v>0.24557956777996082</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="24">
+        <f t="shared" si="22"/>
+        <v>6.4226075786769421E-2</v>
+      </c>
+      <c r="P42" s="24">
+        <f t="shared" si="22"/>
+        <v>0.18105009052504517</v>
+      </c>
+      <c r="Q42" s="24">
         <f t="shared" si="24"/>
-        <v>6.062874251497008E-2</v>
-      </c>
-      <c r="F42" s="24">
-        <f t="shared" si="24"/>
-        <v>0.12344217781800459</v>
-      </c>
-      <c r="G42" s="24">
-        <f t="shared" si="27"/>
-        <v>0.13458009880028232</v>
-      </c>
-      <c r="H42" s="24">
-        <f t="shared" si="25"/>
-        <v>8.1122954883490417E-2</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="24">
-        <f t="shared" si="26"/>
-        <v>0.15454772613693146</v>
-      </c>
-      <c r="N42" s="24">
-        <f t="shared" si="26"/>
-        <v>9.3171734660751016E-2</v>
-      </c>
-      <c r="O42" s="24">
-        <f t="shared" si="28"/>
-        <v>0.1061176004751534</v>
-      </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
+        <v>0.14409810935104761</v>
+      </c>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
@@ -5221,8 +5404,8 @@
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
       <c r="AT42" s="21"/>
-      <c r="AU42" s="12"/>
-      <c r="AV42" s="12"/>
+      <c r="AU42" s="21"/>
+      <c r="AV42" s="21"/>
       <c r="AW42" s="12"/>
       <c r="AX42" s="12"/>
       <c r="AY42" s="12"/>
@@ -5253,53 +5436,58 @@
       <c r="BX42" s="12"/>
       <c r="BY42" s="12"/>
       <c r="BZ42" s="12"/>
-    </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA42" s="12"/>
+      <c r="CB42" s="12"/>
+    </row>
+    <row r="43" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="24">
+        <f t="shared" si="20"/>
+        <v>6.062874251497008E-2</v>
+      </c>
+      <c r="F43" s="24">
+        <f t="shared" si="20"/>
+        <v>0.12344217781800459</v>
+      </c>
+      <c r="G43" s="24">
+        <f t="shared" si="23"/>
+        <v>0.13458009880028232</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="21"/>
+        <v>8.1122954883490417E-2</v>
+      </c>
+      <c r="I43" s="24">
+        <f t="shared" si="21"/>
+        <v>5.4301175592461171E-2</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="24">
+        <f t="shared" si="22"/>
+        <v>0.15454772613693146</v>
+      </c>
+      <c r="P43" s="24">
+        <f t="shared" si="22"/>
+        <v>9.3171734660751016E-2</v>
+      </c>
+      <c r="Q43" s="24">
         <f t="shared" si="24"/>
-        <v>0.134731372367078</v>
-      </c>
-      <c r="F43" s="24">
-        <f t="shared" si="24"/>
-        <v>0.19802717290154481</v>
-      </c>
-      <c r="G43" s="24">
-        <f t="shared" si="27"/>
-        <v>6.7626134598086418E-2</v>
-      </c>
-      <c r="H43" s="24">
-        <f t="shared" si="25"/>
-        <v>5.4062451452540072E-2</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="24">
-        <f t="shared" si="26"/>
-        <v>-1.3701768857116714E-2</v>
-      </c>
-      <c r="N43" s="24">
-        <f t="shared" si="26"/>
-        <v>0.16633368954142091</v>
-      </c>
-      <c r="O43" s="24">
-        <f t="shared" si="28"/>
-        <v>6.0670039437517476E-2</v>
-      </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
+        <v>0.1061176004751534</v>
+      </c>
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
@@ -5329,8 +5517,8 @@
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
       <c r="AT43" s="21"/>
-      <c r="AU43" s="12"/>
-      <c r="AV43" s="12"/>
+      <c r="AU43" s="21"/>
+      <c r="AV43" s="21"/>
       <c r="AW43" s="12"/>
       <c r="AX43" s="12"/>
       <c r="AY43" s="12"/>
@@ -5361,53 +5549,58 @@
       <c r="BX43" s="12"/>
       <c r="BY43" s="12"/>
       <c r="BZ43" s="12"/>
-    </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA43" s="12"/>
+      <c r="CB43" s="12"/>
+    </row>
+    <row r="44" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="24">
+        <f t="shared" si="20"/>
+        <v>0.134731372367078</v>
+      </c>
+      <c r="F44" s="24">
+        <f t="shared" si="20"/>
+        <v>0.19802717290154481</v>
+      </c>
+      <c r="G44" s="24">
+        <f t="shared" si="23"/>
+        <v>6.7626134598086418E-2</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="21"/>
+        <v>5.4062451452540072E-2</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="21"/>
+        <v>8.6243872549019551E-2</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="24">
+        <f t="shared" si="22"/>
+        <v>-1.3701768857116714E-2</v>
+      </c>
+      <c r="P44" s="24">
+        <f t="shared" si="22"/>
+        <v>0.16633368954142091</v>
+      </c>
+      <c r="Q44" s="24">
         <f t="shared" si="24"/>
-        <v>0.775711159737418</v>
-      </c>
-      <c r="F44" s="24">
-        <f t="shared" si="24"/>
-        <v>0.43616608459448969</v>
-      </c>
-      <c r="G44" s="24">
-        <f t="shared" si="27"/>
-        <v>0.41774491682070236</v>
-      </c>
-      <c r="H44" s="24">
-        <f t="shared" si="25"/>
-        <v>0.64171845447176445</v>
-      </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="24">
-        <f t="shared" si="26"/>
-        <v>0.26073268460217514</v>
-      </c>
-      <c r="N44" s="24">
-        <f t="shared" si="26"/>
-        <v>0.57707150964812715</v>
-      </c>
-      <c r="O44" s="24">
-        <f t="shared" si="28"/>
-        <v>0.53706635957967475</v>
-      </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+        <v>6.0670039437517476E-2</v>
+      </c>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
       <c r="T44" s="21"/>
@@ -5437,8 +5630,8 @@
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
       <c r="AT44" s="21"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="12"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
       <c r="AW44" s="12"/>
       <c r="AX44" s="12"/>
       <c r="AY44" s="12"/>
@@ -5469,53 +5662,58 @@
       <c r="BX44" s="12"/>
       <c r="BY44" s="12"/>
       <c r="BZ44" s="12"/>
-    </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA44" s="12"/>
+      <c r="CB44" s="12"/>
+    </row>
+    <row r="45" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="24">
+        <f t="shared" si="20"/>
+        <v>0.775711159737418</v>
+      </c>
+      <c r="F45" s="24">
+        <f t="shared" si="20"/>
+        <v>0.43616608459448969</v>
+      </c>
+      <c r="G45" s="24">
+        <f t="shared" si="23"/>
+        <v>0.41774491682070236</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="21"/>
+        <v>0.64171845447176445</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" si="21"/>
+        <v>0.61060408518035647</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="24">
+        <f t="shared" si="22"/>
+        <v>0.26073268460217514</v>
+      </c>
+      <c r="P45" s="24">
+        <f t="shared" si="22"/>
+        <v>0.57707150964812715</v>
+      </c>
+      <c r="Q45" s="24">
         <f t="shared" si="24"/>
-        <v>0.21762048192771077</v>
-      </c>
-      <c r="F45" s="24">
-        <f t="shared" si="24"/>
-        <v>0.26578685965659155</v>
-      </c>
-      <c r="G45" s="24">
-        <f t="shared" si="27"/>
-        <v>0.10538033395176249</v>
-      </c>
-      <c r="H45" s="24">
-        <f t="shared" si="25"/>
-        <v>4.2713004484304928E-2</v>
-      </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="24">
-        <f t="shared" si="26"/>
-        <v>0.60007014262333414</v>
-      </c>
-      <c r="N45" s="24">
-        <f t="shared" si="26"/>
-        <v>0.24241981442244476</v>
-      </c>
-      <c r="O45" s="24">
-        <f t="shared" si="28"/>
-        <v>7.2508085857100779E-2</v>
-      </c>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
+        <v>0.53706635957967475</v>
+      </c>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
       <c r="T45" s="21"/>
@@ -5545,8 +5743,8 @@
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
       <c r="AT45" s="21"/>
-      <c r="AU45" s="12"/>
-      <c r="AV45" s="12"/>
+      <c r="AU45" s="21"/>
+      <c r="AV45" s="21"/>
       <c r="AW45" s="12"/>
       <c r="AX45" s="12"/>
       <c r="AY45" s="12"/>
@@ -5577,53 +5775,58 @@
       <c r="BX45" s="12"/>
       <c r="BY45" s="12"/>
       <c r="BZ45" s="12"/>
-    </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA45" s="12"/>
+      <c r="CB45" s="12"/>
+    </row>
+    <row r="46" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="24">
+        <f t="shared" si="20"/>
+        <v>0.21762048192771077</v>
+      </c>
+      <c r="F46" s="24">
+        <f t="shared" si="20"/>
+        <v>0.26578685965659155</v>
+      </c>
+      <c r="G46" s="24">
+        <f t="shared" si="23"/>
+        <v>0.10538033395176249</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" si="21"/>
+        <v>4.2713004484304928E-2</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="21"/>
+        <v>5.3261720935436907E-2</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="24">
+        <f t="shared" si="22"/>
+        <v>0.60007014262333414</v>
+      </c>
+      <c r="P46" s="24">
+        <f t="shared" si="22"/>
+        <v>0.24241981442244476</v>
+      </c>
+      <c r="Q46" s="24">
         <f t="shared" si="24"/>
-        <v>1.4445173998686833E-2</v>
-      </c>
-      <c r="F46" s="24">
-        <f t="shared" si="24"/>
-        <v>0.28919182083739048</v>
-      </c>
-      <c r="G46" s="24">
-        <f t="shared" si="27"/>
-        <v>0.20107874865156417</v>
-      </c>
-      <c r="H46" s="24">
-        <f t="shared" si="25"/>
-        <v>0.2118580060422961</v>
-      </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="24">
-        <f t="shared" si="26"/>
-        <v>5.5467704658800576E-2</v>
-      </c>
-      <c r="N46" s="24">
-        <f t="shared" si="26"/>
-        <v>0.14451999539011173</v>
-      </c>
-      <c r="O46" s="24">
-        <f t="shared" si="28"/>
-        <v>0.2068271070385661</v>
-      </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
+        <v>7.2508085857100779E-2</v>
+      </c>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
@@ -5653,8 +5856,8 @@
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
       <c r="AT46" s="21"/>
-      <c r="AU46" s="12"/>
-      <c r="AV46" s="12"/>
+      <c r="AU46" s="21"/>
+      <c r="AV46" s="21"/>
       <c r="AW46" s="12"/>
       <c r="AX46" s="12"/>
       <c r="AY46" s="12"/>
@@ -5685,53 +5888,58 @@
       <c r="BX46" s="12"/>
       <c r="BY46" s="12"/>
       <c r="BZ46" s="12"/>
-    </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA46" s="12"/>
+      <c r="CB46" s="12"/>
+    </row>
+    <row r="47" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="24">
+        <f t="shared" si="20"/>
+        <v>1.4445173998686833E-2</v>
+      </c>
+      <c r="F47" s="24">
+        <f t="shared" si="20"/>
+        <v>0.28919182083739048</v>
+      </c>
+      <c r="G47" s="24">
+        <f t="shared" si="23"/>
+        <v>0.20107874865156417</v>
+      </c>
+      <c r="H47" s="24">
+        <f t="shared" si="21"/>
+        <v>0.2118580060422961</v>
+      </c>
+      <c r="I47" s="24">
+        <f t="shared" si="21"/>
+        <v>0.10131129872462719</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="24">
+        <f t="shared" si="22"/>
+        <v>5.5467704658800576E-2</v>
+      </c>
+      <c r="P47" s="24">
+        <f t="shared" si="22"/>
+        <v>0.14451999539011173</v>
+      </c>
+      <c r="Q47" s="24">
         <f t="shared" si="24"/>
-        <v>-0.32589493258949331</v>
-      </c>
-      <c r="F47" s="24">
-        <f t="shared" si="24"/>
-        <v>-0.13043478260869568</v>
-      </c>
-      <c r="G47" s="24">
-        <f t="shared" si="27"/>
-        <v>8.4827586206896566E-2</v>
-      </c>
-      <c r="H47" s="24">
-        <f t="shared" si="25"/>
-        <v>-0.1010416666666667</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="24">
-        <f t="shared" si="26"/>
-        <v>-0.39767859610335776</v>
-      </c>
-      <c r="N47" s="24">
-        <f t="shared" si="26"/>
-        <v>-0.22688690066529016</v>
-      </c>
-      <c r="O47" s="24">
-        <f t="shared" si="28"/>
-        <v>-2.1068249258160199E-2</v>
-      </c>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
+        <v>0.2068271070385661</v>
+      </c>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
       <c r="T47" s="21"/>
@@ -5761,8 +5969,8 @@
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
       <c r="AT47" s="21"/>
-      <c r="AU47" s="12"/>
-      <c r="AV47" s="12"/>
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
       <c r="AW47" s="12"/>
       <c r="AX47" s="12"/>
       <c r="AY47" s="12"/>
@@ -5793,53 +6001,58 @@
       <c r="BX47" s="12"/>
       <c r="BY47" s="12"/>
       <c r="BZ47" s="12"/>
-    </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA47" s="12"/>
+      <c r="CB47" s="12"/>
+    </row>
+    <row r="48" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.32589493258949331</v>
+      </c>
+      <c r="F48" s="24">
+        <f t="shared" si="20"/>
+        <v>-0.13043478260869568</v>
+      </c>
+      <c r="G48" s="24">
+        <f t="shared" si="23"/>
+        <v>8.4827586206896566E-2</v>
+      </c>
+      <c r="H48" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.1010416666666667</v>
+      </c>
+      <c r="I48" s="24">
+        <f t="shared" si="21"/>
+        <v>-0.10616656071201525</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="24" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="24">
+        <f t="shared" si="22"/>
+        <v>-0.39767859610335776</v>
+      </c>
+      <c r="P48" s="24">
+        <f t="shared" si="22"/>
+        <v>-0.22688690066529016</v>
+      </c>
+      <c r="Q48" s="24">
         <f t="shared" si="24"/>
-        <v>0.14172925091469279</v>
-      </c>
-      <c r="F48" s="24">
-        <f t="shared" si="24"/>
-        <v>0.18149967492595542</v>
-      </c>
-      <c r="G48" s="24">
-        <f t="shared" si="27"/>
-        <v>0.13796593017372238</v>
-      </c>
-      <c r="H48" s="24">
-        <f t="shared" si="25"/>
-        <v>0.13389991134480761</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="24" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="24">
-        <f t="shared" si="26"/>
-        <v>0.38905158819553964</v>
-      </c>
-      <c r="M48" s="24">
-        <f t="shared" si="26"/>
-        <v>8.7637852740836797E-2</v>
-      </c>
-      <c r="N48" s="24">
-        <f t="shared" si="26"/>
-        <v>0.16225233453244114</v>
-      </c>
-      <c r="O48" s="24">
-        <f t="shared" si="28"/>
-        <v>0.13583295913785354</v>
-      </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
+        <v>-2.1068249258160199E-2</v>
+      </c>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
@@ -5869,8 +6082,8 @@
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
       <c r="AT48" s="21"/>
-      <c r="AU48" s="12"/>
-      <c r="AV48" s="12"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="21"/>
       <c r="AW48" s="12"/>
       <c r="AX48" s="12"/>
       <c r="AY48" s="12"/>
@@ -5901,173 +6114,177 @@
       <c r="BX48" s="12"/>
       <c r="BY48" s="12"/>
       <c r="BZ48" s="12"/>
-    </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="CA48" s="12"/>
+      <c r="CB48" s="12"/>
+    </row>
+    <row r="49" spans="2:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="27">
+        <f t="shared" si="20"/>
+        <v>0.14172925091469279</v>
+      </c>
+      <c r="F49" s="27">
+        <f t="shared" si="20"/>
+        <v>0.18149967492595542</v>
+      </c>
+      <c r="G49" s="27">
+        <f t="shared" si="23"/>
+        <v>0.13796593017372238</v>
+      </c>
+      <c r="H49" s="27">
+        <f t="shared" si="21"/>
+        <v>0.13389991134480761</v>
+      </c>
+      <c r="I49" s="27">
+        <f t="shared" si="21"/>
+        <v>0.14255224544241885</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="27" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="27">
+        <f t="shared" si="22"/>
+        <v>0.38905158819553964</v>
+      </c>
+      <c r="O49" s="27">
+        <f t="shared" si="22"/>
+        <v>8.7637852740836797E-2</v>
+      </c>
+      <c r="P49" s="27">
+        <f t="shared" si="22"/>
+        <v>0.16225233453244114</v>
+      </c>
+      <c r="Q49" s="27">
+        <f t="shared" si="24"/>
+        <v>0.13583295913785354</v>
+      </c>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="16"/>
+      <c r="AX49" s="16"/>
+      <c r="AY49" s="16"/>
+      <c r="AZ49" s="16"/>
+      <c r="BA49" s="16"/>
+      <c r="BB49" s="16"/>
+      <c r="BC49" s="16"/>
+      <c r="BD49" s="16"/>
+      <c r="BE49" s="16"/>
+      <c r="BF49" s="16"/>
+      <c r="BG49" s="16"/>
+      <c r="BH49" s="16"/>
+      <c r="BI49" s="16"/>
+      <c r="BJ49" s="16"/>
+      <c r="BK49" s="16"/>
+      <c r="BL49" s="16"/>
+      <c r="BM49" s="16"/>
+      <c r="BN49" s="16"/>
+      <c r="BO49" s="16"/>
+      <c r="BP49" s="16"/>
+      <c r="BQ49" s="16"/>
+      <c r="BR49" s="16"/>
+      <c r="BS49" s="16"/>
+      <c r="BT49" s="16"/>
+      <c r="BU49" s="16"/>
+      <c r="BV49" s="16"/>
+      <c r="BW49" s="16"/>
+      <c r="BX49" s="16"/>
+      <c r="BY49" s="16"/>
+      <c r="BZ49" s="16"/>
+      <c r="CA49" s="16"/>
+      <c r="CB49" s="16"/>
+    </row>
+    <row r="50" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="24">
-        <f t="shared" ref="C49:F49" si="29">+C21/C19</f>
+      <c r="C50" s="24">
+        <f t="shared" ref="C50:F50" si="25">+C22/C20</f>
         <v>0.62041209320238788</v>
       </c>
-      <c r="D49" s="24">
-        <f t="shared" si="29"/>
+      <c r="D50" s="24">
+        <f t="shared" si="25"/>
         <v>0.58545835440294736</v>
       </c>
-      <c r="E49" s="24">
-        <f t="shared" si="29"/>
+      <c r="E50" s="24">
+        <f t="shared" si="25"/>
         <v>0.63265306122448983</v>
       </c>
-      <c r="F49" s="24">
-        <f t="shared" si="29"/>
+      <c r="F50" s="24">
+        <f t="shared" si="25"/>
         <v>0.61976093668796428</v>
       </c>
-      <c r="G49" s="24">
-        <f>+G21/G19</f>
+      <c r="G50" s="24">
+        <f>+G22/G20</f>
         <v>0.6408181413961761</v>
       </c>
-      <c r="H49" s="24">
-        <f t="shared" ref="H49" si="30">+H21/H19</f>
+      <c r="H50" s="24">
+        <f t="shared" ref="H50:I50" si="26">+H22/H20</f>
         <v>0.60429753848642531</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="24">
-        <f t="shared" ref="K49:N49" si="31">+K21/K19</f>
+      <c r="I50" s="24">
+        <f t="shared" si="26"/>
+        <v>0.63369136571191365</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="24">
+        <f t="shared" ref="M50:P50" si="27">+M22/M20</f>
         <v>1</v>
       </c>
-      <c r="L49" s="24">
-        <f t="shared" si="31"/>
+      <c r="N50" s="24">
+        <f t="shared" si="27"/>
         <v>0.61636393123580924</v>
       </c>
-      <c r="M49" s="24">
-        <f t="shared" si="31"/>
+      <c r="O50" s="24">
+        <f t="shared" si="27"/>
         <v>0.6023746062515144</v>
       </c>
-      <c r="N49" s="24">
-        <f t="shared" si="31"/>
+      <c r="P50" s="24">
+        <f t="shared" si="27"/>
         <v>0.62589005067675929</v>
       </c>
-      <c r="O49" s="24">
-        <f t="shared" ref="O49" si="32">+O21/O19</f>
+      <c r="Q50" s="24">
+        <f t="shared" ref="Q50" si="28">+Q22/Q20</f>
         <v>0.62169259876316607</v>
       </c>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21"/>
-      <c r="AU49" s="12"/>
-      <c r="AV49" s="12"/>
-      <c r="AW49" s="12"/>
-      <c r="AX49" s="12"/>
-      <c r="AY49" s="12"/>
-      <c r="AZ49" s="12"/>
-      <c r="BA49" s="12"/>
-      <c r="BB49" s="12"/>
-      <c r="BC49" s="12"/>
-      <c r="BD49" s="12"/>
-      <c r="BE49" s="12"/>
-      <c r="BF49" s="12"/>
-      <c r="BG49" s="12"/>
-      <c r="BH49" s="12"/>
-      <c r="BI49" s="12"/>
-      <c r="BJ49" s="12"/>
-      <c r="BK49" s="12"/>
-      <c r="BL49" s="12"/>
-      <c r="BM49" s="12"/>
-      <c r="BN49" s="12"/>
-      <c r="BO49" s="12"/>
-      <c r="BP49" s="12"/>
-      <c r="BQ49" s="12"/>
-      <c r="BR49" s="12"/>
-      <c r="BS49" s="12"/>
-      <c r="BT49" s="12"/>
-      <c r="BU49" s="12"/>
-      <c r="BV49" s="12"/>
-      <c r="BW49" s="12"/>
-      <c r="BX49" s="12"/>
-      <c r="BY49" s="12"/>
-      <c r="BZ49" s="12"/>
-    </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="24">
-        <f t="shared" ref="C50:F50" si="33">+C25/C19</f>
-        <v>0.22306951665703831</v>
-      </c>
-      <c r="D50" s="24">
-        <f t="shared" si="33"/>
-        <v>0.19641696164126274</v>
-      </c>
-      <c r="E50" s="24">
-        <f t="shared" si="33"/>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F50" s="24">
-        <f t="shared" si="33"/>
-        <v>0.23673993457858214</v>
-      </c>
-      <c r="G50" s="24">
-        <f>+G25/G19</f>
-        <v>0.25670668445234918</v>
-      </c>
-      <c r="H50" s="24">
-        <f t="shared" ref="H50" si="34">+H25/H19</f>
-        <v>0.21393329918309023</v>
-      </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="24">
-        <f t="shared" ref="K50:N50" si="35">+K25/K19</f>
-        <v>1</v>
-      </c>
-      <c r="L50" s="24">
-        <f t="shared" si="35"/>
-        <v>0.22277408368472268</v>
-      </c>
-      <c r="M50" s="24">
-        <f t="shared" si="35"/>
-        <v>0.2093157629867104</v>
-      </c>
-      <c r="N50" s="24">
-        <f t="shared" si="35"/>
-        <v>0.24643979729296298</v>
-      </c>
-      <c r="O50" s="24">
-        <f t="shared" ref="O50" si="36">+O25/O19</f>
-        <v>0.23430661056674101</v>
-      </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
@@ -6097,8 +6314,8 @@
       <c r="AR50" s="21"/>
       <c r="AS50" s="21"/>
       <c r="AT50" s="21"/>
-      <c r="AU50" s="12"/>
-      <c r="AV50" s="12"/>
+      <c r="AU50" s="21"/>
+      <c r="AV50" s="21"/>
       <c r="AW50" s="12"/>
       <c r="AX50" s="12"/>
       <c r="AY50" s="12"/>
@@ -6129,59 +6346,64 @@
       <c r="BX50" s="12"/>
       <c r="BY50" s="12"/>
       <c r="BZ50" s="12"/>
-    </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA50" s="12"/>
+      <c r="CB50" s="12"/>
+    </row>
+    <row r="51" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="24">
-        <f t="shared" ref="C51:F51" si="37">+C30/C29</f>
-        <v>0.2936337625178827</v>
+        <f t="shared" ref="C51:F51" si="29">+C26/C20</f>
+        <v>0.22306951665703831</v>
       </c>
       <c r="D51" s="24">
-        <f t="shared" si="37"/>
-        <v>0.2547284400485858</v>
+        <f t="shared" si="29"/>
+        <v>0.19641696164126274</v>
       </c>
       <c r="E51" s="24">
-        <f t="shared" si="37"/>
-        <v>0.29063379338067802</v>
+        <f t="shared" si="29"/>
+        <v>0.25714285714285712</v>
       </c>
       <c r="F51" s="24">
-        <f t="shared" si="37"/>
-        <v>0.26831356243120946</v>
+        <f t="shared" si="29"/>
+        <v>0.23673993457858214</v>
       </c>
       <c r="G51" s="24">
-        <f>+G30/G29</f>
-        <v>0.22973467520585544</v>
+        <f>+G26/G20</f>
+        <v>0.25670668445234918</v>
       </c>
       <c r="H51" s="24">
-        <f t="shared" ref="H51" si="38">+H30/H29</f>
-        <v>0.21763739273324814</v>
-      </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="24">
-        <f t="shared" ref="K51:N51" si="39">+K30/K29</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="24">
-        <f t="shared" si="39"/>
-        <v>0.26877224199288258</v>
-      </c>
+        <f t="shared" ref="H51:I51" si="30">+H26/H20</f>
+        <v>0.21393329918309023</v>
+      </c>
+      <c r="I51" s="24">
+        <f t="shared" si="30"/>
+        <v>0.26284246575342468</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
       <c r="M51" s="24">
-        <f t="shared" si="39"/>
-        <v>0.27388815499779834</v>
+        <f t="shared" ref="M51:P51" si="31">+M26/M20</f>
+        <v>1</v>
       </c>
       <c r="N51" s="24">
-        <f t="shared" si="39"/>
-        <v>0.27896419437340153</v>
+        <f t="shared" si="31"/>
+        <v>0.22277408368472268</v>
       </c>
       <c r="O51" s="24">
-        <f t="shared" ref="O51" si="40">+O30/O29</f>
-        <v>0.22367940047523305</v>
-      </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+        <f t="shared" si="31"/>
+        <v>0.2093157629867104</v>
+      </c>
+      <c r="P51" s="24">
+        <f t="shared" si="31"/>
+        <v>0.24643979729296298</v>
+      </c>
+      <c r="Q51" s="24">
+        <f t="shared" ref="Q51" si="32">+Q26/Q20</f>
+        <v>0.23430661056674101</v>
+      </c>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
       <c r="T51" s="21"/>
@@ -6211,8 +6433,8 @@
       <c r="AR51" s="21"/>
       <c r="AS51" s="21"/>
       <c r="AT51" s="21"/>
-      <c r="AU51" s="12"/>
-      <c r="AV51" s="12"/>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
       <c r="AW51" s="12"/>
       <c r="AX51" s="12"/>
       <c r="AY51" s="12"/>
@@ -6243,23 +6465,64 @@
       <c r="BX51" s="12"/>
       <c r="BY51" s="12"/>
       <c r="BZ51" s="12"/>
-    </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="CA51" s="12"/>
+      <c r="CB51" s="12"/>
+    </row>
+    <row r="52" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="24">
+        <f t="shared" ref="C52:F52" si="33">+C31/C30</f>
+        <v>0.2936337625178827</v>
+      </c>
+      <c r="D52" s="24">
+        <f t="shared" si="33"/>
+        <v>0.2547284400485858</v>
+      </c>
+      <c r="E52" s="24">
+        <f t="shared" si="33"/>
+        <v>0.29063379338067802</v>
+      </c>
+      <c r="F52" s="24">
+        <f t="shared" si="33"/>
+        <v>0.26831356243120946</v>
+      </c>
+      <c r="G52" s="24">
+        <f>+G31/G30</f>
+        <v>0.22973467520585544</v>
+      </c>
+      <c r="H52" s="24">
+        <f t="shared" ref="H52:I52" si="34">+H31/H30</f>
+        <v>0.21763739273324814</v>
+      </c>
+      <c r="I52" s="24">
+        <f t="shared" si="34"/>
+        <v>0.27327300421109219</v>
+      </c>
+      <c r="J52" s="24"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
+      <c r="M52" s="24">
+        <f t="shared" ref="M52:P52" si="35">+M31/M30</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="24">
+        <f t="shared" si="35"/>
+        <v>0.26877224199288258</v>
+      </c>
+      <c r="O52" s="24">
+        <f t="shared" si="35"/>
+        <v>0.27388815499779834</v>
+      </c>
+      <c r="P52" s="24">
+        <f t="shared" si="35"/>
+        <v>0.27896419437340153</v>
+      </c>
+      <c r="Q52" s="24">
+        <f t="shared" ref="Q52" si="36">+Q31/Q30</f>
+        <v>0.22367940047523305</v>
+      </c>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
@@ -6289,8 +6552,8 @@
       <c r="AR52" s="21"/>
       <c r="AS52" s="21"/>
       <c r="AT52" s="21"/>
-      <c r="AU52" s="12"/>
-      <c r="AV52" s="12"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
       <c r="AW52" s="12"/>
       <c r="AX52" s="12"/>
       <c r="AY52" s="12"/>
@@ -6321,8 +6584,10 @@
       <c r="BX52" s="12"/>
       <c r="BY52" s="12"/>
       <c r="BZ52" s="12"/>
-    </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA52" s="12"/>
+      <c r="CB52" s="12"/>
+    </row>
+    <row r="53" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="21"/>
@@ -6367,8 +6632,8 @@
       <c r="AR53" s="21"/>
       <c r="AS53" s="21"/>
       <c r="AT53" s="21"/>
-      <c r="AU53" s="12"/>
-      <c r="AV53" s="12"/>
+      <c r="AU53" s="21"/>
+      <c r="AV53" s="21"/>
       <c r="AW53" s="12"/>
       <c r="AX53" s="12"/>
       <c r="AY53" s="12"/>
@@ -6399,8 +6664,10 @@
       <c r="BX53" s="12"/>
       <c r="BY53" s="12"/>
       <c r="BZ53" s="12"/>
-    </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA53" s="12"/>
+      <c r="CB53" s="12"/>
+    </row>
+    <row r="54" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="21"/>
@@ -6445,8 +6712,8 @@
       <c r="AR54" s="21"/>
       <c r="AS54" s="21"/>
       <c r="AT54" s="21"/>
-      <c r="AU54" s="12"/>
-      <c r="AV54" s="12"/>
+      <c r="AU54" s="21"/>
+      <c r="AV54" s="21"/>
       <c r="AW54" s="12"/>
       <c r="AX54" s="12"/>
       <c r="AY54" s="12"/>
@@ -6477,8 +6744,10 @@
       <c r="BX54" s="12"/>
       <c r="BY54" s="12"/>
       <c r="BZ54" s="12"/>
-    </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA54" s="12"/>
+      <c r="CB54" s="12"/>
+    </row>
+    <row r="55" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="21"/>
@@ -6523,8 +6792,8 @@
       <c r="AR55" s="21"/>
       <c r="AS55" s="21"/>
       <c r="AT55" s="21"/>
-      <c r="AU55" s="12"/>
-      <c r="AV55" s="12"/>
+      <c r="AU55" s="21"/>
+      <c r="AV55" s="21"/>
       <c r="AW55" s="12"/>
       <c r="AX55" s="12"/>
       <c r="AY55" s="12"/>
@@ -6555,8 +6824,10 @@
       <c r="BX55" s="12"/>
       <c r="BY55" s="12"/>
       <c r="BZ55" s="12"/>
-    </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA55" s="12"/>
+      <c r="CB55" s="12"/>
+    </row>
+    <row r="56" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="21"/>
@@ -6601,8 +6872,8 @@
       <c r="AR56" s="21"/>
       <c r="AS56" s="21"/>
       <c r="AT56" s="21"/>
-      <c r="AU56" s="12"/>
-      <c r="AV56" s="12"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
       <c r="AY56" s="12"/>
@@ -6633,8 +6904,10 @@
       <c r="BX56" s="12"/>
       <c r="BY56" s="12"/>
       <c r="BZ56" s="12"/>
-    </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA56" s="12"/>
+      <c r="CB56" s="12"/>
+    </row>
+    <row r="57" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="21"/>
@@ -6679,8 +6952,8 @@
       <c r="AR57" s="21"/>
       <c r="AS57" s="21"/>
       <c r="AT57" s="21"/>
-      <c r="AU57" s="12"/>
-      <c r="AV57" s="12"/>
+      <c r="AU57" s="21"/>
+      <c r="AV57" s="21"/>
       <c r="AW57" s="12"/>
       <c r="AX57" s="12"/>
       <c r="AY57" s="12"/>
@@ -6711,8 +6984,10 @@
       <c r="BX57" s="12"/>
       <c r="BY57" s="12"/>
       <c r="BZ57" s="12"/>
-    </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA57" s="12"/>
+      <c r="CB57" s="12"/>
+    </row>
+    <row r="58" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="21"/>
@@ -6757,8 +7032,8 @@
       <c r="AR58" s="21"/>
       <c r="AS58" s="21"/>
       <c r="AT58" s="21"/>
-      <c r="AU58" s="12"/>
-      <c r="AV58" s="12"/>
+      <c r="AU58" s="21"/>
+      <c r="AV58" s="21"/>
       <c r="AW58" s="12"/>
       <c r="AX58" s="12"/>
       <c r="AY58" s="12"/>
@@ -6789,8 +7064,10 @@
       <c r="BX58" s="12"/>
       <c r="BY58" s="12"/>
       <c r="BZ58" s="12"/>
-    </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA58" s="12"/>
+      <c r="CB58" s="12"/>
+    </row>
+    <row r="59" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="21"/>
@@ -6835,8 +7112,8 @@
       <c r="AR59" s="21"/>
       <c r="AS59" s="21"/>
       <c r="AT59" s="21"/>
-      <c r="AU59" s="12"/>
-      <c r="AV59" s="12"/>
+      <c r="AU59" s="21"/>
+      <c r="AV59" s="21"/>
       <c r="AW59" s="12"/>
       <c r="AX59" s="12"/>
       <c r="AY59" s="12"/>
@@ -6867,8 +7144,10 @@
       <c r="BX59" s="12"/>
       <c r="BY59" s="12"/>
       <c r="BZ59" s="12"/>
-    </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA59" s="12"/>
+      <c r="CB59" s="12"/>
+    </row>
+    <row r="60" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="21"/>
@@ -6913,8 +7192,8 @@
       <c r="AR60" s="21"/>
       <c r="AS60" s="21"/>
       <c r="AT60" s="21"/>
-      <c r="AU60" s="12"/>
-      <c r="AV60" s="12"/>
+      <c r="AU60" s="21"/>
+      <c r="AV60" s="21"/>
       <c r="AW60" s="12"/>
       <c r="AX60" s="12"/>
       <c r="AY60" s="12"/>
@@ -6945,8 +7224,10 @@
       <c r="BX60" s="12"/>
       <c r="BY60" s="12"/>
       <c r="BZ60" s="12"/>
-    </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA60" s="12"/>
+      <c r="CB60" s="12"/>
+    </row>
+    <row r="61" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="21"/>
@@ -6991,8 +7272,8 @@
       <c r="AR61" s="21"/>
       <c r="AS61" s="21"/>
       <c r="AT61" s="21"/>
-      <c r="AU61" s="12"/>
-      <c r="AV61" s="12"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
       <c r="AW61" s="12"/>
       <c r="AX61" s="12"/>
       <c r="AY61" s="12"/>
@@ -7023,8 +7304,10 @@
       <c r="BX61" s="12"/>
       <c r="BY61" s="12"/>
       <c r="BZ61" s="12"/>
-    </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA61" s="12"/>
+      <c r="CB61" s="12"/>
+    </row>
+    <row r="62" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="21"/>
@@ -7069,8 +7352,8 @@
       <c r="AR62" s="21"/>
       <c r="AS62" s="21"/>
       <c r="AT62" s="21"/>
-      <c r="AU62" s="12"/>
-      <c r="AV62" s="12"/>
+      <c r="AU62" s="21"/>
+      <c r="AV62" s="21"/>
       <c r="AW62" s="12"/>
       <c r="AX62" s="12"/>
       <c r="AY62" s="12"/>
@@ -7101,8 +7384,10 @@
       <c r="BX62" s="12"/>
       <c r="BY62" s="12"/>
       <c r="BZ62" s="12"/>
-    </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA62" s="12"/>
+      <c r="CB62" s="12"/>
+    </row>
+    <row r="63" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="21"/>
@@ -7147,8 +7432,8 @@
       <c r="AR63" s="21"/>
       <c r="AS63" s="21"/>
       <c r="AT63" s="21"/>
-      <c r="AU63" s="12"/>
-      <c r="AV63" s="12"/>
+      <c r="AU63" s="21"/>
+      <c r="AV63" s="21"/>
       <c r="AW63" s="12"/>
       <c r="AX63" s="12"/>
       <c r="AY63" s="12"/>
@@ -7179,8 +7464,10 @@
       <c r="BX63" s="12"/>
       <c r="BY63" s="12"/>
       <c r="BZ63" s="12"/>
-    </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="CA63" s="12"/>
+      <c r="CB63" s="12"/>
+    </row>
+    <row r="64" spans="2:80" x14ac:dyDescent="0.25">
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="21"/>
@@ -7225,8 +7512,8 @@
       <c r="AR64" s="21"/>
       <c r="AS64" s="21"/>
       <c r="AT64" s="21"/>
-      <c r="AU64" s="12"/>
-      <c r="AV64" s="12"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
       <c r="AW64" s="12"/>
       <c r="AX64" s="12"/>
       <c r="AY64" s="12"/>
@@ -7257,8 +7544,10 @@
       <c r="BX64" s="12"/>
       <c r="BY64" s="12"/>
       <c r="BZ64" s="12"/>
-    </row>
-    <row r="65" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA64" s="12"/>
+      <c r="CB64" s="12"/>
+    </row>
+    <row r="65" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="21"/>
@@ -7303,8 +7592,8 @@
       <c r="AR65" s="21"/>
       <c r="AS65" s="21"/>
       <c r="AT65" s="21"/>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="12"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="21"/>
       <c r="AW65" s="12"/>
       <c r="AX65" s="12"/>
       <c r="AY65" s="12"/>
@@ -7335,8 +7624,10 @@
       <c r="BX65" s="12"/>
       <c r="BY65" s="12"/>
       <c r="BZ65" s="12"/>
-    </row>
-    <row r="66" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA65" s="12"/>
+      <c r="CB65" s="12"/>
+    </row>
+    <row r="66" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="21"/>
@@ -7381,8 +7672,8 @@
       <c r="AR66" s="21"/>
       <c r="AS66" s="21"/>
       <c r="AT66" s="21"/>
-      <c r="AU66" s="12"/>
-      <c r="AV66" s="12"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
       <c r="AW66" s="12"/>
       <c r="AX66" s="12"/>
       <c r="AY66" s="12"/>
@@ -7413,8 +7704,10 @@
       <c r="BX66" s="12"/>
       <c r="BY66" s="12"/>
       <c r="BZ66" s="12"/>
-    </row>
-    <row r="67" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA66" s="12"/>
+      <c r="CB66" s="12"/>
+    </row>
+    <row r="67" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="21"/>
@@ -7459,8 +7752,8 @@
       <c r="AR67" s="21"/>
       <c r="AS67" s="21"/>
       <c r="AT67" s="21"/>
-      <c r="AU67" s="12"/>
-      <c r="AV67" s="12"/>
+      <c r="AU67" s="21"/>
+      <c r="AV67" s="21"/>
       <c r="AW67" s="12"/>
       <c r="AX67" s="12"/>
       <c r="AY67" s="12"/>
@@ -7491,8 +7784,10 @@
       <c r="BX67" s="12"/>
       <c r="BY67" s="12"/>
       <c r="BZ67" s="12"/>
-    </row>
-    <row r="68" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA67" s="12"/>
+      <c r="CB67" s="12"/>
+    </row>
+    <row r="68" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="21"/>
@@ -7537,8 +7832,8 @@
       <c r="AR68" s="21"/>
       <c r="AS68" s="21"/>
       <c r="AT68" s="21"/>
-      <c r="AU68" s="12"/>
-      <c r="AV68" s="12"/>
+      <c r="AU68" s="21"/>
+      <c r="AV68" s="21"/>
       <c r="AW68" s="12"/>
       <c r="AX68" s="12"/>
       <c r="AY68" s="12"/>
@@ -7569,8 +7864,10 @@
       <c r="BX68" s="12"/>
       <c r="BY68" s="12"/>
       <c r="BZ68" s="12"/>
-    </row>
-    <row r="69" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA68" s="12"/>
+      <c r="CB68" s="12"/>
+    </row>
+    <row r="69" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="21"/>
@@ -7615,8 +7912,8 @@
       <c r="AR69" s="21"/>
       <c r="AS69" s="21"/>
       <c r="AT69" s="21"/>
-      <c r="AU69" s="12"/>
-      <c r="AV69" s="12"/>
+      <c r="AU69" s="21"/>
+      <c r="AV69" s="21"/>
       <c r="AW69" s="12"/>
       <c r="AX69" s="12"/>
       <c r="AY69" s="12"/>
@@ -7647,8 +7944,10 @@
       <c r="BX69" s="12"/>
       <c r="BY69" s="12"/>
       <c r="BZ69" s="12"/>
-    </row>
-    <row r="70" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA69" s="12"/>
+      <c r="CB69" s="12"/>
+    </row>
+    <row r="70" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="21"/>
@@ -7693,8 +7992,8 @@
       <c r="AR70" s="21"/>
       <c r="AS70" s="21"/>
       <c r="AT70" s="21"/>
-      <c r="AU70" s="12"/>
-      <c r="AV70" s="12"/>
+      <c r="AU70" s="21"/>
+      <c r="AV70" s="21"/>
       <c r="AW70" s="12"/>
       <c r="AX70" s="12"/>
       <c r="AY70" s="12"/>
@@ -7725,8 +8024,10 @@
       <c r="BX70" s="12"/>
       <c r="BY70" s="12"/>
       <c r="BZ70" s="12"/>
-    </row>
-    <row r="71" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA70" s="12"/>
+      <c r="CB70" s="12"/>
+    </row>
+    <row r="71" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="21"/>
@@ -7771,8 +8072,8 @@
       <c r="AR71" s="21"/>
       <c r="AS71" s="21"/>
       <c r="AT71" s="21"/>
-      <c r="AU71" s="12"/>
-      <c r="AV71" s="12"/>
+      <c r="AU71" s="21"/>
+      <c r="AV71" s="21"/>
       <c r="AW71" s="12"/>
       <c r="AX71" s="12"/>
       <c r="AY71" s="12"/>
@@ -7803,8 +8104,10 @@
       <c r="BX71" s="12"/>
       <c r="BY71" s="12"/>
       <c r="BZ71" s="12"/>
-    </row>
-    <row r="72" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA71" s="12"/>
+      <c r="CB71" s="12"/>
+    </row>
+    <row r="72" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="21"/>
@@ -7849,8 +8152,8 @@
       <c r="AR72" s="21"/>
       <c r="AS72" s="21"/>
       <c r="AT72" s="21"/>
-      <c r="AU72" s="12"/>
-      <c r="AV72" s="12"/>
+      <c r="AU72" s="21"/>
+      <c r="AV72" s="21"/>
       <c r="AW72" s="12"/>
       <c r="AX72" s="12"/>
       <c r="AY72" s="12"/>
@@ -7881,8 +8184,10 @@
       <c r="BX72" s="12"/>
       <c r="BY72" s="12"/>
       <c r="BZ72" s="12"/>
-    </row>
-    <row r="73" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA72" s="12"/>
+      <c r="CB72" s="12"/>
+    </row>
+    <row r="73" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="21"/>
@@ -7927,8 +8232,8 @@
       <c r="AR73" s="21"/>
       <c r="AS73" s="21"/>
       <c r="AT73" s="21"/>
-      <c r="AU73" s="12"/>
-      <c r="AV73" s="12"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="21"/>
       <c r="AW73" s="12"/>
       <c r="AX73" s="12"/>
       <c r="AY73" s="12"/>
@@ -7959,8 +8264,10 @@
       <c r="BX73" s="12"/>
       <c r="BY73" s="12"/>
       <c r="BZ73" s="12"/>
-    </row>
-    <row r="74" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA73" s="12"/>
+      <c r="CB73" s="12"/>
+    </row>
+    <row r="74" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="21"/>
@@ -8005,8 +8312,8 @@
       <c r="AR74" s="21"/>
       <c r="AS74" s="21"/>
       <c r="AT74" s="21"/>
-      <c r="AU74" s="12"/>
-      <c r="AV74" s="12"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="21"/>
       <c r="AW74" s="12"/>
       <c r="AX74" s="12"/>
       <c r="AY74" s="12"/>
@@ -8037,8 +8344,10 @@
       <c r="BX74" s="12"/>
       <c r="BY74" s="12"/>
       <c r="BZ74" s="12"/>
-    </row>
-    <row r="75" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA74" s="12"/>
+      <c r="CB74" s="12"/>
+    </row>
+    <row r="75" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="21"/>
@@ -8083,8 +8392,8 @@
       <c r="AR75" s="21"/>
       <c r="AS75" s="21"/>
       <c r="AT75" s="21"/>
-      <c r="AU75" s="12"/>
-      <c r="AV75" s="12"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
       <c r="AW75" s="12"/>
       <c r="AX75" s="12"/>
       <c r="AY75" s="12"/>
@@ -8115,8 +8424,10 @@
       <c r="BX75" s="12"/>
       <c r="BY75" s="12"/>
       <c r="BZ75" s="12"/>
-    </row>
-    <row r="76" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA75" s="12"/>
+      <c r="CB75" s="12"/>
+    </row>
+    <row r="76" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="21"/>
@@ -8161,8 +8472,8 @@
       <c r="AR76" s="21"/>
       <c r="AS76" s="21"/>
       <c r="AT76" s="21"/>
-      <c r="AU76" s="12"/>
-      <c r="AV76" s="12"/>
+      <c r="AU76" s="21"/>
+      <c r="AV76" s="21"/>
       <c r="AW76" s="12"/>
       <c r="AX76" s="12"/>
       <c r="AY76" s="12"/>
@@ -8193,8 +8504,10 @@
       <c r="BX76" s="12"/>
       <c r="BY76" s="12"/>
       <c r="BZ76" s="12"/>
-    </row>
-    <row r="77" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA76" s="12"/>
+      <c r="CB76" s="12"/>
+    </row>
+    <row r="77" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="21"/>
@@ -8239,8 +8552,8 @@
       <c r="AR77" s="21"/>
       <c r="AS77" s="21"/>
       <c r="AT77" s="21"/>
-      <c r="AU77" s="12"/>
-      <c r="AV77" s="12"/>
+      <c r="AU77" s="21"/>
+      <c r="AV77" s="21"/>
       <c r="AW77" s="12"/>
       <c r="AX77" s="12"/>
       <c r="AY77" s="12"/>
@@ -8271,8 +8584,10 @@
       <c r="BX77" s="12"/>
       <c r="BY77" s="12"/>
       <c r="BZ77" s="12"/>
-    </row>
-    <row r="78" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA77" s="12"/>
+      <c r="CB77" s="12"/>
+    </row>
+    <row r="78" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="21"/>
@@ -8317,8 +8632,8 @@
       <c r="AR78" s="21"/>
       <c r="AS78" s="21"/>
       <c r="AT78" s="21"/>
-      <c r="AU78" s="12"/>
-      <c r="AV78" s="12"/>
+      <c r="AU78" s="21"/>
+      <c r="AV78" s="21"/>
       <c r="AW78" s="12"/>
       <c r="AX78" s="12"/>
       <c r="AY78" s="12"/>
@@ -8349,8 +8664,10 @@
       <c r="BX78" s="12"/>
       <c r="BY78" s="12"/>
       <c r="BZ78" s="12"/>
-    </row>
-    <row r="79" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA78" s="12"/>
+      <c r="CB78" s="12"/>
+    </row>
+    <row r="79" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="21"/>
@@ -8395,8 +8712,8 @@
       <c r="AR79" s="21"/>
       <c r="AS79" s="21"/>
       <c r="AT79" s="21"/>
-      <c r="AU79" s="12"/>
-      <c r="AV79" s="12"/>
+      <c r="AU79" s="21"/>
+      <c r="AV79" s="21"/>
       <c r="AW79" s="12"/>
       <c r="AX79" s="12"/>
       <c r="AY79" s="12"/>
@@ -8427,8 +8744,10 @@
       <c r="BX79" s="12"/>
       <c r="BY79" s="12"/>
       <c r="BZ79" s="12"/>
-    </row>
-    <row r="80" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA79" s="12"/>
+      <c r="CB79" s="12"/>
+    </row>
+    <row r="80" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="21"/>
@@ -8473,8 +8792,8 @@
       <c r="AR80" s="21"/>
       <c r="AS80" s="21"/>
       <c r="AT80" s="21"/>
-      <c r="AU80" s="12"/>
-      <c r="AV80" s="12"/>
+      <c r="AU80" s="21"/>
+      <c r="AV80" s="21"/>
       <c r="AW80" s="12"/>
       <c r="AX80" s="12"/>
       <c r="AY80" s="12"/>
@@ -8505,8 +8824,10 @@
       <c r="BX80" s="12"/>
       <c r="BY80" s="12"/>
       <c r="BZ80" s="12"/>
-    </row>
-    <row r="81" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA80" s="12"/>
+      <c r="CB80" s="12"/>
+    </row>
+    <row r="81" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="21"/>
@@ -8551,8 +8872,8 @@
       <c r="AR81" s="21"/>
       <c r="AS81" s="21"/>
       <c r="AT81" s="21"/>
-      <c r="AU81" s="12"/>
-      <c r="AV81" s="12"/>
+      <c r="AU81" s="21"/>
+      <c r="AV81" s="21"/>
       <c r="AW81" s="12"/>
       <c r="AX81" s="12"/>
       <c r="AY81" s="12"/>
@@ -8583,8 +8904,10 @@
       <c r="BX81" s="12"/>
       <c r="BY81" s="12"/>
       <c r="BZ81" s="12"/>
-    </row>
-    <row r="82" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA81" s="12"/>
+      <c r="CB81" s="12"/>
+    </row>
+    <row r="82" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="21"/>
@@ -8629,8 +8952,8 @@
       <c r="AR82" s="21"/>
       <c r="AS82" s="21"/>
       <c r="AT82" s="21"/>
-      <c r="AU82" s="12"/>
-      <c r="AV82" s="12"/>
+      <c r="AU82" s="21"/>
+      <c r="AV82" s="21"/>
       <c r="AW82" s="12"/>
       <c r="AX82" s="12"/>
       <c r="AY82" s="12"/>
@@ -8661,8 +8984,10 @@
       <c r="BX82" s="12"/>
       <c r="BY82" s="12"/>
       <c r="BZ82" s="12"/>
-    </row>
-    <row r="83" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA82" s="12"/>
+      <c r="CB82" s="12"/>
+    </row>
+    <row r="83" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="21"/>
@@ -8707,8 +9032,8 @@
       <c r="AR83" s="21"/>
       <c r="AS83" s="21"/>
       <c r="AT83" s="21"/>
-      <c r="AU83" s="12"/>
-      <c r="AV83" s="12"/>
+      <c r="AU83" s="21"/>
+      <c r="AV83" s="21"/>
       <c r="AW83" s="12"/>
       <c r="AX83" s="12"/>
       <c r="AY83" s="12"/>
@@ -8739,8 +9064,10 @@
       <c r="BX83" s="12"/>
       <c r="BY83" s="12"/>
       <c r="BZ83" s="12"/>
-    </row>
-    <row r="84" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA83" s="12"/>
+      <c r="CB83" s="12"/>
+    </row>
+    <row r="84" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="21"/>
@@ -8785,8 +9112,8 @@
       <c r="AR84" s="21"/>
       <c r="AS84" s="21"/>
       <c r="AT84" s="21"/>
-      <c r="AU84" s="12"/>
-      <c r="AV84" s="12"/>
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
       <c r="AW84" s="12"/>
       <c r="AX84" s="12"/>
       <c r="AY84" s="12"/>
@@ -8817,8 +9144,10 @@
       <c r="BX84" s="12"/>
       <c r="BY84" s="12"/>
       <c r="BZ84" s="12"/>
-    </row>
-    <row r="85" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA84" s="12"/>
+      <c r="CB84" s="12"/>
+    </row>
+    <row r="85" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="21"/>
@@ -8863,8 +9192,8 @@
       <c r="AR85" s="21"/>
       <c r="AS85" s="21"/>
       <c r="AT85" s="21"/>
-      <c r="AU85" s="12"/>
-      <c r="AV85" s="12"/>
+      <c r="AU85" s="21"/>
+      <c r="AV85" s="21"/>
       <c r="AW85" s="12"/>
       <c r="AX85" s="12"/>
       <c r="AY85" s="12"/>
@@ -8895,8 +9224,10 @@
       <c r="BX85" s="12"/>
       <c r="BY85" s="12"/>
       <c r="BZ85" s="12"/>
-    </row>
-    <row r="86" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA85" s="12"/>
+      <c r="CB85" s="12"/>
+    </row>
+    <row r="86" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="21"/>
@@ -8941,8 +9272,8 @@
       <c r="AR86" s="21"/>
       <c r="AS86" s="21"/>
       <c r="AT86" s="21"/>
-      <c r="AU86" s="12"/>
-      <c r="AV86" s="12"/>
+      <c r="AU86" s="21"/>
+      <c r="AV86" s="21"/>
       <c r="AW86" s="12"/>
       <c r="AX86" s="12"/>
       <c r="AY86" s="12"/>
@@ -8973,8 +9304,10 @@
       <c r="BX86" s="12"/>
       <c r="BY86" s="12"/>
       <c r="BZ86" s="12"/>
-    </row>
-    <row r="87" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA86" s="12"/>
+      <c r="CB86" s="12"/>
+    </row>
+    <row r="87" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="21"/>
@@ -9019,8 +9352,8 @@
       <c r="AR87" s="21"/>
       <c r="AS87" s="21"/>
       <c r="AT87" s="21"/>
-      <c r="AU87" s="12"/>
-      <c r="AV87" s="12"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="21"/>
       <c r="AW87" s="12"/>
       <c r="AX87" s="12"/>
       <c r="AY87" s="12"/>
@@ -9051,8 +9384,10 @@
       <c r="BX87" s="12"/>
       <c r="BY87" s="12"/>
       <c r="BZ87" s="12"/>
-    </row>
-    <row r="88" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA87" s="12"/>
+      <c r="CB87" s="12"/>
+    </row>
+    <row r="88" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="21"/>
@@ -9097,8 +9432,8 @@
       <c r="AR88" s="21"/>
       <c r="AS88" s="21"/>
       <c r="AT88" s="21"/>
-      <c r="AU88" s="12"/>
-      <c r="AV88" s="12"/>
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="21"/>
       <c r="AW88" s="12"/>
       <c r="AX88" s="12"/>
       <c r="AY88" s="12"/>
@@ -9129,8 +9464,10 @@
       <c r="BX88" s="12"/>
       <c r="BY88" s="12"/>
       <c r="BZ88" s="12"/>
-    </row>
-    <row r="89" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA88" s="12"/>
+      <c r="CB88" s="12"/>
+    </row>
+    <row r="89" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="21"/>
@@ -9175,8 +9512,8 @@
       <c r="AR89" s="21"/>
       <c r="AS89" s="21"/>
       <c r="AT89" s="21"/>
-      <c r="AU89" s="12"/>
-      <c r="AV89" s="12"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21"/>
       <c r="AW89" s="12"/>
       <c r="AX89" s="12"/>
       <c r="AY89" s="12"/>
@@ -9207,8 +9544,10 @@
       <c r="BX89" s="12"/>
       <c r="BY89" s="12"/>
       <c r="BZ89" s="12"/>
-    </row>
-    <row r="90" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA89" s="12"/>
+      <c r="CB89" s="12"/>
+    </row>
+    <row r="90" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="21"/>
@@ -9253,8 +9592,8 @@
       <c r="AR90" s="21"/>
       <c r="AS90" s="21"/>
       <c r="AT90" s="21"/>
-      <c r="AU90" s="12"/>
-      <c r="AV90" s="12"/>
+      <c r="AU90" s="21"/>
+      <c r="AV90" s="21"/>
       <c r="AW90" s="12"/>
       <c r="AX90" s="12"/>
       <c r="AY90" s="12"/>
@@ -9285,8 +9624,10 @@
       <c r="BX90" s="12"/>
       <c r="BY90" s="12"/>
       <c r="BZ90" s="12"/>
-    </row>
-    <row r="91" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA90" s="12"/>
+      <c r="CB90" s="12"/>
+    </row>
+    <row r="91" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="21"/>
@@ -9331,8 +9672,8 @@
       <c r="AR91" s="21"/>
       <c r="AS91" s="21"/>
       <c r="AT91" s="21"/>
-      <c r="AU91" s="12"/>
-      <c r="AV91" s="12"/>
+      <c r="AU91" s="21"/>
+      <c r="AV91" s="21"/>
       <c r="AW91" s="12"/>
       <c r="AX91" s="12"/>
       <c r="AY91" s="12"/>
@@ -9363,8 +9704,10 @@
       <c r="BX91" s="12"/>
       <c r="BY91" s="12"/>
       <c r="BZ91" s="12"/>
-    </row>
-    <row r="92" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA91" s="12"/>
+      <c r="CB91" s="12"/>
+    </row>
+    <row r="92" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="21"/>
@@ -9409,8 +9752,8 @@
       <c r="AR92" s="21"/>
       <c r="AS92" s="21"/>
       <c r="AT92" s="21"/>
-      <c r="AU92" s="12"/>
-      <c r="AV92" s="12"/>
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
       <c r="AW92" s="12"/>
       <c r="AX92" s="12"/>
       <c r="AY92" s="12"/>
@@ -9441,8 +9784,10 @@
       <c r="BX92" s="12"/>
       <c r="BY92" s="12"/>
       <c r="BZ92" s="12"/>
-    </row>
-    <row r="93" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA92" s="12"/>
+      <c r="CB92" s="12"/>
+    </row>
+    <row r="93" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="21"/>
@@ -9487,8 +9832,8 @@
       <c r="AR93" s="21"/>
       <c r="AS93" s="21"/>
       <c r="AT93" s="21"/>
-      <c r="AU93" s="12"/>
-      <c r="AV93" s="12"/>
+      <c r="AU93" s="21"/>
+      <c r="AV93" s="21"/>
       <c r="AW93" s="12"/>
       <c r="AX93" s="12"/>
       <c r="AY93" s="12"/>
@@ -9519,8 +9864,10 @@
       <c r="BX93" s="12"/>
       <c r="BY93" s="12"/>
       <c r="BZ93" s="12"/>
-    </row>
-    <row r="94" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA93" s="12"/>
+      <c r="CB93" s="12"/>
+    </row>
+    <row r="94" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="21"/>
@@ -9565,8 +9912,8 @@
       <c r="AR94" s="21"/>
       <c r="AS94" s="21"/>
       <c r="AT94" s="21"/>
-      <c r="AU94" s="12"/>
-      <c r="AV94" s="12"/>
+      <c r="AU94" s="21"/>
+      <c r="AV94" s="21"/>
       <c r="AW94" s="12"/>
       <c r="AX94" s="12"/>
       <c r="AY94" s="12"/>
@@ -9597,8 +9944,10 @@
       <c r="BX94" s="12"/>
       <c r="BY94" s="12"/>
       <c r="BZ94" s="12"/>
-    </row>
-    <row r="95" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA94" s="12"/>
+      <c r="CB94" s="12"/>
+    </row>
+    <row r="95" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="21"/>
@@ -9643,8 +9992,8 @@
       <c r="AR95" s="21"/>
       <c r="AS95" s="21"/>
       <c r="AT95" s="21"/>
-      <c r="AU95" s="12"/>
-      <c r="AV95" s="12"/>
+      <c r="AU95" s="21"/>
+      <c r="AV95" s="21"/>
       <c r="AW95" s="12"/>
       <c r="AX95" s="12"/>
       <c r="AY95" s="12"/>
@@ -9675,8 +10024,10 @@
       <c r="BX95" s="12"/>
       <c r="BY95" s="12"/>
       <c r="BZ95" s="12"/>
-    </row>
-    <row r="96" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA95" s="12"/>
+      <c r="CB95" s="12"/>
+    </row>
+    <row r="96" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="21"/>
@@ -9721,8 +10072,8 @@
       <c r="AR96" s="21"/>
       <c r="AS96" s="21"/>
       <c r="AT96" s="21"/>
-      <c r="AU96" s="12"/>
-      <c r="AV96" s="12"/>
+      <c r="AU96" s="21"/>
+      <c r="AV96" s="21"/>
       <c r="AW96" s="12"/>
       <c r="AX96" s="12"/>
       <c r="AY96" s="12"/>
@@ -9753,8 +10104,10 @@
       <c r="BX96" s="12"/>
       <c r="BY96" s="12"/>
       <c r="BZ96" s="12"/>
-    </row>
-    <row r="97" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA96" s="12"/>
+      <c r="CB96" s="12"/>
+    </row>
+    <row r="97" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="21"/>
@@ -9799,8 +10152,8 @@
       <c r="AR97" s="21"/>
       <c r="AS97" s="21"/>
       <c r="AT97" s="21"/>
-      <c r="AU97" s="12"/>
-      <c r="AV97" s="12"/>
+      <c r="AU97" s="21"/>
+      <c r="AV97" s="21"/>
       <c r="AW97" s="12"/>
       <c r="AX97" s="12"/>
       <c r="AY97" s="12"/>
@@ -9831,8 +10184,10 @@
       <c r="BX97" s="12"/>
       <c r="BY97" s="12"/>
       <c r="BZ97" s="12"/>
-    </row>
-    <row r="98" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA97" s="12"/>
+      <c r="CB97" s="12"/>
+    </row>
+    <row r="98" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="21"/>
@@ -9877,8 +10232,8 @@
       <c r="AR98" s="21"/>
       <c r="AS98" s="21"/>
       <c r="AT98" s="21"/>
-      <c r="AU98" s="12"/>
-      <c r="AV98" s="12"/>
+      <c r="AU98" s="21"/>
+      <c r="AV98" s="21"/>
       <c r="AW98" s="12"/>
       <c r="AX98" s="12"/>
       <c r="AY98" s="12"/>
@@ -9909,8 +10264,10 @@
       <c r="BX98" s="12"/>
       <c r="BY98" s="12"/>
       <c r="BZ98" s="12"/>
-    </row>
-    <row r="99" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA98" s="12"/>
+      <c r="CB98" s="12"/>
+    </row>
+    <row r="99" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="21"/>
@@ -9955,8 +10312,8 @@
       <c r="AR99" s="21"/>
       <c r="AS99" s="21"/>
       <c r="AT99" s="21"/>
-      <c r="AU99" s="12"/>
-      <c r="AV99" s="12"/>
+      <c r="AU99" s="21"/>
+      <c r="AV99" s="21"/>
       <c r="AW99" s="12"/>
       <c r="AX99" s="12"/>
       <c r="AY99" s="12"/>
@@ -9987,8 +10344,10 @@
       <c r="BX99" s="12"/>
       <c r="BY99" s="12"/>
       <c r="BZ99" s="12"/>
-    </row>
-    <row r="100" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA99" s="12"/>
+      <c r="CB99" s="12"/>
+    </row>
+    <row r="100" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="21"/>
@@ -10033,8 +10392,8 @@
       <c r="AR100" s="21"/>
       <c r="AS100" s="21"/>
       <c r="AT100" s="21"/>
-      <c r="AU100" s="12"/>
-      <c r="AV100" s="12"/>
+      <c r="AU100" s="21"/>
+      <c r="AV100" s="21"/>
       <c r="AW100" s="12"/>
       <c r="AX100" s="12"/>
       <c r="AY100" s="12"/>
@@ -10065,8 +10424,10 @@
       <c r="BX100" s="12"/>
       <c r="BY100" s="12"/>
       <c r="BZ100" s="12"/>
-    </row>
-    <row r="101" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA100" s="12"/>
+      <c r="CB100" s="12"/>
+    </row>
+    <row r="101" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="21"/>
@@ -10111,8 +10472,8 @@
       <c r="AR101" s="21"/>
       <c r="AS101" s="21"/>
       <c r="AT101" s="21"/>
-      <c r="AU101" s="12"/>
-      <c r="AV101" s="12"/>
+      <c r="AU101" s="21"/>
+      <c r="AV101" s="21"/>
       <c r="AW101" s="12"/>
       <c r="AX101" s="12"/>
       <c r="AY101" s="12"/>
@@ -10143,8 +10504,10 @@
       <c r="BX101" s="12"/>
       <c r="BY101" s="12"/>
       <c r="BZ101" s="12"/>
-    </row>
-    <row r="102" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA101" s="12"/>
+      <c r="CB101" s="12"/>
+    </row>
+    <row r="102" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="21"/>
@@ -10189,8 +10552,8 @@
       <c r="AR102" s="21"/>
       <c r="AS102" s="21"/>
       <c r="AT102" s="21"/>
-      <c r="AU102" s="12"/>
-      <c r="AV102" s="12"/>
+      <c r="AU102" s="21"/>
+      <c r="AV102" s="21"/>
       <c r="AW102" s="12"/>
       <c r="AX102" s="12"/>
       <c r="AY102" s="12"/>
@@ -10221,8 +10584,10 @@
       <c r="BX102" s="12"/>
       <c r="BY102" s="12"/>
       <c r="BZ102" s="12"/>
-    </row>
-    <row r="103" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA102" s="12"/>
+      <c r="CB102" s="12"/>
+    </row>
+    <row r="103" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="21"/>
@@ -10267,8 +10632,8 @@
       <c r="AR103" s="21"/>
       <c r="AS103" s="21"/>
       <c r="AT103" s="21"/>
-      <c r="AU103" s="12"/>
-      <c r="AV103" s="12"/>
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
       <c r="AW103" s="12"/>
       <c r="AX103" s="12"/>
       <c r="AY103" s="12"/>
@@ -10299,8 +10664,10 @@
       <c r="BX103" s="12"/>
       <c r="BY103" s="12"/>
       <c r="BZ103" s="12"/>
-    </row>
-    <row r="104" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA103" s="12"/>
+      <c r="CB103" s="12"/>
+    </row>
+    <row r="104" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="21"/>
@@ -10345,8 +10712,8 @@
       <c r="AR104" s="21"/>
       <c r="AS104" s="21"/>
       <c r="AT104" s="21"/>
-      <c r="AU104" s="12"/>
-      <c r="AV104" s="12"/>
+      <c r="AU104" s="21"/>
+      <c r="AV104" s="21"/>
       <c r="AW104" s="12"/>
       <c r="AX104" s="12"/>
       <c r="AY104" s="12"/>
@@ -10377,8 +10744,10 @@
       <c r="BX104" s="12"/>
       <c r="BY104" s="12"/>
       <c r="BZ104" s="12"/>
-    </row>
-    <row r="105" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA104" s="12"/>
+      <c r="CB104" s="12"/>
+    </row>
+    <row r="105" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="21"/>
@@ -10423,8 +10792,8 @@
       <c r="AR105" s="21"/>
       <c r="AS105" s="21"/>
       <c r="AT105" s="21"/>
-      <c r="AU105" s="12"/>
-      <c r="AV105" s="12"/>
+      <c r="AU105" s="21"/>
+      <c r="AV105" s="21"/>
       <c r="AW105" s="12"/>
       <c r="AX105" s="12"/>
       <c r="AY105" s="12"/>
@@ -10455,8 +10824,10 @@
       <c r="BX105" s="12"/>
       <c r="BY105" s="12"/>
       <c r="BZ105" s="12"/>
-    </row>
-    <row r="106" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA105" s="12"/>
+      <c r="CB105" s="12"/>
+    </row>
+    <row r="106" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="21"/>
@@ -10501,8 +10872,8 @@
       <c r="AR106" s="21"/>
       <c r="AS106" s="21"/>
       <c r="AT106" s="21"/>
-      <c r="AU106" s="12"/>
-      <c r="AV106" s="12"/>
+      <c r="AU106" s="21"/>
+      <c r="AV106" s="21"/>
       <c r="AW106" s="12"/>
       <c r="AX106" s="12"/>
       <c r="AY106" s="12"/>
@@ -10533,8 +10904,10 @@
       <c r="BX106" s="12"/>
       <c r="BY106" s="12"/>
       <c r="BZ106" s="12"/>
-    </row>
-    <row r="107" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA106" s="12"/>
+      <c r="CB106" s="12"/>
+    </row>
+    <row r="107" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="21"/>
@@ -10579,8 +10952,8 @@
       <c r="AR107" s="21"/>
       <c r="AS107" s="21"/>
       <c r="AT107" s="21"/>
-      <c r="AU107" s="12"/>
-      <c r="AV107" s="12"/>
+      <c r="AU107" s="21"/>
+      <c r="AV107" s="21"/>
       <c r="AW107" s="12"/>
       <c r="AX107" s="12"/>
       <c r="AY107" s="12"/>
@@ -10611,8 +10984,10 @@
       <c r="BX107" s="12"/>
       <c r="BY107" s="12"/>
       <c r="BZ107" s="12"/>
-    </row>
-    <row r="108" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA107" s="12"/>
+      <c r="CB107" s="12"/>
+    </row>
+    <row r="108" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="21"/>
@@ -10657,8 +11032,8 @@
       <c r="AR108" s="21"/>
       <c r="AS108" s="21"/>
       <c r="AT108" s="21"/>
-      <c r="AU108" s="12"/>
-      <c r="AV108" s="12"/>
+      <c r="AU108" s="21"/>
+      <c r="AV108" s="21"/>
       <c r="AW108" s="12"/>
       <c r="AX108" s="12"/>
       <c r="AY108" s="12"/>
@@ -10689,8 +11064,10 @@
       <c r="BX108" s="12"/>
       <c r="BY108" s="12"/>
       <c r="BZ108" s="12"/>
-    </row>
-    <row r="109" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA108" s="12"/>
+      <c r="CB108" s="12"/>
+    </row>
+    <row r="109" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="21"/>
@@ -10735,8 +11112,8 @@
       <c r="AR109" s="21"/>
       <c r="AS109" s="21"/>
       <c r="AT109" s="21"/>
-      <c r="AU109" s="12"/>
-      <c r="AV109" s="12"/>
+      <c r="AU109" s="21"/>
+      <c r="AV109" s="21"/>
       <c r="AW109" s="12"/>
       <c r="AX109" s="12"/>
       <c r="AY109" s="12"/>
@@ -10767,8 +11144,10 @@
       <c r="BX109" s="12"/>
       <c r="BY109" s="12"/>
       <c r="BZ109" s="12"/>
-    </row>
-    <row r="110" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA109" s="12"/>
+      <c r="CB109" s="12"/>
+    </row>
+    <row r="110" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="21"/>
@@ -10813,8 +11192,8 @@
       <c r="AR110" s="21"/>
       <c r="AS110" s="21"/>
       <c r="AT110" s="21"/>
-      <c r="AU110" s="12"/>
-      <c r="AV110" s="12"/>
+      <c r="AU110" s="21"/>
+      <c r="AV110" s="21"/>
       <c r="AW110" s="12"/>
       <c r="AX110" s="12"/>
       <c r="AY110" s="12"/>
@@ -10845,8 +11224,10 @@
       <c r="BX110" s="12"/>
       <c r="BY110" s="12"/>
       <c r="BZ110" s="12"/>
-    </row>
-    <row r="111" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA110" s="12"/>
+      <c r="CB110" s="12"/>
+    </row>
+    <row r="111" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="21"/>
@@ -10891,8 +11272,8 @@
       <c r="AR111" s="21"/>
       <c r="AS111" s="21"/>
       <c r="AT111" s="21"/>
-      <c r="AU111" s="12"/>
-      <c r="AV111" s="12"/>
+      <c r="AU111" s="21"/>
+      <c r="AV111" s="21"/>
       <c r="AW111" s="12"/>
       <c r="AX111" s="12"/>
       <c r="AY111" s="12"/>
@@ -10923,8 +11304,10 @@
       <c r="BX111" s="12"/>
       <c r="BY111" s="12"/>
       <c r="BZ111" s="12"/>
-    </row>
-    <row r="112" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA111" s="12"/>
+      <c r="CB111" s="12"/>
+    </row>
+    <row r="112" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="21"/>
@@ -10969,8 +11352,8 @@
       <c r="AR112" s="21"/>
       <c r="AS112" s="21"/>
       <c r="AT112" s="21"/>
-      <c r="AU112" s="12"/>
-      <c r="AV112" s="12"/>
+      <c r="AU112" s="21"/>
+      <c r="AV112" s="21"/>
       <c r="AW112" s="12"/>
       <c r="AX112" s="12"/>
       <c r="AY112" s="12"/>
@@ -11001,8 +11384,10 @@
       <c r="BX112" s="12"/>
       <c r="BY112" s="12"/>
       <c r="BZ112" s="12"/>
-    </row>
-    <row r="113" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA112" s="12"/>
+      <c r="CB112" s="12"/>
+    </row>
+    <row r="113" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="21"/>
@@ -11047,8 +11432,8 @@
       <c r="AR113" s="21"/>
       <c r="AS113" s="21"/>
       <c r="AT113" s="21"/>
-      <c r="AU113" s="12"/>
-      <c r="AV113" s="12"/>
+      <c r="AU113" s="21"/>
+      <c r="AV113" s="21"/>
       <c r="AW113" s="12"/>
       <c r="AX113" s="12"/>
       <c r="AY113" s="12"/>
@@ -11079,8 +11464,10 @@
       <c r="BX113" s="12"/>
       <c r="BY113" s="12"/>
       <c r="BZ113" s="12"/>
-    </row>
-    <row r="114" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA113" s="12"/>
+      <c r="CB113" s="12"/>
+    </row>
+    <row r="114" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="21"/>
@@ -11125,8 +11512,8 @@
       <c r="AR114" s="21"/>
       <c r="AS114" s="21"/>
       <c r="AT114" s="21"/>
-      <c r="AU114" s="12"/>
-      <c r="AV114" s="12"/>
+      <c r="AU114" s="21"/>
+      <c r="AV114" s="21"/>
       <c r="AW114" s="12"/>
       <c r="AX114" s="12"/>
       <c r="AY114" s="12"/>
@@ -11157,8 +11544,10 @@
       <c r="BX114" s="12"/>
       <c r="BY114" s="12"/>
       <c r="BZ114" s="12"/>
-    </row>
-    <row r="115" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA114" s="12"/>
+      <c r="CB114" s="12"/>
+    </row>
+    <row r="115" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="21"/>
@@ -11203,8 +11592,8 @@
       <c r="AR115" s="21"/>
       <c r="AS115" s="21"/>
       <c r="AT115" s="21"/>
-      <c r="AU115" s="12"/>
-      <c r="AV115" s="12"/>
+      <c r="AU115" s="21"/>
+      <c r="AV115" s="21"/>
       <c r="AW115" s="12"/>
       <c r="AX115" s="12"/>
       <c r="AY115" s="12"/>
@@ -11235,8 +11624,10 @@
       <c r="BX115" s="12"/>
       <c r="BY115" s="12"/>
       <c r="BZ115" s="12"/>
-    </row>
-    <row r="116" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA115" s="12"/>
+      <c r="CB115" s="12"/>
+    </row>
+    <row r="116" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="21"/>
@@ -11281,8 +11672,8 @@
       <c r="AR116" s="21"/>
       <c r="AS116" s="21"/>
       <c r="AT116" s="21"/>
-      <c r="AU116" s="12"/>
-      <c r="AV116" s="12"/>
+      <c r="AU116" s="21"/>
+      <c r="AV116" s="21"/>
       <c r="AW116" s="12"/>
       <c r="AX116" s="12"/>
       <c r="AY116" s="12"/>
@@ -11313,8 +11704,10 @@
       <c r="BX116" s="12"/>
       <c r="BY116" s="12"/>
       <c r="BZ116" s="12"/>
-    </row>
-    <row r="117" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA116" s="12"/>
+      <c r="CB116" s="12"/>
+    </row>
+    <row r="117" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="21"/>
@@ -11359,8 +11752,8 @@
       <c r="AR117" s="21"/>
       <c r="AS117" s="21"/>
       <c r="AT117" s="21"/>
-      <c r="AU117" s="12"/>
-      <c r="AV117" s="12"/>
+      <c r="AU117" s="21"/>
+      <c r="AV117" s="21"/>
       <c r="AW117" s="12"/>
       <c r="AX117" s="12"/>
       <c r="AY117" s="12"/>
@@ -11391,8 +11784,10 @@
       <c r="BX117" s="12"/>
       <c r="BY117" s="12"/>
       <c r="BZ117" s="12"/>
-    </row>
-    <row r="118" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA117" s="12"/>
+      <c r="CB117" s="12"/>
+    </row>
+    <row r="118" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
       <c r="E118" s="21"/>
@@ -11437,8 +11832,8 @@
       <c r="AR118" s="21"/>
       <c r="AS118" s="21"/>
       <c r="AT118" s="21"/>
-      <c r="AU118" s="12"/>
-      <c r="AV118" s="12"/>
+      <c r="AU118" s="21"/>
+      <c r="AV118" s="21"/>
       <c r="AW118" s="12"/>
       <c r="AX118" s="12"/>
       <c r="AY118" s="12"/>
@@ -11469,8 +11864,10 @@
       <c r="BX118" s="12"/>
       <c r="BY118" s="12"/>
       <c r="BZ118" s="12"/>
-    </row>
-    <row r="119" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA118" s="12"/>
+      <c r="CB118" s="12"/>
+    </row>
+    <row r="119" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="21"/>
@@ -11515,8 +11912,8 @@
       <c r="AR119" s="21"/>
       <c r="AS119" s="21"/>
       <c r="AT119" s="21"/>
-      <c r="AU119" s="12"/>
-      <c r="AV119" s="12"/>
+      <c r="AU119" s="21"/>
+      <c r="AV119" s="21"/>
       <c r="AW119" s="12"/>
       <c r="AX119" s="12"/>
       <c r="AY119" s="12"/>
@@ -11547,8 +11944,10 @@
       <c r="BX119" s="12"/>
       <c r="BY119" s="12"/>
       <c r="BZ119" s="12"/>
-    </row>
-    <row r="120" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA119" s="12"/>
+      <c r="CB119" s="12"/>
+    </row>
+    <row r="120" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="21"/>
@@ -11593,8 +11992,8 @@
       <c r="AR120" s="21"/>
       <c r="AS120" s="21"/>
       <c r="AT120" s="21"/>
-      <c r="AU120" s="12"/>
-      <c r="AV120" s="12"/>
+      <c r="AU120" s="21"/>
+      <c r="AV120" s="21"/>
       <c r="AW120" s="12"/>
       <c r="AX120" s="12"/>
       <c r="AY120" s="12"/>
@@ -11625,8 +12024,10 @@
       <c r="BX120" s="12"/>
       <c r="BY120" s="12"/>
       <c r="BZ120" s="12"/>
-    </row>
-    <row r="121" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA120" s="12"/>
+      <c r="CB120" s="12"/>
+    </row>
+    <row r="121" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="21"/>
@@ -11671,8 +12072,8 @@
       <c r="AR121" s="21"/>
       <c r="AS121" s="21"/>
       <c r="AT121" s="21"/>
-      <c r="AU121" s="12"/>
-      <c r="AV121" s="12"/>
+      <c r="AU121" s="21"/>
+      <c r="AV121" s="21"/>
       <c r="AW121" s="12"/>
       <c r="AX121" s="12"/>
       <c r="AY121" s="12"/>
@@ -11703,8 +12104,10 @@
       <c r="BX121" s="12"/>
       <c r="BY121" s="12"/>
       <c r="BZ121" s="12"/>
-    </row>
-    <row r="122" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA121" s="12"/>
+      <c r="CB121" s="12"/>
+    </row>
+    <row r="122" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="21"/>
@@ -11749,8 +12152,8 @@
       <c r="AR122" s="21"/>
       <c r="AS122" s="21"/>
       <c r="AT122" s="21"/>
-      <c r="AU122" s="12"/>
-      <c r="AV122" s="12"/>
+      <c r="AU122" s="21"/>
+      <c r="AV122" s="21"/>
       <c r="AW122" s="12"/>
       <c r="AX122" s="12"/>
       <c r="AY122" s="12"/>
@@ -11781,8 +12184,10 @@
       <c r="BX122" s="12"/>
       <c r="BY122" s="12"/>
       <c r="BZ122" s="12"/>
-    </row>
-    <row r="123" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA122" s="12"/>
+      <c r="CB122" s="12"/>
+    </row>
+    <row r="123" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
       <c r="E123" s="21"/>
@@ -11827,8 +12232,8 @@
       <c r="AR123" s="21"/>
       <c r="AS123" s="21"/>
       <c r="AT123" s="21"/>
-      <c r="AU123" s="12"/>
-      <c r="AV123" s="12"/>
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="21"/>
       <c r="AW123" s="12"/>
       <c r="AX123" s="12"/>
       <c r="AY123" s="12"/>
@@ -11859,8 +12264,10 @@
       <c r="BX123" s="12"/>
       <c r="BY123" s="12"/>
       <c r="BZ123" s="12"/>
-    </row>
-    <row r="124" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA123" s="12"/>
+      <c r="CB123" s="12"/>
+    </row>
+    <row r="124" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="21"/>
@@ -11905,8 +12312,8 @@
       <c r="AR124" s="21"/>
       <c r="AS124" s="21"/>
       <c r="AT124" s="21"/>
-      <c r="AU124" s="12"/>
-      <c r="AV124" s="12"/>
+      <c r="AU124" s="21"/>
+      <c r="AV124" s="21"/>
       <c r="AW124" s="12"/>
       <c r="AX124" s="12"/>
       <c r="AY124" s="12"/>
@@ -11937,8 +12344,10 @@
       <c r="BX124" s="12"/>
       <c r="BY124" s="12"/>
       <c r="BZ124" s="12"/>
-    </row>
-    <row r="125" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA124" s="12"/>
+      <c r="CB124" s="12"/>
+    </row>
+    <row r="125" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="21"/>
@@ -11983,8 +12392,8 @@
       <c r="AR125" s="21"/>
       <c r="AS125" s="21"/>
       <c r="AT125" s="21"/>
-      <c r="AU125" s="12"/>
-      <c r="AV125" s="12"/>
+      <c r="AU125" s="21"/>
+      <c r="AV125" s="21"/>
       <c r="AW125" s="12"/>
       <c r="AX125" s="12"/>
       <c r="AY125" s="12"/>
@@ -12015,8 +12424,10 @@
       <c r="BX125" s="12"/>
       <c r="BY125" s="12"/>
       <c r="BZ125" s="12"/>
-    </row>
-    <row r="126" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA125" s="12"/>
+      <c r="CB125" s="12"/>
+    </row>
+    <row r="126" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="21"/>
@@ -12061,8 +12472,8 @@
       <c r="AR126" s="21"/>
       <c r="AS126" s="21"/>
       <c r="AT126" s="21"/>
-      <c r="AU126" s="12"/>
-      <c r="AV126" s="12"/>
+      <c r="AU126" s="21"/>
+      <c r="AV126" s="21"/>
       <c r="AW126" s="12"/>
       <c r="AX126" s="12"/>
       <c r="AY126" s="12"/>
@@ -12093,8 +12504,10 @@
       <c r="BX126" s="12"/>
       <c r="BY126" s="12"/>
       <c r="BZ126" s="12"/>
-    </row>
-    <row r="127" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA126" s="12"/>
+      <c r="CB126" s="12"/>
+    </row>
+    <row r="127" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="21"/>
@@ -12139,8 +12552,8 @@
       <c r="AR127" s="21"/>
       <c r="AS127" s="21"/>
       <c r="AT127" s="21"/>
-      <c r="AU127" s="12"/>
-      <c r="AV127" s="12"/>
+      <c r="AU127" s="21"/>
+      <c r="AV127" s="21"/>
       <c r="AW127" s="12"/>
       <c r="AX127" s="12"/>
       <c r="AY127" s="12"/>
@@ -12171,8 +12584,10 @@
       <c r="BX127" s="12"/>
       <c r="BY127" s="12"/>
       <c r="BZ127" s="12"/>
-    </row>
-    <row r="128" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA127" s="12"/>
+      <c r="CB127" s="12"/>
+    </row>
+    <row r="128" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="21"/>
@@ -12217,8 +12632,8 @@
       <c r="AR128" s="21"/>
       <c r="AS128" s="21"/>
       <c r="AT128" s="21"/>
-      <c r="AU128" s="12"/>
-      <c r="AV128" s="12"/>
+      <c r="AU128" s="21"/>
+      <c r="AV128" s="21"/>
       <c r="AW128" s="12"/>
       <c r="AX128" s="12"/>
       <c r="AY128" s="12"/>
@@ -12249,8 +12664,10 @@
       <c r="BX128" s="12"/>
       <c r="BY128" s="12"/>
       <c r="BZ128" s="12"/>
-    </row>
-    <row r="129" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA128" s="12"/>
+      <c r="CB128" s="12"/>
+    </row>
+    <row r="129" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="21"/>
@@ -12295,8 +12712,8 @@
       <c r="AR129" s="21"/>
       <c r="AS129" s="21"/>
       <c r="AT129" s="21"/>
-      <c r="AU129" s="12"/>
-      <c r="AV129" s="12"/>
+      <c r="AU129" s="21"/>
+      <c r="AV129" s="21"/>
       <c r="AW129" s="12"/>
       <c r="AX129" s="12"/>
       <c r="AY129" s="12"/>
@@ -12327,8 +12744,10 @@
       <c r="BX129" s="12"/>
       <c r="BY129" s="12"/>
       <c r="BZ129" s="12"/>
-    </row>
-    <row r="130" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA129" s="12"/>
+      <c r="CB129" s="12"/>
+    </row>
+    <row r="130" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="21"/>
@@ -12373,8 +12792,8 @@
       <c r="AR130" s="21"/>
       <c r="AS130" s="21"/>
       <c r="AT130" s="21"/>
-      <c r="AU130" s="12"/>
-      <c r="AV130" s="12"/>
+      <c r="AU130" s="21"/>
+      <c r="AV130" s="21"/>
       <c r="AW130" s="12"/>
       <c r="AX130" s="12"/>
       <c r="AY130" s="12"/>
@@ -12405,8 +12824,10 @@
       <c r="BX130" s="12"/>
       <c r="BY130" s="12"/>
       <c r="BZ130" s="12"/>
-    </row>
-    <row r="131" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA130" s="12"/>
+      <c r="CB130" s="12"/>
+    </row>
+    <row r="131" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="21"/>
@@ -12451,8 +12872,8 @@
       <c r="AR131" s="21"/>
       <c r="AS131" s="21"/>
       <c r="AT131" s="21"/>
-      <c r="AU131" s="12"/>
-      <c r="AV131" s="12"/>
+      <c r="AU131" s="21"/>
+      <c r="AV131" s="21"/>
       <c r="AW131" s="12"/>
       <c r="AX131" s="12"/>
       <c r="AY131" s="12"/>
@@ -12483,8 +12904,10 @@
       <c r="BX131" s="12"/>
       <c r="BY131" s="12"/>
       <c r="BZ131" s="12"/>
-    </row>
-    <row r="132" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA131" s="12"/>
+      <c r="CB131" s="12"/>
+    </row>
+    <row r="132" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="21"/>
@@ -12529,8 +12952,8 @@
       <c r="AR132" s="21"/>
       <c r="AS132" s="21"/>
       <c r="AT132" s="21"/>
-      <c r="AU132" s="12"/>
-      <c r="AV132" s="12"/>
+      <c r="AU132" s="21"/>
+      <c r="AV132" s="21"/>
       <c r="AW132" s="12"/>
       <c r="AX132" s="12"/>
       <c r="AY132" s="12"/>
@@ -12561,8 +12984,10 @@
       <c r="BX132" s="12"/>
       <c r="BY132" s="12"/>
       <c r="BZ132" s="12"/>
-    </row>
-    <row r="133" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA132" s="12"/>
+      <c r="CB132" s="12"/>
+    </row>
+    <row r="133" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
       <c r="E133" s="21"/>
@@ -12607,8 +13032,8 @@
       <c r="AR133" s="21"/>
       <c r="AS133" s="21"/>
       <c r="AT133" s="21"/>
-      <c r="AU133" s="12"/>
-      <c r="AV133" s="12"/>
+      <c r="AU133" s="21"/>
+      <c r="AV133" s="21"/>
       <c r="AW133" s="12"/>
       <c r="AX133" s="12"/>
       <c r="AY133" s="12"/>
@@ -12639,8 +13064,10 @@
       <c r="BX133" s="12"/>
       <c r="BY133" s="12"/>
       <c r="BZ133" s="12"/>
-    </row>
-    <row r="134" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA133" s="12"/>
+      <c r="CB133" s="12"/>
+    </row>
+    <row r="134" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="21"/>
@@ -12685,8 +13112,8 @@
       <c r="AR134" s="21"/>
       <c r="AS134" s="21"/>
       <c r="AT134" s="21"/>
-      <c r="AU134" s="12"/>
-      <c r="AV134" s="12"/>
+      <c r="AU134" s="21"/>
+      <c r="AV134" s="21"/>
       <c r="AW134" s="12"/>
       <c r="AX134" s="12"/>
       <c r="AY134" s="12"/>
@@ -12717,8 +13144,10 @@
       <c r="BX134" s="12"/>
       <c r="BY134" s="12"/>
       <c r="BZ134" s="12"/>
-    </row>
-    <row r="135" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA134" s="12"/>
+      <c r="CB134" s="12"/>
+    </row>
+    <row r="135" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
       <c r="E135" s="21"/>
@@ -12763,8 +13192,8 @@
       <c r="AR135" s="21"/>
       <c r="AS135" s="21"/>
       <c r="AT135" s="21"/>
-      <c r="AU135" s="12"/>
-      <c r="AV135" s="12"/>
+      <c r="AU135" s="21"/>
+      <c r="AV135" s="21"/>
       <c r="AW135" s="12"/>
       <c r="AX135" s="12"/>
       <c r="AY135" s="12"/>
@@ -12795,8 +13224,10 @@
       <c r="BX135" s="12"/>
       <c r="BY135" s="12"/>
       <c r="BZ135" s="12"/>
-    </row>
-    <row r="136" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA135" s="12"/>
+      <c r="CB135" s="12"/>
+    </row>
+    <row r="136" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="21"/>
@@ -12841,8 +13272,8 @@
       <c r="AR136" s="21"/>
       <c r="AS136" s="21"/>
       <c r="AT136" s="21"/>
-      <c r="AU136" s="12"/>
-      <c r="AV136" s="12"/>
+      <c r="AU136" s="21"/>
+      <c r="AV136" s="21"/>
       <c r="AW136" s="12"/>
       <c r="AX136" s="12"/>
       <c r="AY136" s="12"/>
@@ -12873,8 +13304,10 @@
       <c r="BX136" s="12"/>
       <c r="BY136" s="12"/>
       <c r="BZ136" s="12"/>
-    </row>
-    <row r="137" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA136" s="12"/>
+      <c r="CB136" s="12"/>
+    </row>
+    <row r="137" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="21"/>
@@ -12919,8 +13352,8 @@
       <c r="AR137" s="21"/>
       <c r="AS137" s="21"/>
       <c r="AT137" s="21"/>
-      <c r="AU137" s="12"/>
-      <c r="AV137" s="12"/>
+      <c r="AU137" s="21"/>
+      <c r="AV137" s="21"/>
       <c r="AW137" s="12"/>
       <c r="AX137" s="12"/>
       <c r="AY137" s="12"/>
@@ -12951,8 +13384,10 @@
       <c r="BX137" s="12"/>
       <c r="BY137" s="12"/>
       <c r="BZ137" s="12"/>
-    </row>
-    <row r="138" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA137" s="12"/>
+      <c r="CB137" s="12"/>
+    </row>
+    <row r="138" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="21"/>
@@ -12997,8 +13432,8 @@
       <c r="AR138" s="21"/>
       <c r="AS138" s="21"/>
       <c r="AT138" s="21"/>
-      <c r="AU138" s="12"/>
-      <c r="AV138" s="12"/>
+      <c r="AU138" s="21"/>
+      <c r="AV138" s="21"/>
       <c r="AW138" s="12"/>
       <c r="AX138" s="12"/>
       <c r="AY138" s="12"/>
@@ -13029,8 +13464,10 @@
       <c r="BX138" s="12"/>
       <c r="BY138" s="12"/>
       <c r="BZ138" s="12"/>
-    </row>
-    <row r="139" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA138" s="12"/>
+      <c r="CB138" s="12"/>
+    </row>
+    <row r="139" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="21"/>
@@ -13075,8 +13512,8 @@
       <c r="AR139" s="21"/>
       <c r="AS139" s="21"/>
       <c r="AT139" s="21"/>
-      <c r="AU139" s="12"/>
-      <c r="AV139" s="12"/>
+      <c r="AU139" s="21"/>
+      <c r="AV139" s="21"/>
       <c r="AW139" s="12"/>
       <c r="AX139" s="12"/>
       <c r="AY139" s="12"/>
@@ -13107,8 +13544,10 @@
       <c r="BX139" s="12"/>
       <c r="BY139" s="12"/>
       <c r="BZ139" s="12"/>
-    </row>
-    <row r="140" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA139" s="12"/>
+      <c r="CB139" s="12"/>
+    </row>
+    <row r="140" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="21"/>
@@ -13153,8 +13592,8 @@
       <c r="AR140" s="21"/>
       <c r="AS140" s="21"/>
       <c r="AT140" s="21"/>
-      <c r="AU140" s="12"/>
-      <c r="AV140" s="12"/>
+      <c r="AU140" s="21"/>
+      <c r="AV140" s="21"/>
       <c r="AW140" s="12"/>
       <c r="AX140" s="12"/>
       <c r="AY140" s="12"/>
@@ -13185,8 +13624,10 @@
       <c r="BX140" s="12"/>
       <c r="BY140" s="12"/>
       <c r="BZ140" s="12"/>
-    </row>
-    <row r="141" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA140" s="12"/>
+      <c r="CB140" s="12"/>
+    </row>
+    <row r="141" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="21"/>
@@ -13231,8 +13672,8 @@
       <c r="AR141" s="21"/>
       <c r="AS141" s="21"/>
       <c r="AT141" s="21"/>
-      <c r="AU141" s="12"/>
-      <c r="AV141" s="12"/>
+      <c r="AU141" s="21"/>
+      <c r="AV141" s="21"/>
       <c r="AW141" s="12"/>
       <c r="AX141" s="12"/>
       <c r="AY141" s="12"/>
@@ -13263,8 +13704,10 @@
       <c r="BX141" s="12"/>
       <c r="BY141" s="12"/>
       <c r="BZ141" s="12"/>
-    </row>
-    <row r="142" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA141" s="12"/>
+      <c r="CB141" s="12"/>
+    </row>
+    <row r="142" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="21"/>
@@ -13309,8 +13752,8 @@
       <c r="AR142" s="21"/>
       <c r="AS142" s="21"/>
       <c r="AT142" s="21"/>
-      <c r="AU142" s="12"/>
-      <c r="AV142" s="12"/>
+      <c r="AU142" s="21"/>
+      <c r="AV142" s="21"/>
       <c r="AW142" s="12"/>
       <c r="AX142" s="12"/>
       <c r="AY142" s="12"/>
@@ -13341,8 +13784,10 @@
       <c r="BX142" s="12"/>
       <c r="BY142" s="12"/>
       <c r="BZ142" s="12"/>
-    </row>
-    <row r="143" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA142" s="12"/>
+      <c r="CB142" s="12"/>
+    </row>
+    <row r="143" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="21"/>
@@ -13387,8 +13832,8 @@
       <c r="AR143" s="21"/>
       <c r="AS143" s="21"/>
       <c r="AT143" s="21"/>
-      <c r="AU143" s="12"/>
-      <c r="AV143" s="12"/>
+      <c r="AU143" s="21"/>
+      <c r="AV143" s="21"/>
       <c r="AW143" s="12"/>
       <c r="AX143" s="12"/>
       <c r="AY143" s="12"/>
@@ -13419,8 +13864,10 @@
       <c r="BX143" s="12"/>
       <c r="BY143" s="12"/>
       <c r="BZ143" s="12"/>
-    </row>
-    <row r="144" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA143" s="12"/>
+      <c r="CB143" s="12"/>
+    </row>
+    <row r="144" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="21"/>
@@ -13465,8 +13912,8 @@
       <c r="AR144" s="21"/>
       <c r="AS144" s="21"/>
       <c r="AT144" s="21"/>
-      <c r="AU144" s="12"/>
-      <c r="AV144" s="12"/>
+      <c r="AU144" s="21"/>
+      <c r="AV144" s="21"/>
       <c r="AW144" s="12"/>
       <c r="AX144" s="12"/>
       <c r="AY144" s="12"/>
@@ -13497,8 +13944,10 @@
       <c r="BX144" s="12"/>
       <c r="BY144" s="12"/>
       <c r="BZ144" s="12"/>
-    </row>
-    <row r="145" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA144" s="12"/>
+      <c r="CB144" s="12"/>
+    </row>
+    <row r="145" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="21"/>
@@ -13543,8 +13992,8 @@
       <c r="AR145" s="21"/>
       <c r="AS145" s="21"/>
       <c r="AT145" s="21"/>
-      <c r="AU145" s="12"/>
-      <c r="AV145" s="12"/>
+      <c r="AU145" s="21"/>
+      <c r="AV145" s="21"/>
       <c r="AW145" s="12"/>
       <c r="AX145" s="12"/>
       <c r="AY145" s="12"/>
@@ -13575,8 +14024,10 @@
       <c r="BX145" s="12"/>
       <c r="BY145" s="12"/>
       <c r="BZ145" s="12"/>
-    </row>
-    <row r="146" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA145" s="12"/>
+      <c r="CB145" s="12"/>
+    </row>
+    <row r="146" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="21"/>
@@ -13621,8 +14072,8 @@
       <c r="AR146" s="21"/>
       <c r="AS146" s="21"/>
       <c r="AT146" s="21"/>
-      <c r="AU146" s="12"/>
-      <c r="AV146" s="12"/>
+      <c r="AU146" s="21"/>
+      <c r="AV146" s="21"/>
       <c r="AW146" s="12"/>
       <c r="AX146" s="12"/>
       <c r="AY146" s="12"/>
@@ -13653,8 +14104,10 @@
       <c r="BX146" s="12"/>
       <c r="BY146" s="12"/>
       <c r="BZ146" s="12"/>
-    </row>
-    <row r="147" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA146" s="12"/>
+      <c r="CB146" s="12"/>
+    </row>
+    <row r="147" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="21"/>
@@ -13699,8 +14152,8 @@
       <c r="AR147" s="21"/>
       <c r="AS147" s="21"/>
       <c r="AT147" s="21"/>
-      <c r="AU147" s="12"/>
-      <c r="AV147" s="12"/>
+      <c r="AU147" s="21"/>
+      <c r="AV147" s="21"/>
       <c r="AW147" s="12"/>
       <c r="AX147" s="12"/>
       <c r="AY147" s="12"/>
@@ -13731,54 +14184,56 @@
       <c r="BX147" s="12"/>
       <c r="BY147" s="12"/>
       <c r="BZ147" s="12"/>
-    </row>
-    <row r="148" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA147" s="12"/>
+      <c r="CB147" s="12"/>
+    </row>
+    <row r="148" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-      <c r="Q148" s="12"/>
-      <c r="R148" s="12"/>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12"/>
-      <c r="U148" s="12"/>
-      <c r="V148" s="12"/>
-      <c r="W148" s="12"/>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
-      <c r="Z148" s="12"/>
-      <c r="AA148" s="12"/>
-      <c r="AB148" s="12"/>
-      <c r="AC148" s="12"/>
-      <c r="AD148" s="12"/>
-      <c r="AE148" s="12"/>
-      <c r="AF148" s="12"/>
-      <c r="AG148" s="12"/>
-      <c r="AH148" s="12"/>
-      <c r="AI148" s="12"/>
-      <c r="AJ148" s="12"/>
-      <c r="AK148" s="12"/>
-      <c r="AL148" s="12"/>
-      <c r="AM148" s="12"/>
-      <c r="AN148" s="12"/>
-      <c r="AO148" s="12"/>
-      <c r="AP148" s="12"/>
-      <c r="AQ148" s="12"/>
-      <c r="AR148" s="12"/>
-      <c r="AS148" s="12"/>
-      <c r="AT148" s="12"/>
-      <c r="AU148" s="12"/>
-      <c r="AV148" s="12"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="21"/>
+      <c r="Q148" s="21"/>
+      <c r="R148" s="21"/>
+      <c r="S148" s="21"/>
+      <c r="T148" s="21"/>
+      <c r="U148" s="21"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="21"/>
+      <c r="X148" s="21"/>
+      <c r="Y148" s="21"/>
+      <c r="Z148" s="21"/>
+      <c r="AA148" s="21"/>
+      <c r="AB148" s="21"/>
+      <c r="AC148" s="21"/>
+      <c r="AD148" s="21"/>
+      <c r="AE148" s="21"/>
+      <c r="AF148" s="21"/>
+      <c r="AG148" s="21"/>
+      <c r="AH148" s="21"/>
+      <c r="AI148" s="21"/>
+      <c r="AJ148" s="21"/>
+      <c r="AK148" s="21"/>
+      <c r="AL148" s="21"/>
+      <c r="AM148" s="21"/>
+      <c r="AN148" s="21"/>
+      <c r="AO148" s="21"/>
+      <c r="AP148" s="21"/>
+      <c r="AQ148" s="21"/>
+      <c r="AR148" s="21"/>
+      <c r="AS148" s="21"/>
+      <c r="AT148" s="21"/>
+      <c r="AU148" s="21"/>
+      <c r="AV148" s="21"/>
       <c r="AW148" s="12"/>
       <c r="AX148" s="12"/>
       <c r="AY148" s="12"/>
@@ -13809,8 +14264,10 @@
       <c r="BX148" s="12"/>
       <c r="BY148" s="12"/>
       <c r="BZ148" s="12"/>
-    </row>
-    <row r="149" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA148" s="12"/>
+      <c r="CB148" s="12"/>
+    </row>
+    <row r="149" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -13887,8 +14344,10 @@
       <c r="BX149" s="12"/>
       <c r="BY149" s="12"/>
       <c r="BZ149" s="12"/>
-    </row>
-    <row r="150" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA149" s="12"/>
+      <c r="CB149" s="12"/>
+    </row>
+    <row r="150" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
@@ -13965,8 +14424,10 @@
       <c r="BX150" s="12"/>
       <c r="BY150" s="12"/>
       <c r="BZ150" s="12"/>
-    </row>
-    <row r="151" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA150" s="12"/>
+      <c r="CB150" s="12"/>
+    </row>
+    <row r="151" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
@@ -14043,8 +14504,10 @@
       <c r="BX151" s="12"/>
       <c r="BY151" s="12"/>
       <c r="BZ151" s="12"/>
-    </row>
-    <row r="152" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA151" s="12"/>
+      <c r="CB151" s="12"/>
+    </row>
+    <row r="152" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
@@ -14121,8 +14584,10 @@
       <c r="BX152" s="12"/>
       <c r="BY152" s="12"/>
       <c r="BZ152" s="12"/>
-    </row>
-    <row r="153" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA152" s="12"/>
+      <c r="CB152" s="12"/>
+    </row>
+    <row r="153" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -14199,8 +14664,10 @@
       <c r="BX153" s="12"/>
       <c r="BY153" s="12"/>
       <c r="BZ153" s="12"/>
-    </row>
-    <row r="154" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA153" s="12"/>
+      <c r="CB153" s="12"/>
+    </row>
+    <row r="154" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
@@ -14277,8 +14744,10 @@
       <c r="BX154" s="12"/>
       <c r="BY154" s="12"/>
       <c r="BZ154" s="12"/>
-    </row>
-    <row r="155" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA154" s="12"/>
+      <c r="CB154" s="12"/>
+    </row>
+    <row r="155" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
@@ -14355,8 +14824,10 @@
       <c r="BX155" s="12"/>
       <c r="BY155" s="12"/>
       <c r="BZ155" s="12"/>
-    </row>
-    <row r="156" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA155" s="12"/>
+      <c r="CB155" s="12"/>
+    </row>
+    <row r="156" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -14433,8 +14904,10 @@
       <c r="BX156" s="12"/>
       <c r="BY156" s="12"/>
       <c r="BZ156" s="12"/>
-    </row>
-    <row r="157" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA156" s="12"/>
+      <c r="CB156" s="12"/>
+    </row>
+    <row r="157" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
@@ -14511,8 +14984,10 @@
       <c r="BX157" s="12"/>
       <c r="BY157" s="12"/>
       <c r="BZ157" s="12"/>
-    </row>
-    <row r="158" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA157" s="12"/>
+      <c r="CB157" s="12"/>
+    </row>
+    <row r="158" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
@@ -14589,8 +15064,10 @@
       <c r="BX158" s="12"/>
       <c r="BY158" s="12"/>
       <c r="BZ158" s="12"/>
-    </row>
-    <row r="159" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA158" s="12"/>
+      <c r="CB158" s="12"/>
+    </row>
+    <row r="159" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
@@ -14667,8 +15144,10 @@
       <c r="BX159" s="12"/>
       <c r="BY159" s="12"/>
       <c r="BZ159" s="12"/>
-    </row>
-    <row r="160" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA159" s="12"/>
+      <c r="CB159" s="12"/>
+    </row>
+    <row r="160" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
@@ -14745,8 +15224,10 @@
       <c r="BX160" s="12"/>
       <c r="BY160" s="12"/>
       <c r="BZ160" s="12"/>
-    </row>
-    <row r="161" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA160" s="12"/>
+      <c r="CB160" s="12"/>
+    </row>
+    <row r="161" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
@@ -14823,8 +15304,10 @@
       <c r="BX161" s="12"/>
       <c r="BY161" s="12"/>
       <c r="BZ161" s="12"/>
-    </row>
-    <row r="162" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA161" s="12"/>
+      <c r="CB161" s="12"/>
+    </row>
+    <row r="162" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
@@ -14901,8 +15384,10 @@
       <c r="BX162" s="12"/>
       <c r="BY162" s="12"/>
       <c r="BZ162" s="12"/>
-    </row>
-    <row r="163" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA162" s="12"/>
+      <c r="CB162" s="12"/>
+    </row>
+    <row r="163" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -14979,8 +15464,10 @@
       <c r="BX163" s="12"/>
       <c r="BY163" s="12"/>
       <c r="BZ163" s="12"/>
-    </row>
-    <row r="164" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA163" s="12"/>
+      <c r="CB163" s="12"/>
+    </row>
+    <row r="164" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
@@ -15057,8 +15544,10 @@
       <c r="BX164" s="12"/>
       <c r="BY164" s="12"/>
       <c r="BZ164" s="12"/>
-    </row>
-    <row r="165" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA164" s="12"/>
+      <c r="CB164" s="12"/>
+    </row>
+    <row r="165" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
@@ -15135,8 +15624,10 @@
       <c r="BX165" s="12"/>
       <c r="BY165" s="12"/>
       <c r="BZ165" s="12"/>
-    </row>
-    <row r="166" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA165" s="12"/>
+      <c r="CB165" s="12"/>
+    </row>
+    <row r="166" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
@@ -15213,8 +15704,10 @@
       <c r="BX166" s="12"/>
       <c r="BY166" s="12"/>
       <c r="BZ166" s="12"/>
-    </row>
-    <row r="167" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA166" s="12"/>
+      <c r="CB166" s="12"/>
+    </row>
+    <row r="167" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -15291,8 +15784,10 @@
       <c r="BX167" s="12"/>
       <c r="BY167" s="12"/>
       <c r="BZ167" s="12"/>
-    </row>
-    <row r="168" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA167" s="12"/>
+      <c r="CB167" s="12"/>
+    </row>
+    <row r="168" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
@@ -15369,8 +15864,10 @@
       <c r="BX168" s="12"/>
       <c r="BY168" s="12"/>
       <c r="BZ168" s="12"/>
-    </row>
-    <row r="169" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA168" s="12"/>
+      <c r="CB168" s="12"/>
+    </row>
+    <row r="169" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
@@ -15447,8 +15944,10 @@
       <c r="BX169" s="12"/>
       <c r="BY169" s="12"/>
       <c r="BZ169" s="12"/>
-    </row>
-    <row r="170" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA169" s="12"/>
+      <c r="CB169" s="12"/>
+    </row>
+    <row r="170" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
@@ -15525,8 +16024,10 @@
       <c r="BX170" s="12"/>
       <c r="BY170" s="12"/>
       <c r="BZ170" s="12"/>
-    </row>
-    <row r="171" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA170" s="12"/>
+      <c r="CB170" s="12"/>
+    </row>
+    <row r="171" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
@@ -15603,8 +16104,10 @@
       <c r="BX171" s="12"/>
       <c r="BY171" s="12"/>
       <c r="BZ171" s="12"/>
-    </row>
-    <row r="172" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA171" s="12"/>
+      <c r="CB171" s="12"/>
+    </row>
+    <row r="172" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
@@ -15681,8 +16184,10 @@
       <c r="BX172" s="12"/>
       <c r="BY172" s="12"/>
       <c r="BZ172" s="12"/>
-    </row>
-    <row r="173" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA172" s="12"/>
+      <c r="CB172" s="12"/>
+    </row>
+    <row r="173" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
@@ -15759,8 +16264,10 @@
       <c r="BX173" s="12"/>
       <c r="BY173" s="12"/>
       <c r="BZ173" s="12"/>
-    </row>
-    <row r="174" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA173" s="12"/>
+      <c r="CB173" s="12"/>
+    </row>
+    <row r="174" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
@@ -15837,8 +16344,10 @@
       <c r="BX174" s="12"/>
       <c r="BY174" s="12"/>
       <c r="BZ174" s="12"/>
-    </row>
-    <row r="175" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA174" s="12"/>
+      <c r="CB174" s="12"/>
+    </row>
+    <row r="175" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
@@ -15915,8 +16424,10 @@
       <c r="BX175" s="12"/>
       <c r="BY175" s="12"/>
       <c r="BZ175" s="12"/>
-    </row>
-    <row r="176" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA175" s="12"/>
+      <c r="CB175" s="12"/>
+    </row>
+    <row r="176" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
@@ -15993,8 +16504,10 @@
       <c r="BX176" s="12"/>
       <c r="BY176" s="12"/>
       <c r="BZ176" s="12"/>
-    </row>
-    <row r="177" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA176" s="12"/>
+      <c r="CB176" s="12"/>
+    </row>
+    <row r="177" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
@@ -16071,8 +16584,10 @@
       <c r="BX177" s="12"/>
       <c r="BY177" s="12"/>
       <c r="BZ177" s="12"/>
-    </row>
-    <row r="178" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA177" s="12"/>
+      <c r="CB177" s="12"/>
+    </row>
+    <row r="178" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -16149,8 +16664,10 @@
       <c r="BX178" s="12"/>
       <c r="BY178" s="12"/>
       <c r="BZ178" s="12"/>
-    </row>
-    <row r="179" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA178" s="12"/>
+      <c r="CB178" s="12"/>
+    </row>
+    <row r="179" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
@@ -16227,8 +16744,10 @@
       <c r="BX179" s="12"/>
       <c r="BY179" s="12"/>
       <c r="BZ179" s="12"/>
-    </row>
-    <row r="180" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA179" s="12"/>
+      <c r="CB179" s="12"/>
+    </row>
+    <row r="180" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
@@ -16305,8 +16824,10 @@
       <c r="BX180" s="12"/>
       <c r="BY180" s="12"/>
       <c r="BZ180" s="12"/>
-    </row>
-    <row r="181" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA180" s="12"/>
+      <c r="CB180" s="12"/>
+    </row>
+    <row r="181" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
@@ -16383,8 +16904,10 @@
       <c r="BX181" s="12"/>
       <c r="BY181" s="12"/>
       <c r="BZ181" s="12"/>
-    </row>
-    <row r="182" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA181" s="12"/>
+      <c r="CB181" s="12"/>
+    </row>
+    <row r="182" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
@@ -16461,8 +16984,10 @@
       <c r="BX182" s="12"/>
       <c r="BY182" s="12"/>
       <c r="BZ182" s="12"/>
-    </row>
-    <row r="183" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA182" s="12"/>
+      <c r="CB182" s="12"/>
+    </row>
+    <row r="183" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
@@ -16539,8 +17064,10 @@
       <c r="BX183" s="12"/>
       <c r="BY183" s="12"/>
       <c r="BZ183" s="12"/>
-    </row>
-    <row r="184" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA183" s="12"/>
+      <c r="CB183" s="12"/>
+    </row>
+    <row r="184" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
@@ -16617,8 +17144,10 @@
       <c r="BX184" s="12"/>
       <c r="BY184" s="12"/>
       <c r="BZ184" s="12"/>
-    </row>
-    <row r="185" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA184" s="12"/>
+      <c r="CB184" s="12"/>
+    </row>
+    <row r="185" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
@@ -16695,8 +17224,10 @@
       <c r="BX185" s="12"/>
       <c r="BY185" s="12"/>
       <c r="BZ185" s="12"/>
-    </row>
-    <row r="186" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA185" s="12"/>
+      <c r="CB185" s="12"/>
+    </row>
+    <row r="186" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
@@ -16773,8 +17304,10 @@
       <c r="BX186" s="12"/>
       <c r="BY186" s="12"/>
       <c r="BZ186" s="12"/>
-    </row>
-    <row r="187" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA186" s="12"/>
+      <c r="CB186" s="12"/>
+    </row>
+    <row r="187" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
@@ -16851,8 +17384,10 @@
       <c r="BX187" s="12"/>
       <c r="BY187" s="12"/>
       <c r="BZ187" s="12"/>
-    </row>
-    <row r="188" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA187" s="12"/>
+      <c r="CB187" s="12"/>
+    </row>
+    <row r="188" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
@@ -16929,8 +17464,10 @@
       <c r="BX188" s="12"/>
       <c r="BY188" s="12"/>
       <c r="BZ188" s="12"/>
-    </row>
-    <row r="189" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA188" s="12"/>
+      <c r="CB188" s="12"/>
+    </row>
+    <row r="189" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
@@ -17007,8 +17544,10 @@
       <c r="BX189" s="12"/>
       <c r="BY189" s="12"/>
       <c r="BZ189" s="12"/>
-    </row>
-    <row r="190" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA189" s="12"/>
+      <c r="CB189" s="12"/>
+    </row>
+    <row r="190" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
@@ -17085,8 +17624,10 @@
       <c r="BX190" s="12"/>
       <c r="BY190" s="12"/>
       <c r="BZ190" s="12"/>
-    </row>
-    <row r="191" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA190" s="12"/>
+      <c r="CB190" s="12"/>
+    </row>
+    <row r="191" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
@@ -17163,8 +17704,10 @@
       <c r="BX191" s="12"/>
       <c r="BY191" s="12"/>
       <c r="BZ191" s="12"/>
-    </row>
-    <row r="192" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA191" s="12"/>
+      <c r="CB191" s="12"/>
+    </row>
+    <row r="192" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
@@ -17241,8 +17784,10 @@
       <c r="BX192" s="12"/>
       <c r="BY192" s="12"/>
       <c r="BZ192" s="12"/>
-    </row>
-    <row r="193" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA192" s="12"/>
+      <c r="CB192" s="12"/>
+    </row>
+    <row r="193" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
@@ -17319,8 +17864,10 @@
       <c r="BX193" s="12"/>
       <c r="BY193" s="12"/>
       <c r="BZ193" s="12"/>
-    </row>
-    <row r="194" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA193" s="12"/>
+      <c r="CB193" s="12"/>
+    </row>
+    <row r="194" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
@@ -17397,8 +17944,10 @@
       <c r="BX194" s="12"/>
       <c r="BY194" s="12"/>
       <c r="BZ194" s="12"/>
-    </row>
-    <row r="195" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA194" s="12"/>
+      <c r="CB194" s="12"/>
+    </row>
+    <row r="195" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
@@ -17475,8 +18024,10 @@
       <c r="BX195" s="12"/>
       <c r="BY195" s="12"/>
       <c r="BZ195" s="12"/>
-    </row>
-    <row r="196" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA195" s="12"/>
+      <c r="CB195" s="12"/>
+    </row>
+    <row r="196" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
@@ -17553,8 +18104,10 @@
       <c r="BX196" s="12"/>
       <c r="BY196" s="12"/>
       <c r="BZ196" s="12"/>
-    </row>
-    <row r="197" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA196" s="12"/>
+      <c r="CB196" s="12"/>
+    </row>
+    <row r="197" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
@@ -17631,8 +18184,10 @@
       <c r="BX197" s="12"/>
       <c r="BY197" s="12"/>
       <c r="BZ197" s="12"/>
-    </row>
-    <row r="198" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA197" s="12"/>
+      <c r="CB197" s="12"/>
+    </row>
+    <row r="198" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
@@ -17709,8 +18264,10 @@
       <c r="BX198" s="12"/>
       <c r="BY198" s="12"/>
       <c r="BZ198" s="12"/>
-    </row>
-    <row r="199" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA198" s="12"/>
+      <c r="CB198" s="12"/>
+    </row>
+    <row r="199" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
@@ -17787,8 +18344,10 @@
       <c r="BX199" s="12"/>
       <c r="BY199" s="12"/>
       <c r="BZ199" s="12"/>
-    </row>
-    <row r="200" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA199" s="12"/>
+      <c r="CB199" s="12"/>
+    </row>
+    <row r="200" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
       <c r="E200" s="12"/>
@@ -17865,8 +18424,10 @@
       <c r="BX200" s="12"/>
       <c r="BY200" s="12"/>
       <c r="BZ200" s="12"/>
-    </row>
-    <row r="201" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA200" s="12"/>
+      <c r="CB200" s="12"/>
+    </row>
+    <row r="201" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
@@ -17943,8 +18504,10 @@
       <c r="BX201" s="12"/>
       <c r="BY201" s="12"/>
       <c r="BZ201" s="12"/>
-    </row>
-    <row r="202" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA201" s="12"/>
+      <c r="CB201" s="12"/>
+    </row>
+    <row r="202" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
@@ -18021,8 +18584,10 @@
       <c r="BX202" s="12"/>
       <c r="BY202" s="12"/>
       <c r="BZ202" s="12"/>
-    </row>
-    <row r="203" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA202" s="12"/>
+      <c r="CB202" s="12"/>
+    </row>
+    <row r="203" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
@@ -18099,8 +18664,10 @@
       <c r="BX203" s="12"/>
       <c r="BY203" s="12"/>
       <c r="BZ203" s="12"/>
-    </row>
-    <row r="204" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA203" s="12"/>
+      <c r="CB203" s="12"/>
+    </row>
+    <row r="204" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
@@ -18177,8 +18744,10 @@
       <c r="BX204" s="12"/>
       <c r="BY204" s="12"/>
       <c r="BZ204" s="12"/>
-    </row>
-    <row r="205" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA204" s="12"/>
+      <c r="CB204" s="12"/>
+    </row>
+    <row r="205" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
@@ -18255,8 +18824,10 @@
       <c r="BX205" s="12"/>
       <c r="BY205" s="12"/>
       <c r="BZ205" s="12"/>
-    </row>
-    <row r="206" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA205" s="12"/>
+      <c r="CB205" s="12"/>
+    </row>
+    <row r="206" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C206" s="12"/>
       <c r="D206" s="12"/>
       <c r="E206" s="12"/>
@@ -18333,8 +18904,10 @@
       <c r="BX206" s="12"/>
       <c r="BY206" s="12"/>
       <c r="BZ206" s="12"/>
-    </row>
-    <row r="207" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA206" s="12"/>
+      <c r="CB206" s="12"/>
+    </row>
+    <row r="207" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
@@ -18411,8 +18984,10 @@
       <c r="BX207" s="12"/>
       <c r="BY207" s="12"/>
       <c r="BZ207" s="12"/>
-    </row>
-    <row r="208" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA207" s="12"/>
+      <c r="CB207" s="12"/>
+    </row>
+    <row r="208" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C208" s="12"/>
       <c r="D208" s="12"/>
       <c r="E208" s="12"/>
@@ -18489,8 +19064,10 @@
       <c r="BX208" s="12"/>
       <c r="BY208" s="12"/>
       <c r="BZ208" s="12"/>
-    </row>
-    <row r="209" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA208" s="12"/>
+      <c r="CB208" s="12"/>
+    </row>
+    <row r="209" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C209" s="12"/>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
@@ -18567,8 +19144,10 @@
       <c r="BX209" s="12"/>
       <c r="BY209" s="12"/>
       <c r="BZ209" s="12"/>
-    </row>
-    <row r="210" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA209" s="12"/>
+      <c r="CB209" s="12"/>
+    </row>
+    <row r="210" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
@@ -18645,8 +19224,10 @@
       <c r="BX210" s="12"/>
       <c r="BY210" s="12"/>
       <c r="BZ210" s="12"/>
-    </row>
-    <row r="211" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA210" s="12"/>
+      <c r="CB210" s="12"/>
+    </row>
+    <row r="211" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
@@ -18723,8 +19304,10 @@
       <c r="BX211" s="12"/>
       <c r="BY211" s="12"/>
       <c r="BZ211" s="12"/>
-    </row>
-    <row r="212" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA211" s="12"/>
+      <c r="CB211" s="12"/>
+    </row>
+    <row r="212" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
@@ -18801,8 +19384,10 @@
       <c r="BX212" s="12"/>
       <c r="BY212" s="12"/>
       <c r="BZ212" s="12"/>
-    </row>
-    <row r="213" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA212" s="12"/>
+      <c r="CB212" s="12"/>
+    </row>
+    <row r="213" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
@@ -18879,8 +19464,10 @@
       <c r="BX213" s="12"/>
       <c r="BY213" s="12"/>
       <c r="BZ213" s="12"/>
-    </row>
-    <row r="214" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA213" s="12"/>
+      <c r="CB213" s="12"/>
+    </row>
+    <row r="214" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
@@ -18957,8 +19544,10 @@
       <c r="BX214" s="12"/>
       <c r="BY214" s="12"/>
       <c r="BZ214" s="12"/>
-    </row>
-    <row r="215" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA214" s="12"/>
+      <c r="CB214" s="12"/>
+    </row>
+    <row r="215" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C215" s="12"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
@@ -19035,8 +19624,10 @@
       <c r="BX215" s="12"/>
       <c r="BY215" s="12"/>
       <c r="BZ215" s="12"/>
-    </row>
-    <row r="216" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA215" s="12"/>
+      <c r="CB215" s="12"/>
+    </row>
+    <row r="216" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C216" s="12"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
@@ -19113,8 +19704,10 @@
       <c r="BX216" s="12"/>
       <c r="BY216" s="12"/>
       <c r="BZ216" s="12"/>
-    </row>
-    <row r="217" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA216" s="12"/>
+      <c r="CB216" s="12"/>
+    </row>
+    <row r="217" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
@@ -19191,8 +19784,10 @@
       <c r="BX217" s="12"/>
       <c r="BY217" s="12"/>
       <c r="BZ217" s="12"/>
-    </row>
-    <row r="218" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA217" s="12"/>
+      <c r="CB217" s="12"/>
+    </row>
+    <row r="218" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C218" s="12"/>
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
@@ -19269,8 +19864,10 @@
       <c r="BX218" s="12"/>
       <c r="BY218" s="12"/>
       <c r="BZ218" s="12"/>
-    </row>
-    <row r="219" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA218" s="12"/>
+      <c r="CB218" s="12"/>
+    </row>
+    <row r="219" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
@@ -19347,8 +19944,10 @@
       <c r="BX219" s="12"/>
       <c r="BY219" s="12"/>
       <c r="BZ219" s="12"/>
-    </row>
-    <row r="220" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA219" s="12"/>
+      <c r="CB219" s="12"/>
+    </row>
+    <row r="220" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
       <c r="E220" s="12"/>
@@ -19425,8 +20024,10 @@
       <c r="BX220" s="12"/>
       <c r="BY220" s="12"/>
       <c r="BZ220" s="12"/>
-    </row>
-    <row r="221" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA220" s="12"/>
+      <c r="CB220" s="12"/>
+    </row>
+    <row r="221" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C221" s="12"/>
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
@@ -19503,8 +20104,10 @@
       <c r="BX221" s="12"/>
       <c r="BY221" s="12"/>
       <c r="BZ221" s="12"/>
-    </row>
-    <row r="222" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA221" s="12"/>
+      <c r="CB221" s="12"/>
+    </row>
+    <row r="222" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C222" s="12"/>
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
@@ -19581,8 +20184,10 @@
       <c r="BX222" s="12"/>
       <c r="BY222" s="12"/>
       <c r="BZ222" s="12"/>
-    </row>
-    <row r="223" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA222" s="12"/>
+      <c r="CB222" s="12"/>
+    </row>
+    <row r="223" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C223" s="12"/>
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
@@ -19659,8 +20264,10 @@
       <c r="BX223" s="12"/>
       <c r="BY223" s="12"/>
       <c r="BZ223" s="12"/>
-    </row>
-    <row r="224" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA223" s="12"/>
+      <c r="CB223" s="12"/>
+    </row>
+    <row r="224" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
@@ -19737,8 +20344,10 @@
       <c r="BX224" s="12"/>
       <c r="BY224" s="12"/>
       <c r="BZ224" s="12"/>
-    </row>
-    <row r="225" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA224" s="12"/>
+      <c r="CB224" s="12"/>
+    </row>
+    <row r="225" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C225" s="12"/>
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
@@ -19815,8 +20424,10 @@
       <c r="BX225" s="12"/>
       <c r="BY225" s="12"/>
       <c r="BZ225" s="12"/>
-    </row>
-    <row r="226" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA225" s="12"/>
+      <c r="CB225" s="12"/>
+    </row>
+    <row r="226" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C226" s="12"/>
       <c r="D226" s="12"/>
       <c r="E226" s="12"/>
@@ -19893,8 +20504,10 @@
       <c r="BX226" s="12"/>
       <c r="BY226" s="12"/>
       <c r="BZ226" s="12"/>
-    </row>
-    <row r="227" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA226" s="12"/>
+      <c r="CB226" s="12"/>
+    </row>
+    <row r="227" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C227" s="12"/>
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
@@ -19971,8 +20584,10 @@
       <c r="BX227" s="12"/>
       <c r="BY227" s="12"/>
       <c r="BZ227" s="12"/>
-    </row>
-    <row r="228" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA227" s="12"/>
+      <c r="CB227" s="12"/>
+    </row>
+    <row r="228" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C228" s="12"/>
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
@@ -20049,8 +20664,10 @@
       <c r="BX228" s="12"/>
       <c r="BY228" s="12"/>
       <c r="BZ228" s="12"/>
-    </row>
-    <row r="229" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA228" s="12"/>
+      <c r="CB228" s="12"/>
+    </row>
+    <row r="229" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C229" s="12"/>
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
@@ -20127,8 +20744,10 @@
       <c r="BX229" s="12"/>
       <c r="BY229" s="12"/>
       <c r="BZ229" s="12"/>
-    </row>
-    <row r="230" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA229" s="12"/>
+      <c r="CB229" s="12"/>
+    </row>
+    <row r="230" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
@@ -20205,8 +20824,10 @@
       <c r="BX230" s="12"/>
       <c r="BY230" s="12"/>
       <c r="BZ230" s="12"/>
-    </row>
-    <row r="231" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA230" s="12"/>
+      <c r="CB230" s="12"/>
+    </row>
+    <row r="231" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C231" s="12"/>
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
@@ -20283,8 +20904,10 @@
       <c r="BX231" s="12"/>
       <c r="BY231" s="12"/>
       <c r="BZ231" s="12"/>
-    </row>
-    <row r="232" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA231" s="12"/>
+      <c r="CB231" s="12"/>
+    </row>
+    <row r="232" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
@@ -20361,8 +20984,10 @@
       <c r="BX232" s="12"/>
       <c r="BY232" s="12"/>
       <c r="BZ232" s="12"/>
-    </row>
-    <row r="233" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA232" s="12"/>
+      <c r="CB232" s="12"/>
+    </row>
+    <row r="233" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
@@ -20439,8 +21064,10 @@
       <c r="BX233" s="12"/>
       <c r="BY233" s="12"/>
       <c r="BZ233" s="12"/>
-    </row>
-    <row r="234" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA233" s="12"/>
+      <c r="CB233" s="12"/>
+    </row>
+    <row r="234" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C234" s="12"/>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
@@ -20517,8 +21144,10 @@
       <c r="BX234" s="12"/>
       <c r="BY234" s="12"/>
       <c r="BZ234" s="12"/>
-    </row>
-    <row r="235" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA234" s="12"/>
+      <c r="CB234" s="12"/>
+    </row>
+    <row r="235" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
@@ -20595,8 +21224,10 @@
       <c r="BX235" s="12"/>
       <c r="BY235" s="12"/>
       <c r="BZ235" s="12"/>
-    </row>
-    <row r="236" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA235" s="12"/>
+      <c r="CB235" s="12"/>
+    </row>
+    <row r="236" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C236" s="12"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
@@ -20673,8 +21304,10 @@
       <c r="BX236" s="12"/>
       <c r="BY236" s="12"/>
       <c r="BZ236" s="12"/>
-    </row>
-    <row r="237" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA236" s="12"/>
+      <c r="CB236" s="12"/>
+    </row>
+    <row r="237" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
@@ -20751,8 +21384,10 @@
       <c r="BX237" s="12"/>
       <c r="BY237" s="12"/>
       <c r="BZ237" s="12"/>
-    </row>
-    <row r="238" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA237" s="12"/>
+      <c r="CB237" s="12"/>
+    </row>
+    <row r="238" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C238" s="12"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
@@ -20829,8 +21464,10 @@
       <c r="BX238" s="12"/>
       <c r="BY238" s="12"/>
       <c r="BZ238" s="12"/>
-    </row>
-    <row r="239" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA238" s="12"/>
+      <c r="CB238" s="12"/>
+    </row>
+    <row r="239" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C239" s="12"/>
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
@@ -20907,8 +21544,10 @@
       <c r="BX239" s="12"/>
       <c r="BY239" s="12"/>
       <c r="BZ239" s="12"/>
-    </row>
-    <row r="240" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA239" s="12"/>
+      <c r="CB239" s="12"/>
+    </row>
+    <row r="240" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C240" s="12"/>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
@@ -20985,8 +21624,10 @@
       <c r="BX240" s="12"/>
       <c r="BY240" s="12"/>
       <c r="BZ240" s="12"/>
-    </row>
-    <row r="241" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA240" s="12"/>
+      <c r="CB240" s="12"/>
+    </row>
+    <row r="241" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C241" s="12"/>
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
@@ -21063,8 +21704,10 @@
       <c r="BX241" s="12"/>
       <c r="BY241" s="12"/>
       <c r="BZ241" s="12"/>
-    </row>
-    <row r="242" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA241" s="12"/>
+      <c r="CB241" s="12"/>
+    </row>
+    <row r="242" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C242" s="12"/>
       <c r="D242" s="12"/>
       <c r="E242" s="12"/>
@@ -21141,8 +21784,10 @@
       <c r="BX242" s="12"/>
       <c r="BY242" s="12"/>
       <c r="BZ242" s="12"/>
-    </row>
-    <row r="243" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA242" s="12"/>
+      <c r="CB242" s="12"/>
+    </row>
+    <row r="243" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
@@ -21219,8 +21864,10 @@
       <c r="BX243" s="12"/>
       <c r="BY243" s="12"/>
       <c r="BZ243" s="12"/>
-    </row>
-    <row r="244" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA243" s="12"/>
+      <c r="CB243" s="12"/>
+    </row>
+    <row r="244" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C244" s="12"/>
       <c r="D244" s="12"/>
       <c r="E244" s="12"/>
@@ -21297,8 +21944,10 @@
       <c r="BX244" s="12"/>
       <c r="BY244" s="12"/>
       <c r="BZ244" s="12"/>
-    </row>
-    <row r="245" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA244" s="12"/>
+      <c r="CB244" s="12"/>
+    </row>
+    <row r="245" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C245" s="12"/>
       <c r="D245" s="12"/>
       <c r="E245" s="12"/>
@@ -21375,8 +22024,10 @@
       <c r="BX245" s="12"/>
       <c r="BY245" s="12"/>
       <c r="BZ245" s="12"/>
-    </row>
-    <row r="246" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA245" s="12"/>
+      <c r="CB245" s="12"/>
+    </row>
+    <row r="246" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
       <c r="E246" s="12"/>
@@ -21453,8 +22104,10 @@
       <c r="BX246" s="12"/>
       <c r="BY246" s="12"/>
       <c r="BZ246" s="12"/>
-    </row>
-    <row r="247" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA246" s="12"/>
+      <c r="CB246" s="12"/>
+    </row>
+    <row r="247" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
@@ -21531,8 +22184,10 @@
       <c r="BX247" s="12"/>
       <c r="BY247" s="12"/>
       <c r="BZ247" s="12"/>
-    </row>
-    <row r="248" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA247" s="12"/>
+      <c r="CB247" s="12"/>
+    </row>
+    <row r="248" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
@@ -21609,8 +22264,10 @@
       <c r="BX248" s="12"/>
       <c r="BY248" s="12"/>
       <c r="BZ248" s="12"/>
-    </row>
-    <row r="249" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA248" s="12"/>
+      <c r="CB248" s="12"/>
+    </row>
+    <row r="249" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C249" s="12"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
@@ -21687,8 +22344,10 @@
       <c r="BX249" s="12"/>
       <c r="BY249" s="12"/>
       <c r="BZ249" s="12"/>
-    </row>
-    <row r="250" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA249" s="12"/>
+      <c r="CB249" s="12"/>
+    </row>
+    <row r="250" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C250" s="12"/>
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
@@ -21765,8 +22424,10 @@
       <c r="BX250" s="12"/>
       <c r="BY250" s="12"/>
       <c r="BZ250" s="12"/>
-    </row>
-    <row r="251" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA250" s="12"/>
+      <c r="CB250" s="12"/>
+    </row>
+    <row r="251" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C251" s="12"/>
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
@@ -21843,8 +22504,10 @@
       <c r="BX251" s="12"/>
       <c r="BY251" s="12"/>
       <c r="BZ251" s="12"/>
-    </row>
-    <row r="252" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA251" s="12"/>
+      <c r="CB251" s="12"/>
+    </row>
+    <row r="252" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C252" s="12"/>
       <c r="D252" s="12"/>
       <c r="E252" s="12"/>
@@ -21921,8 +22584,10 @@
       <c r="BX252" s="12"/>
       <c r="BY252" s="12"/>
       <c r="BZ252" s="12"/>
-    </row>
-    <row r="253" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA252" s="12"/>
+      <c r="CB252" s="12"/>
+    </row>
+    <row r="253" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C253" s="12"/>
       <c r="D253" s="12"/>
       <c r="E253" s="12"/>
@@ -21999,8 +22664,10 @@
       <c r="BX253" s="12"/>
       <c r="BY253" s="12"/>
       <c r="BZ253" s="12"/>
-    </row>
-    <row r="254" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA253" s="12"/>
+      <c r="CB253" s="12"/>
+    </row>
+    <row r="254" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
@@ -22077,8 +22744,10 @@
       <c r="BX254" s="12"/>
       <c r="BY254" s="12"/>
       <c r="BZ254" s="12"/>
-    </row>
-    <row r="255" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA254" s="12"/>
+      <c r="CB254" s="12"/>
+    </row>
+    <row r="255" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C255" s="12"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
@@ -22155,8 +22824,10 @@
       <c r="BX255" s="12"/>
       <c r="BY255" s="12"/>
       <c r="BZ255" s="12"/>
-    </row>
-    <row r="256" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA255" s="12"/>
+      <c r="CB255" s="12"/>
+    </row>
+    <row r="256" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
@@ -22233,8 +22904,10 @@
       <c r="BX256" s="12"/>
       <c r="BY256" s="12"/>
       <c r="BZ256" s="12"/>
-    </row>
-    <row r="257" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA256" s="12"/>
+      <c r="CB256" s="12"/>
+    </row>
+    <row r="257" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C257" s="12"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
@@ -22311,8 +22984,10 @@
       <c r="BX257" s="12"/>
       <c r="BY257" s="12"/>
       <c r="BZ257" s="12"/>
-    </row>
-    <row r="258" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA257" s="12"/>
+      <c r="CB257" s="12"/>
+    </row>
+    <row r="258" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C258" s="12"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
@@ -22389,8 +23064,10 @@
       <c r="BX258" s="12"/>
       <c r="BY258" s="12"/>
       <c r="BZ258" s="12"/>
-    </row>
-    <row r="259" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA258" s="12"/>
+      <c r="CB258" s="12"/>
+    </row>
+    <row r="259" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
@@ -22467,8 +23144,10 @@
       <c r="BX259" s="12"/>
       <c r="BY259" s="12"/>
       <c r="BZ259" s="12"/>
-    </row>
-    <row r="260" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA259" s="12"/>
+      <c r="CB259" s="12"/>
+    </row>
+    <row r="260" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C260" s="12"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
@@ -22545,8 +23224,10 @@
       <c r="BX260" s="12"/>
       <c r="BY260" s="12"/>
       <c r="BZ260" s="12"/>
-    </row>
-    <row r="261" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA260" s="12"/>
+      <c r="CB260" s="12"/>
+    </row>
+    <row r="261" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
@@ -22623,8 +23304,10 @@
       <c r="BX261" s="12"/>
       <c r="BY261" s="12"/>
       <c r="BZ261" s="12"/>
-    </row>
-    <row r="262" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA261" s="12"/>
+      <c r="CB261" s="12"/>
+    </row>
+    <row r="262" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
@@ -22701,8 +23384,10 @@
       <c r="BX262" s="12"/>
       <c r="BY262" s="12"/>
       <c r="BZ262" s="12"/>
-    </row>
-    <row r="263" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA262" s="12"/>
+      <c r="CB262" s="12"/>
+    </row>
+    <row r="263" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
@@ -22779,8 +23464,10 @@
       <c r="BX263" s="12"/>
       <c r="BY263" s="12"/>
       <c r="BZ263" s="12"/>
-    </row>
-    <row r="264" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA263" s="12"/>
+      <c r="CB263" s="12"/>
+    </row>
+    <row r="264" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C264" s="12"/>
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
@@ -22857,8 +23544,10 @@
       <c r="BX264" s="12"/>
       <c r="BY264" s="12"/>
       <c r="BZ264" s="12"/>
-    </row>
-    <row r="265" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA264" s="12"/>
+      <c r="CB264" s="12"/>
+    </row>
+    <row r="265" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
@@ -22935,8 +23624,10 @@
       <c r="BX265" s="12"/>
       <c r="BY265" s="12"/>
       <c r="BZ265" s="12"/>
-    </row>
-    <row r="266" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA265" s="12"/>
+      <c r="CB265" s="12"/>
+    </row>
+    <row r="266" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C266" s="12"/>
       <c r="D266" s="12"/>
       <c r="E266" s="12"/>
@@ -23013,8 +23704,10 @@
       <c r="BX266" s="12"/>
       <c r="BY266" s="12"/>
       <c r="BZ266" s="12"/>
-    </row>
-    <row r="267" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA266" s="12"/>
+      <c r="CB266" s="12"/>
+    </row>
+    <row r="267" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
@@ -23091,8 +23784,10 @@
       <c r="BX267" s="12"/>
       <c r="BY267" s="12"/>
       <c r="BZ267" s="12"/>
-    </row>
-    <row r="268" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA267" s="12"/>
+      <c r="CB267" s="12"/>
+    </row>
+    <row r="268" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C268" s="12"/>
       <c r="D268" s="12"/>
       <c r="E268" s="12"/>
@@ -23169,8 +23864,10 @@
       <c r="BX268" s="12"/>
       <c r="BY268" s="12"/>
       <c r="BZ268" s="12"/>
-    </row>
-    <row r="269" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA268" s="12"/>
+      <c r="CB268" s="12"/>
+    </row>
+    <row r="269" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C269" s="12"/>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
@@ -23247,8 +23944,10 @@
       <c r="BX269" s="12"/>
       <c r="BY269" s="12"/>
       <c r="BZ269" s="12"/>
-    </row>
-    <row r="270" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA269" s="12"/>
+      <c r="CB269" s="12"/>
+    </row>
+    <row r="270" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C270" s="12"/>
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
@@ -23325,8 +24024,10 @@
       <c r="BX270" s="12"/>
       <c r="BY270" s="12"/>
       <c r="BZ270" s="12"/>
-    </row>
-    <row r="271" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA270" s="12"/>
+      <c r="CB270" s="12"/>
+    </row>
+    <row r="271" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
@@ -23403,8 +24104,10 @@
       <c r="BX271" s="12"/>
       <c r="BY271" s="12"/>
       <c r="BZ271" s="12"/>
-    </row>
-    <row r="272" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA271" s="12"/>
+      <c r="CB271" s="12"/>
+    </row>
+    <row r="272" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C272" s="12"/>
       <c r="D272" s="12"/>
       <c r="E272" s="12"/>
@@ -23481,8 +24184,10 @@
       <c r="BX272" s="12"/>
       <c r="BY272" s="12"/>
       <c r="BZ272" s="12"/>
-    </row>
-    <row r="273" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA272" s="12"/>
+      <c r="CB272" s="12"/>
+    </row>
+    <row r="273" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
@@ -23559,8 +24264,10 @@
       <c r="BX273" s="12"/>
       <c r="BY273" s="12"/>
       <c r="BZ273" s="12"/>
-    </row>
-    <row r="274" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA273" s="12"/>
+      <c r="CB273" s="12"/>
+    </row>
+    <row r="274" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C274" s="12"/>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
@@ -23637,8 +24344,10 @@
       <c r="BX274" s="12"/>
       <c r="BY274" s="12"/>
       <c r="BZ274" s="12"/>
-    </row>
-    <row r="275" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA274" s="12"/>
+      <c r="CB274" s="12"/>
+    </row>
+    <row r="275" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
@@ -23715,8 +24424,10 @@
       <c r="BX275" s="12"/>
       <c r="BY275" s="12"/>
       <c r="BZ275" s="12"/>
-    </row>
-    <row r="276" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA275" s="12"/>
+      <c r="CB275" s="12"/>
+    </row>
+    <row r="276" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
@@ -23793,8 +24504,10 @@
       <c r="BX276" s="12"/>
       <c r="BY276" s="12"/>
       <c r="BZ276" s="12"/>
-    </row>
-    <row r="277" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA276" s="12"/>
+      <c r="CB276" s="12"/>
+    </row>
+    <row r="277" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C277" s="12"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
@@ -23871,8 +24584,10 @@
       <c r="BX277" s="12"/>
       <c r="BY277" s="12"/>
       <c r="BZ277" s="12"/>
-    </row>
-    <row r="278" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA277" s="12"/>
+      <c r="CB277" s="12"/>
+    </row>
+    <row r="278" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
@@ -23949,8 +24664,10 @@
       <c r="BX278" s="12"/>
       <c r="BY278" s="12"/>
       <c r="BZ278" s="12"/>
-    </row>
-    <row r="279" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA278" s="12"/>
+      <c r="CB278" s="12"/>
+    </row>
+    <row r="279" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
@@ -24027,8 +24744,10 @@
       <c r="BX279" s="12"/>
       <c r="BY279" s="12"/>
       <c r="BZ279" s="12"/>
-    </row>
-    <row r="280" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA279" s="12"/>
+      <c r="CB279" s="12"/>
+    </row>
+    <row r="280" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
@@ -24105,8 +24824,10 @@
       <c r="BX280" s="12"/>
       <c r="BY280" s="12"/>
       <c r="BZ280" s="12"/>
-    </row>
-    <row r="281" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA280" s="12"/>
+      <c r="CB280" s="12"/>
+    </row>
+    <row r="281" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C281" s="12"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
@@ -24183,8 +24904,10 @@
       <c r="BX281" s="12"/>
       <c r="BY281" s="12"/>
       <c r="BZ281" s="12"/>
-    </row>
-    <row r="282" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA281" s="12"/>
+      <c r="CB281" s="12"/>
+    </row>
+    <row r="282" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C282" s="12"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
@@ -24261,8 +24984,10 @@
       <c r="BX282" s="12"/>
       <c r="BY282" s="12"/>
       <c r="BZ282" s="12"/>
-    </row>
-    <row r="283" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA282" s="12"/>
+      <c r="CB282" s="12"/>
+    </row>
+    <row r="283" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
@@ -24339,8 +25064,10 @@
       <c r="BX283" s="12"/>
       <c r="BY283" s="12"/>
       <c r="BZ283" s="12"/>
-    </row>
-    <row r="284" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA283" s="12"/>
+      <c r="CB283" s="12"/>
+    </row>
+    <row r="284" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C284" s="12"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
@@ -24417,8 +25144,10 @@
       <c r="BX284" s="12"/>
       <c r="BY284" s="12"/>
       <c r="BZ284" s="12"/>
-    </row>
-    <row r="285" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA284" s="12"/>
+      <c r="CB284" s="12"/>
+    </row>
+    <row r="285" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C285" s="12"/>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
@@ -24495,8 +25224,10 @@
       <c r="BX285" s="12"/>
       <c r="BY285" s="12"/>
       <c r="BZ285" s="12"/>
-    </row>
-    <row r="286" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA285" s="12"/>
+      <c r="CB285" s="12"/>
+    </row>
+    <row r="286" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
@@ -24573,8 +25304,10 @@
       <c r="BX286" s="12"/>
       <c r="BY286" s="12"/>
       <c r="BZ286" s="12"/>
-    </row>
-    <row r="287" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA286" s="12"/>
+      <c r="CB286" s="12"/>
+    </row>
+    <row r="287" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C287" s="12"/>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
@@ -24651,8 +25384,10 @@
       <c r="BX287" s="12"/>
       <c r="BY287" s="12"/>
       <c r="BZ287" s="12"/>
-    </row>
-    <row r="288" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA287" s="12"/>
+      <c r="CB287" s="12"/>
+    </row>
+    <row r="288" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C288" s="12"/>
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
@@ -24729,8 +25464,10 @@
       <c r="BX288" s="12"/>
       <c r="BY288" s="12"/>
       <c r="BZ288" s="12"/>
-    </row>
-    <row r="289" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA288" s="12"/>
+      <c r="CB288" s="12"/>
+    </row>
+    <row r="289" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C289" s="12"/>
       <c r="D289" s="12"/>
       <c r="E289" s="12"/>
@@ -24807,8 +25544,10 @@
       <c r="BX289" s="12"/>
       <c r="BY289" s="12"/>
       <c r="BZ289" s="12"/>
-    </row>
-    <row r="290" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA289" s="12"/>
+      <c r="CB289" s="12"/>
+    </row>
+    <row r="290" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C290" s="12"/>
       <c r="D290" s="12"/>
       <c r="E290" s="12"/>
@@ -24885,8 +25624,10 @@
       <c r="BX290" s="12"/>
       <c r="BY290" s="12"/>
       <c r="BZ290" s="12"/>
-    </row>
-    <row r="291" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA290" s="12"/>
+      <c r="CB290" s="12"/>
+    </row>
+    <row r="291" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C291" s="12"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
@@ -24963,8 +25704,10 @@
       <c r="BX291" s="12"/>
       <c r="BY291" s="12"/>
       <c r="BZ291" s="12"/>
-    </row>
-    <row r="292" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA291" s="12"/>
+      <c r="CB291" s="12"/>
+    </row>
+    <row r="292" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C292" s="12"/>
       <c r="D292" s="12"/>
       <c r="E292" s="12"/>
@@ -25041,8 +25784,10 @@
       <c r="BX292" s="12"/>
       <c r="BY292" s="12"/>
       <c r="BZ292" s="12"/>
-    </row>
-    <row r="293" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA292" s="12"/>
+      <c r="CB292" s="12"/>
+    </row>
+    <row r="293" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
       <c r="E293" s="12"/>
@@ -25119,8 +25864,10 @@
       <c r="BX293" s="12"/>
       <c r="BY293" s="12"/>
       <c r="BZ293" s="12"/>
-    </row>
-    <row r="294" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA293" s="12"/>
+      <c r="CB293" s="12"/>
+    </row>
+    <row r="294" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
@@ -25197,8 +25944,10 @@
       <c r="BX294" s="12"/>
       <c r="BY294" s="12"/>
       <c r="BZ294" s="12"/>
-    </row>
-    <row r="295" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA294" s="12"/>
+      <c r="CB294" s="12"/>
+    </row>
+    <row r="295" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
@@ -25275,8 +26024,10 @@
       <c r="BX295" s="12"/>
       <c r="BY295" s="12"/>
       <c r="BZ295" s="12"/>
-    </row>
-    <row r="296" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA295" s="12"/>
+      <c r="CB295" s="12"/>
+    </row>
+    <row r="296" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
@@ -25353,8 +26104,10 @@
       <c r="BX296" s="12"/>
       <c r="BY296" s="12"/>
       <c r="BZ296" s="12"/>
-    </row>
-    <row r="297" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA296" s="12"/>
+      <c r="CB296" s="12"/>
+    </row>
+    <row r="297" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
@@ -25431,8 +26184,10 @@
       <c r="BX297" s="12"/>
       <c r="BY297" s="12"/>
       <c r="BZ297" s="12"/>
-    </row>
-    <row r="298" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA297" s="12"/>
+      <c r="CB297" s="12"/>
+    </row>
+    <row r="298" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
@@ -25509,8 +26264,10 @@
       <c r="BX298" s="12"/>
       <c r="BY298" s="12"/>
       <c r="BZ298" s="12"/>
-    </row>
-    <row r="299" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA298" s="12"/>
+      <c r="CB298" s="12"/>
+    </row>
+    <row r="299" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
@@ -25587,8 +26344,10 @@
       <c r="BX299" s="12"/>
       <c r="BY299" s="12"/>
       <c r="BZ299" s="12"/>
-    </row>
-    <row r="300" spans="3:78" x14ac:dyDescent="0.25">
+      <c r="CA299" s="12"/>
+      <c r="CB299" s="12"/>
+    </row>
+    <row r="300" spans="3:80" x14ac:dyDescent="0.25">
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
@@ -25665,6 +26424,88 @@
       <c r="BX300" s="12"/>
       <c r="BY300" s="12"/>
       <c r="BZ300" s="12"/>
+      <c r="CA300" s="12"/>
+      <c r="CB300" s="12"/>
+    </row>
+    <row r="301" spans="3:80" x14ac:dyDescent="0.25">
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+      <c r="H301" s="12"/>
+      <c r="I301" s="12"/>
+      <c r="J301" s="12"/>
+      <c r="K301" s="12"/>
+      <c r="L301" s="12"/>
+      <c r="M301" s="12"/>
+      <c r="N301" s="12"/>
+      <c r="O301" s="12"/>
+      <c r="P301" s="12"/>
+      <c r="Q301" s="12"/>
+      <c r="R301" s="12"/>
+      <c r="S301" s="12"/>
+      <c r="T301" s="12"/>
+      <c r="U301" s="12"/>
+      <c r="V301" s="12"/>
+      <c r="W301" s="12"/>
+      <c r="X301" s="12"/>
+      <c r="Y301" s="12"/>
+      <c r="Z301" s="12"/>
+      <c r="AA301" s="12"/>
+      <c r="AB301" s="12"/>
+      <c r="AC301" s="12"/>
+      <c r="AD301" s="12"/>
+      <c r="AE301" s="12"/>
+      <c r="AF301" s="12"/>
+      <c r="AG301" s="12"/>
+      <c r="AH301" s="12"/>
+      <c r="AI301" s="12"/>
+      <c r="AJ301" s="12"/>
+      <c r="AK301" s="12"/>
+      <c r="AL301" s="12"/>
+      <c r="AM301" s="12"/>
+      <c r="AN301" s="12"/>
+      <c r="AO301" s="12"/>
+      <c r="AP301" s="12"/>
+      <c r="AQ301" s="12"/>
+      <c r="AR301" s="12"/>
+      <c r="AS301" s="12"/>
+      <c r="AT301" s="12"/>
+      <c r="AU301" s="12"/>
+      <c r="AV301" s="12"/>
+      <c r="AW301" s="12"/>
+      <c r="AX301" s="12"/>
+      <c r="AY301" s="12"/>
+      <c r="AZ301" s="12"/>
+      <c r="BA301" s="12"/>
+      <c r="BB301" s="12"/>
+      <c r="BC301" s="12"/>
+      <c r="BD301" s="12"/>
+      <c r="BE301" s="12"/>
+      <c r="BF301" s="12"/>
+      <c r="BG301" s="12"/>
+      <c r="BH301" s="12"/>
+      <c r="BI301" s="12"/>
+      <c r="BJ301" s="12"/>
+      <c r="BK301" s="12"/>
+      <c r="BL301" s="12"/>
+      <c r="BM301" s="12"/>
+      <c r="BN301" s="12"/>
+      <c r="BO301" s="12"/>
+      <c r="BP301" s="12"/>
+      <c r="BQ301" s="12"/>
+      <c r="BR301" s="12"/>
+      <c r="BS301" s="12"/>
+      <c r="BT301" s="12"/>
+      <c r="BU301" s="12"/>
+      <c r="BV301" s="12"/>
+      <c r="BW301" s="12"/>
+      <c r="BX301" s="12"/>
+      <c r="BY301" s="12"/>
+      <c r="BZ301" s="12"/>
+      <c r="CA301" s="12"/>
+      <c r="CB301" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
